--- a/BackTest/2020-01-14 BackTest WAXP.xlsx
+++ b/BackTest/2020-01-14 BackTest WAXP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M247"/>
+  <dimension ref="A1:M248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,28 +433,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="C2" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="D2" t="n">
         <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="F2" t="n">
-        <v>8513.408799999999</v>
+        <v>152145.2743</v>
       </c>
       <c r="G2" t="n">
-        <v>20.90866666666667</v>
+        <v>20.88516666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C3" t="n">
         <v>21.8</v>
       </c>
-      <c r="C3" t="n">
-        <v>21.9</v>
-      </c>
       <c r="D3" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="F3" t="n">
-        <v>23908.2192</v>
+        <v>8513.408799999999</v>
       </c>
       <c r="G3" t="n">
-        <v>20.93383333333334</v>
+        <v>20.90866666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C4" t="n">
         <v>21.9</v>
       </c>
-      <c r="C4" t="n">
-        <v>21.54</v>
-      </c>
       <c r="D4" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="E4" t="n">
-        <v>21.54</v>
+        <v>21.8</v>
       </c>
       <c r="F4" t="n">
-        <v>45679.7788059</v>
+        <v>23908.2192</v>
       </c>
       <c r="G4" t="n">
-        <v>20.953</v>
+        <v>20.93383333333334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="C5" t="n">
-        <v>21.4</v>
+        <v>21.54</v>
       </c>
       <c r="D5" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>21.4</v>
+        <v>21.54</v>
       </c>
       <c r="F5" t="n">
-        <v>52986.8706</v>
+        <v>45679.7788059</v>
       </c>
       <c r="G5" t="n">
-        <v>20.96983333333333</v>
+        <v>20.953</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="C6" t="n">
         <v>21.4</v>
       </c>
       <c r="D6" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="E6" t="n">
         <v>21.4</v>
       </c>
       <c r="F6" t="n">
-        <v>6000</v>
+        <v>52986.8706</v>
       </c>
       <c r="G6" t="n">
-        <v>20.98666666666667</v>
+        <v>20.96983333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C7" t="n">
         <v>21.4</v>
       </c>
-      <c r="C7" t="n">
-        <v>21.69</v>
-      </c>
       <c r="D7" t="n">
-        <v>21.69</v>
+        <v>21.5</v>
       </c>
       <c r="E7" t="n">
-        <v>21.26</v>
+        <v>21.4</v>
       </c>
       <c r="F7" t="n">
-        <v>12223.053</v>
+        <v>6000</v>
       </c>
       <c r="G7" t="n">
-        <v>21.00833333333333</v>
+        <v>20.98666666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>21.69</v>
+        <v>21.4</v>
       </c>
       <c r="C8" t="n">
         <v>21.69</v>
@@ -655,10 +655,10 @@
         <v>21.26</v>
       </c>
       <c r="F8" t="n">
-        <v>59712.5649</v>
+        <v>12223.053</v>
       </c>
       <c r="G8" t="n">
-        <v>21.03</v>
+        <v>21.00833333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -687,13 +687,13 @@
         <v>21.69</v>
       </c>
       <c r="E9" t="n">
-        <v>21.69</v>
+        <v>21.26</v>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>59712.5649</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05183333333333</v>
+        <v>21.03</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21.68</v>
+        <v>21.69</v>
       </c>
       <c r="C10" t="n">
-        <v>21.4</v>
+        <v>21.69</v>
       </c>
       <c r="D10" t="n">
-        <v>21.7</v>
+        <v>21.69</v>
       </c>
       <c r="E10" t="n">
-        <v>21.4</v>
+        <v>21.69</v>
       </c>
       <c r="F10" t="n">
-        <v>103213.1735</v>
+        <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>21.06866666666667</v>
+        <v>21.05183333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21.4</v>
+        <v>21.68</v>
       </c>
       <c r="C11" t="n">
         <v>21.4</v>
       </c>
       <c r="D11" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="E11" t="n">
         <v>21.4</v>
       </c>
       <c r="F11" t="n">
-        <v>6600</v>
+        <v>103213.1735</v>
       </c>
       <c r="G11" t="n">
-        <v>21.0855</v>
+        <v>21.06866666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>21.4</v>
       </c>
       <c r="C12" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="D12" t="n">
         <v>21.4</v>
       </c>
       <c r="E12" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="F12" t="n">
-        <v>8361</v>
+        <v>6600</v>
       </c>
       <c r="G12" t="n">
-        <v>21.09883333333333</v>
+        <v>21.0855</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21.48</v>
+        <v>21.4</v>
       </c>
       <c r="C13" t="n">
-        <v>21.48</v>
+        <v>21.2</v>
       </c>
       <c r="D13" t="n">
-        <v>21.48</v>
+        <v>21.4</v>
       </c>
       <c r="E13" t="n">
-        <v>21.48</v>
+        <v>21.2</v>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>8361</v>
       </c>
       <c r="G13" t="n">
-        <v>21.11533333333333</v>
+        <v>21.09883333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21.46</v>
+        <v>21.48</v>
       </c>
       <c r="C14" t="n">
-        <v>21.49</v>
+        <v>21.48</v>
       </c>
       <c r="D14" t="n">
-        <v>21.49</v>
+        <v>21.48</v>
       </c>
       <c r="E14" t="n">
-        <v>21.46</v>
+        <v>21.48</v>
       </c>
       <c r="F14" t="n">
-        <v>6106.5846</v>
+        <v>50</v>
       </c>
       <c r="G14" t="n">
-        <v>21.132</v>
+        <v>21.11533333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21.22</v>
+        <v>21.46</v>
       </c>
       <c r="C15" t="n">
-        <v>21.22</v>
+        <v>21.49</v>
       </c>
       <c r="D15" t="n">
-        <v>21.22</v>
+        <v>21.49</v>
       </c>
       <c r="E15" t="n">
-        <v>21.22</v>
+        <v>21.46</v>
       </c>
       <c r="F15" t="n">
-        <v>314.5919</v>
+        <v>6106.5846</v>
       </c>
       <c r="G15" t="n">
-        <v>21.14416666666666</v>
+        <v>21.132</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>21.49</v>
+        <v>21.22</v>
       </c>
       <c r="C16" t="n">
-        <v>21.49</v>
+        <v>21.22</v>
       </c>
       <c r="D16" t="n">
-        <v>21.49</v>
+        <v>21.22</v>
       </c>
       <c r="E16" t="n">
-        <v>21.49</v>
+        <v>21.22</v>
       </c>
       <c r="F16" t="n">
-        <v>25</v>
+        <v>314.5919</v>
       </c>
       <c r="G16" t="n">
-        <v>21.16083333333333</v>
+        <v>21.14416666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>21.49</v>
       </c>
       <c r="C17" t="n">
-        <v>21.4</v>
+        <v>21.49</v>
       </c>
       <c r="D17" t="n">
         <v>21.49</v>
       </c>
       <c r="E17" t="n">
-        <v>21.2</v>
+        <v>21.49</v>
       </c>
       <c r="F17" t="n">
-        <v>55639.6563</v>
+        <v>25</v>
       </c>
       <c r="G17" t="n">
-        <v>21.176</v>
+        <v>21.16083333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>21.2</v>
+        <v>21.49</v>
       </c>
       <c r="C18" t="n">
-        <v>21.49</v>
+        <v>21.4</v>
       </c>
       <c r="D18" t="n">
         <v>21.49</v>
@@ -1005,10 +1005,10 @@
         <v>21.2</v>
       </c>
       <c r="F18" t="n">
-        <v>60597.7378</v>
+        <v>55639.6563</v>
       </c>
       <c r="G18" t="n">
-        <v>21.1975</v>
+        <v>21.176</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C19" t="n">
         <v>21.49</v>
-      </c>
-      <c r="C19" t="n">
-        <v>21.11</v>
       </c>
       <c r="D19" t="n">
         <v>21.49</v>
       </c>
       <c r="E19" t="n">
-        <v>21.11</v>
+        <v>21.2</v>
       </c>
       <c r="F19" t="n">
-        <v>56670.2512</v>
+        <v>60597.7378</v>
       </c>
       <c r="G19" t="n">
-        <v>21.20933333333333</v>
+        <v>21.1975</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>21.4</v>
+        <v>21.49</v>
       </c>
       <c r="C20" t="n">
-        <v>21.39</v>
+        <v>21.11</v>
       </c>
       <c r="D20" t="n">
-        <v>21.4</v>
+        <v>21.49</v>
       </c>
       <c r="E20" t="n">
-        <v>21.39</v>
+        <v>21.11</v>
       </c>
       <c r="F20" t="n">
-        <v>20823.4458</v>
+        <v>56670.2512</v>
       </c>
       <c r="G20" t="n">
-        <v>21.22433333333333</v>
+        <v>21.20933333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="C21" t="n">
-        <v>21.11</v>
+        <v>21.39</v>
       </c>
       <c r="D21" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="E21" t="n">
-        <v>21.11</v>
+        <v>21.39</v>
       </c>
       <c r="F21" t="n">
-        <v>6096.1939</v>
+        <v>20823.4458</v>
       </c>
       <c r="G21" t="n">
-        <v>21.23466666666666</v>
+        <v>21.22433333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C22" t="n">
         <v>21.11</v>
       </c>
-      <c r="C22" t="n">
-        <v>21.06</v>
-      </c>
       <c r="D22" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E22" t="n">
         <v>21.11</v>
       </c>
-      <c r="E22" t="n">
-        <v>21.06</v>
-      </c>
       <c r="F22" t="n">
-        <v>61196.3206</v>
+        <v>6096.1939</v>
       </c>
       <c r="G22" t="n">
-        <v>21.24266666666666</v>
+        <v>21.23466666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,29 +1171,35 @@
         <v>21.11</v>
       </c>
       <c r="C23" t="n">
-        <v>21.11</v>
+        <v>21.06</v>
       </c>
       <c r="D23" t="n">
         <v>21.11</v>
       </c>
       <c r="E23" t="n">
+        <v>21.06</v>
+      </c>
+      <c r="F23" t="n">
+        <v>61196.3206</v>
+      </c>
+      <c r="G23" t="n">
+        <v>21.24266666666666</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>21.11</v>
       </c>
-      <c r="F23" t="n">
-        <v>23670.0973</v>
-      </c>
-      <c r="G23" t="n">
-        <v>21.25283333333333</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,32 +1209,38 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>21.2</v>
+        <v>21.11</v>
       </c>
       <c r="C24" t="n">
-        <v>21.3</v>
+        <v>21.11</v>
       </c>
       <c r="D24" t="n">
-        <v>21.3</v>
+        <v>21.11</v>
       </c>
       <c r="E24" t="n">
-        <v>21.2</v>
+        <v>21.11</v>
       </c>
       <c r="F24" t="n">
-        <v>57792.8666</v>
+        <v>23670.0973</v>
       </c>
       <c r="G24" t="n">
-        <v>21.26616666666666</v>
+        <v>21.25283333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>21.06</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,32 +1250,38 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>21.48</v>
+        <v>21.2</v>
       </c>
       <c r="C25" t="n">
-        <v>21.57</v>
+        <v>21.3</v>
       </c>
       <c r="D25" t="n">
-        <v>21.57</v>
+        <v>21.3</v>
       </c>
       <c r="E25" t="n">
-        <v>21.48</v>
+        <v>21.2</v>
       </c>
       <c r="F25" t="n">
-        <v>34194.2855</v>
+        <v>57792.8666</v>
       </c>
       <c r="G25" t="n">
-        <v>21.28399999999999</v>
+        <v>21.26616666666666</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>21.11</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1273,7 +1291,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>21.57</v>
+        <v>21.48</v>
       </c>
       <c r="C26" t="n">
         <v>21.57</v>
@@ -1282,13 +1300,13 @@
         <v>21.57</v>
       </c>
       <c r="E26" t="n">
-        <v>21.57</v>
+        <v>21.48</v>
       </c>
       <c r="F26" t="n">
-        <v>563.6068613800001</v>
+        <v>34194.2855</v>
       </c>
       <c r="G26" t="n">
-        <v>21.30016666666666</v>
+        <v>21.28399999999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,7 +1316,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1320,10 +1342,10 @@
         <v>21.57</v>
       </c>
       <c r="F27" t="n">
-        <v>45265.39313862</v>
+        <v>563.6068613800001</v>
       </c>
       <c r="G27" t="n">
-        <v>21.31483333333332</v>
+        <v>21.30016666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,7 +1355,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1346,19 +1372,19 @@
         <v>21.57</v>
       </c>
       <c r="C28" t="n">
-        <v>21.2</v>
+        <v>21.57</v>
       </c>
       <c r="D28" t="n">
         <v>21.57</v>
       </c>
       <c r="E28" t="n">
-        <v>21.2</v>
+        <v>21.57</v>
       </c>
       <c r="F28" t="n">
-        <v>4119</v>
+        <v>45265.39313862</v>
       </c>
       <c r="G28" t="n">
-        <v>21.32483333333333</v>
+        <v>21.31483333333332</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,7 +1394,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,22 +1408,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>21.5</v>
+        <v>21.57</v>
       </c>
       <c r="C29" t="n">
-        <v>21.57</v>
+        <v>21.2</v>
       </c>
       <c r="D29" t="n">
         <v>21.57</v>
       </c>
       <c r="E29" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="F29" t="n">
-        <v>765</v>
+        <v>4119</v>
       </c>
       <c r="G29" t="n">
-        <v>21.33933333333333</v>
+        <v>21.32483333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,7 +1433,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,7 +1447,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>21.57</v>
+        <v>21.5</v>
       </c>
       <c r="C30" t="n">
         <v>21.57</v>
@@ -1422,13 +1456,13 @@
         <v>21.57</v>
       </c>
       <c r="E30" t="n">
-        <v>21.57</v>
+        <v>21.5</v>
       </c>
       <c r="F30" t="n">
-        <v>25</v>
+        <v>765</v>
       </c>
       <c r="G30" t="n">
-        <v>21.35383333333332</v>
+        <v>21.33933333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,7 +1472,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1451,19 +1489,19 @@
         <v>21.57</v>
       </c>
       <c r="C31" t="n">
-        <v>21.34</v>
+        <v>21.57</v>
       </c>
       <c r="D31" t="n">
         <v>21.57</v>
       </c>
       <c r="E31" t="n">
-        <v>21.34</v>
+        <v>21.57</v>
       </c>
       <c r="F31" t="n">
-        <v>32478</v>
+        <v>25</v>
       </c>
       <c r="G31" t="n">
-        <v>21.36449999999999</v>
+        <v>21.35383333333332</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,7 +1511,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1495,10 +1537,10 @@
         <v>21.34</v>
       </c>
       <c r="F32" t="n">
-        <v>34001.1362</v>
+        <v>32478</v>
       </c>
       <c r="G32" t="n">
-        <v>21.37183333333332</v>
+        <v>21.36449999999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,7 +1550,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1521,19 +1567,19 @@
         <v>21.57</v>
       </c>
       <c r="C33" t="n">
-        <v>21.58</v>
+        <v>21.34</v>
       </c>
       <c r="D33" t="n">
-        <v>21.58</v>
+        <v>21.57</v>
       </c>
       <c r="E33" t="n">
-        <v>21.31</v>
+        <v>21.34</v>
       </c>
       <c r="F33" t="n">
-        <v>116664.7575</v>
+        <v>34001.1362</v>
       </c>
       <c r="G33" t="n">
-        <v>21.38333333333332</v>
+        <v>21.37183333333332</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,7 +1589,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1603,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>21.55</v>
+        <v>21.57</v>
       </c>
       <c r="C34" t="n">
-        <v>21.55</v>
+        <v>21.58</v>
       </c>
       <c r="D34" t="n">
-        <v>21.55</v>
+        <v>21.58</v>
       </c>
       <c r="E34" t="n">
-        <v>21.55</v>
+        <v>21.31</v>
       </c>
       <c r="F34" t="n">
-        <v>0.889</v>
+        <v>116664.7575</v>
       </c>
       <c r="G34" t="n">
-        <v>21.39716666666665</v>
+        <v>21.38333333333332</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,7 +1628,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1642,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>21.2</v>
+        <v>21.55</v>
       </c>
       <c r="C35" t="n">
-        <v>21.2</v>
+        <v>21.55</v>
       </c>
       <c r="D35" t="n">
-        <v>21.2</v>
+        <v>21.55</v>
       </c>
       <c r="E35" t="n">
-        <v>21.2</v>
+        <v>21.55</v>
       </c>
       <c r="F35" t="n">
-        <v>2517.9334</v>
+        <v>0.889</v>
       </c>
       <c r="G35" t="n">
-        <v>21.40383333333331</v>
+        <v>21.39716666666665</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,7 +1667,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1681,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="C36" t="n">
-        <v>21.31</v>
+        <v>21.2</v>
       </c>
       <c r="D36" t="n">
-        <v>21.53</v>
+        <v>21.2</v>
       </c>
       <c r="E36" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="F36" t="n">
-        <v>35025</v>
+        <v>2517.9334</v>
       </c>
       <c r="G36" t="n">
-        <v>21.41366666666665</v>
+        <v>21.40383333333331</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,7 +1706,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1661,19 +1723,19 @@
         <v>21.3</v>
       </c>
       <c r="C37" t="n">
-        <v>21.3</v>
+        <v>21.31</v>
       </c>
       <c r="D37" t="n">
-        <v>21.3</v>
+        <v>21.53</v>
       </c>
       <c r="E37" t="n">
         <v>21.3</v>
       </c>
       <c r="F37" t="n">
-        <v>9057.0056</v>
+        <v>35025</v>
       </c>
       <c r="G37" t="n">
-        <v>21.42016666666665</v>
+        <v>21.41366666666665</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,7 +1745,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1696,19 +1762,19 @@
         <v>21.3</v>
       </c>
       <c r="C38" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="D38" t="n">
         <v>21.3</v>
       </c>
       <c r="E38" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="F38" t="n">
-        <v>7581.0844</v>
+        <v>9057.0056</v>
       </c>
       <c r="G38" t="n">
-        <v>21.42349999999998</v>
+        <v>21.42016666666665</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,7 +1784,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1798,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>21.09</v>
+        <v>21.3</v>
       </c>
       <c r="C39" t="n">
-        <v>21.09</v>
+        <v>21.2</v>
       </c>
       <c r="D39" t="n">
-        <v>21.09</v>
+        <v>21.3</v>
       </c>
       <c r="E39" t="n">
-        <v>21.09</v>
+        <v>21.2</v>
       </c>
       <c r="F39" t="n">
-        <v>22908.8016</v>
+        <v>7581.0844</v>
       </c>
       <c r="G39" t="n">
-        <v>21.42499999999998</v>
+        <v>21.42349999999998</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1823,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,22 +1837,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>21.5</v>
+        <v>21.09</v>
       </c>
       <c r="C40" t="n">
-        <v>21.5</v>
+        <v>21.09</v>
       </c>
       <c r="D40" t="n">
-        <v>21.5</v>
+        <v>21.09</v>
       </c>
       <c r="E40" t="n">
-        <v>21.5</v>
+        <v>21.09</v>
       </c>
       <c r="F40" t="n">
-        <v>25</v>
+        <v>22908.8016</v>
       </c>
       <c r="G40" t="n">
-        <v>21.43166666666665</v>
+        <v>21.42499999999998</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,7 +1862,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1876,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="C41" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="D41" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="E41" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="F41" t="n">
-        <v>140000</v>
+        <v>25</v>
       </c>
       <c r="G41" t="n">
-        <v>21.43333333333332</v>
+        <v>21.43166666666665</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,7 +1901,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +1915,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>21.39</v>
+        <v>21.2</v>
       </c>
       <c r="C42" t="n">
-        <v>21.09</v>
+        <v>21.2</v>
       </c>
       <c r="D42" t="n">
-        <v>21.39</v>
+        <v>21.2</v>
       </c>
       <c r="E42" t="n">
-        <v>21.09</v>
+        <v>21.2</v>
       </c>
       <c r="F42" t="n">
-        <v>42990.3045</v>
+        <v>140000</v>
       </c>
       <c r="G42" t="n">
-        <v>21.43149999999998</v>
+        <v>21.43333333333332</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +1940,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,22 +1954,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>21.2</v>
+        <v>21.39</v>
       </c>
       <c r="C43" t="n">
-        <v>21.2</v>
+        <v>21.09</v>
       </c>
       <c r="D43" t="n">
-        <v>21.2</v>
+        <v>21.39</v>
       </c>
       <c r="E43" t="n">
-        <v>21.08</v>
+        <v>21.09</v>
       </c>
       <c r="F43" t="n">
-        <v>52744.7745</v>
+        <v>42990.3045</v>
       </c>
       <c r="G43" t="n">
-        <v>21.43316666666665</v>
+        <v>21.43149999999998</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +1979,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1912,13 +2002,13 @@
         <v>21.2</v>
       </c>
       <c r="E44" t="n">
-        <v>21.2</v>
+        <v>21.08</v>
       </c>
       <c r="F44" t="n">
-        <v>25</v>
+        <v>52744.7745</v>
       </c>
       <c r="G44" t="n">
-        <v>21.43149999999998</v>
+        <v>21.43316666666665</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +2018,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1950,10 +2044,10 @@
         <v>21.2</v>
       </c>
       <c r="F45" t="n">
-        <v>31265.3908</v>
+        <v>25</v>
       </c>
       <c r="G45" t="n">
-        <v>21.42983333333332</v>
+        <v>21.43149999999998</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +2057,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1985,10 +2083,10 @@
         <v>21.2</v>
       </c>
       <c r="F46" t="n">
-        <v>1739.7533</v>
+        <v>31265.3908</v>
       </c>
       <c r="G46" t="n">
-        <v>21.43149999999999</v>
+        <v>21.42983333333332</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2096,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2110,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>21.19</v>
+        <v>21.2</v>
       </c>
       <c r="C47" t="n">
-        <v>21.19</v>
+        <v>21.2</v>
       </c>
       <c r="D47" t="n">
-        <v>21.19</v>
+        <v>21.2</v>
       </c>
       <c r="E47" t="n">
-        <v>21.19</v>
+        <v>21.2</v>
       </c>
       <c r="F47" t="n">
-        <v>2324.5003</v>
+        <v>1739.7533</v>
       </c>
       <c r="G47" t="n">
-        <v>21.42916666666666</v>
+        <v>21.43149999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2135,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2149,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>21.08</v>
+        <v>21.19</v>
       </c>
       <c r="C48" t="n">
-        <v>21.08</v>
+        <v>21.19</v>
       </c>
       <c r="D48" t="n">
-        <v>21.08</v>
+        <v>21.19</v>
       </c>
       <c r="E48" t="n">
-        <v>21.08</v>
+        <v>21.19</v>
       </c>
       <c r="F48" t="n">
-        <v>93.3177</v>
+        <v>2324.5003</v>
       </c>
       <c r="G48" t="n">
-        <v>21.42499999999999</v>
+        <v>21.42916666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2174,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2188,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>21.2</v>
+        <v>21.08</v>
       </c>
       <c r="C49" t="n">
-        <v>21.2</v>
+        <v>21.08</v>
       </c>
       <c r="D49" t="n">
-        <v>21.2</v>
+        <v>21.08</v>
       </c>
       <c r="E49" t="n">
-        <v>21.2</v>
+        <v>21.08</v>
       </c>
       <c r="F49" t="n">
-        <v>25</v>
+        <v>93.3177</v>
       </c>
       <c r="G49" t="n">
-        <v>21.42066666666665</v>
+        <v>21.42499999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2213,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2227,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="C50" t="n">
-        <v>21.05</v>
+        <v>21.2</v>
       </c>
       <c r="D50" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="E50" t="n">
-        <v>21.05</v>
+        <v>21.2</v>
       </c>
       <c r="F50" t="n">
-        <v>21238.1369</v>
+        <v>25</v>
       </c>
       <c r="G50" t="n">
-        <v>21.41399999999999</v>
+        <v>21.42066666666665</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2252,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2266,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="C51" t="n">
-        <v>21.06</v>
+        <v>21.05</v>
       </c>
       <c r="D51" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="E51" t="n">
-        <v>21.06</v>
+        <v>21.05</v>
       </c>
       <c r="F51" t="n">
-        <v>3554.5846</v>
+        <v>21238.1369</v>
       </c>
       <c r="G51" t="n">
-        <v>21.40749999999998</v>
+        <v>21.41399999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2291,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2186,19 +2308,19 @@
         <v>21.2</v>
       </c>
       <c r="C52" t="n">
-        <v>21.2</v>
+        <v>21.06</v>
       </c>
       <c r="D52" t="n">
         <v>21.2</v>
       </c>
       <c r="E52" t="n">
-        <v>21.2</v>
+        <v>21.06</v>
       </c>
       <c r="F52" t="n">
-        <v>25</v>
+        <v>3554.5846</v>
       </c>
       <c r="G52" t="n">
-        <v>21.40333333333332</v>
+        <v>21.40749999999998</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2330,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2344,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>21.07</v>
+        <v>21.2</v>
       </c>
       <c r="C53" t="n">
-        <v>21.06</v>
+        <v>21.2</v>
       </c>
       <c r="D53" t="n">
-        <v>21.07</v>
+        <v>21.2</v>
       </c>
       <c r="E53" t="n">
-        <v>21.06</v>
+        <v>21.2</v>
       </c>
       <c r="F53" t="n">
-        <v>37071.8975</v>
+        <v>25</v>
       </c>
       <c r="G53" t="n">
-        <v>21.39649999999999</v>
+        <v>21.40333333333332</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2369,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2383,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="C54" t="n">
         <v>21.06</v>
       </c>
-      <c r="C54" t="n">
-        <v>21.03</v>
-      </c>
       <c r="D54" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="E54" t="n">
         <v>21.06</v>
       </c>
-      <c r="E54" t="n">
-        <v>21.03</v>
-      </c>
       <c r="F54" t="n">
-        <v>64040.0678</v>
+        <v>37071.8975</v>
       </c>
       <c r="G54" t="n">
-        <v>21.38716666666665</v>
+        <v>21.39649999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2408,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2422,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>21.03</v>
+        <v>21.06</v>
       </c>
       <c r="C55" t="n">
         <v>21.03</v>
       </c>
       <c r="D55" t="n">
-        <v>21.03</v>
+        <v>21.06</v>
       </c>
       <c r="E55" t="n">
         <v>21.03</v>
       </c>
       <c r="F55" t="n">
-        <v>12039.009</v>
+        <v>64040.0678</v>
       </c>
       <c r="G55" t="n">
-        <v>21.38333333333332</v>
+        <v>21.38716666666665</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2447,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2461,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>21.05</v>
+        <v>21.03</v>
       </c>
       <c r="C56" t="n">
-        <v>21.2</v>
+        <v>21.03</v>
       </c>
       <c r="D56" t="n">
-        <v>21.2</v>
+        <v>21.03</v>
       </c>
       <c r="E56" t="n">
-        <v>21.05</v>
+        <v>21.03</v>
       </c>
       <c r="F56" t="n">
-        <v>6000</v>
+        <v>12039.009</v>
       </c>
       <c r="G56" t="n">
-        <v>21.37483333333332</v>
+        <v>21.38333333333332</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2486,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2500,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>21</v>
+        <v>21.05</v>
       </c>
       <c r="C57" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="D57" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="E57" t="n">
-        <v>21</v>
+        <v>21.05</v>
       </c>
       <c r="F57" t="n">
-        <v>25883.3376</v>
+        <v>6000</v>
       </c>
       <c r="G57" t="n">
-        <v>21.36649999999998</v>
+        <v>21.37483333333332</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2525,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2539,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>21</v>
+      </c>
+      <c r="C58" t="n">
         <v>21.3</v>
       </c>
-      <c r="C58" t="n">
-        <v>21.36</v>
-      </c>
       <c r="D58" t="n">
-        <v>21.36</v>
+        <v>21.3</v>
       </c>
       <c r="E58" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="F58" t="n">
-        <v>17000</v>
+        <v>25883.3376</v>
       </c>
       <c r="G58" t="n">
-        <v>21.35599999999998</v>
+        <v>21.36649999999998</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2564,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2578,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>21.36</v>
+        <v>21.3</v>
       </c>
       <c r="C59" t="n">
         <v>21.36</v>
       </c>
       <c r="D59" t="n">
-        <v>21.37</v>
+        <v>21.36</v>
       </c>
       <c r="E59" t="n">
-        <v>21.36</v>
+        <v>21.3</v>
       </c>
       <c r="F59" t="n">
-        <v>45896.0093</v>
+        <v>17000</v>
       </c>
       <c r="G59" t="n">
-        <v>21.34549999999998</v>
+        <v>21.35599999999998</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2603,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2466,19 +2620,19 @@
         <v>21.36</v>
       </c>
       <c r="C60" t="n">
-        <v>21.37</v>
+        <v>21.36</v>
       </c>
       <c r="D60" t="n">
         <v>21.37</v>
       </c>
       <c r="E60" t="n">
-        <v>21.12</v>
+        <v>21.36</v>
       </c>
       <c r="F60" t="n">
-        <v>15154.4798</v>
+        <v>45896.0093</v>
       </c>
       <c r="G60" t="n">
-        <v>21.33999999999998</v>
+        <v>21.34549999999998</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2642,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2656,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>21.36</v>
+      </c>
+      <c r="C61" t="n">
         <v>21.37</v>
-      </c>
-      <c r="C61" t="n">
-        <v>21.21</v>
       </c>
       <c r="D61" t="n">
         <v>21.37</v>
       </c>
       <c r="E61" t="n">
-        <v>21.21</v>
+        <v>21.12</v>
       </c>
       <c r="F61" t="n">
-        <v>10270.2896</v>
+        <v>15154.4798</v>
       </c>
       <c r="G61" t="n">
-        <v>21.33349999999998</v>
+        <v>21.33999999999998</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2681,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2695,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>21.13</v>
+        <v>21.37</v>
       </c>
       <c r="C62" t="n">
-        <v>21.13</v>
+        <v>21.21</v>
       </c>
       <c r="D62" t="n">
-        <v>21.13</v>
+        <v>21.37</v>
       </c>
       <c r="E62" t="n">
-        <v>21.13</v>
+        <v>21.21</v>
       </c>
       <c r="F62" t="n">
-        <v>463.6068</v>
+        <v>10270.2896</v>
       </c>
       <c r="G62" t="n">
-        <v>21.32233333333332</v>
+        <v>21.33349999999998</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2720,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2734,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>21.37</v>
+        <v>21.13</v>
       </c>
       <c r="C63" t="n">
-        <v>21.37</v>
+        <v>21.13</v>
       </c>
       <c r="D63" t="n">
-        <v>21.37</v>
+        <v>21.13</v>
       </c>
       <c r="E63" t="n">
-        <v>21.37</v>
+        <v>21.13</v>
       </c>
       <c r="F63" t="n">
-        <v>25</v>
+        <v>463.6068</v>
       </c>
       <c r="G63" t="n">
-        <v>21.31349999999998</v>
+        <v>21.32233333333332</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2759,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2773,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>21.2</v>
+        <v>21.37</v>
       </c>
       <c r="C64" t="n">
-        <v>21.13</v>
+        <v>21.37</v>
       </c>
       <c r="D64" t="n">
-        <v>21.2</v>
+        <v>21.37</v>
       </c>
       <c r="E64" t="n">
-        <v>21.13</v>
+        <v>21.37</v>
       </c>
       <c r="F64" t="n">
-        <v>13537.853</v>
+        <v>25</v>
       </c>
       <c r="G64" t="n">
-        <v>21.30666666666665</v>
+        <v>21.31349999999998</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2798,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2812,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C65" t="n">
         <v>21.13</v>
       </c>
-      <c r="C65" t="n">
-        <v>21</v>
-      </c>
       <c r="D65" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E65" t="n">
         <v>21.13</v>
       </c>
-      <c r="E65" t="n">
-        <v>21</v>
-      </c>
       <c r="F65" t="n">
-        <v>88187.4466</v>
+        <v>13537.853</v>
       </c>
       <c r="G65" t="n">
-        <v>21.29999999999998</v>
+        <v>21.30666666666665</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2837,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2851,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>21.28</v>
+        <v>21.13</v>
       </c>
       <c r="C66" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="D66" t="n">
-        <v>21.28</v>
+        <v>21.13</v>
       </c>
       <c r="E66" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="F66" t="n">
-        <v>8512.768899999999</v>
+        <v>88187.4466</v>
       </c>
       <c r="G66" t="n">
-        <v>21.29499999999998</v>
+        <v>21.29999999999998</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2876,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2890,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>21.02</v>
+        <v>21.28</v>
       </c>
       <c r="C67" t="n">
-        <v>21.02</v>
+        <v>21.1</v>
       </c>
       <c r="D67" t="n">
-        <v>21.02</v>
+        <v>21.28</v>
       </c>
       <c r="E67" t="n">
-        <v>21.02</v>
+        <v>21.1</v>
       </c>
       <c r="F67" t="n">
-        <v>8930.987499999999</v>
+        <v>8512.768899999999</v>
       </c>
       <c r="G67" t="n">
-        <v>21.28383333333331</v>
+        <v>21.29499999999998</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2915,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2929,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>21.1</v>
+        <v>21.02</v>
       </c>
       <c r="C68" t="n">
-        <v>21.19</v>
+        <v>21.02</v>
       </c>
       <c r="D68" t="n">
-        <v>21.19</v>
+        <v>21.02</v>
       </c>
       <c r="E68" t="n">
-        <v>21.1</v>
+        <v>21.02</v>
       </c>
       <c r="F68" t="n">
-        <v>20305.1938</v>
+        <v>8930.987499999999</v>
       </c>
       <c r="G68" t="n">
-        <v>21.27549999999998</v>
+        <v>21.28383333333331</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +2954,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2968,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>21.29</v>
+        <v>21.1</v>
       </c>
       <c r="C69" t="n">
-        <v>21.29</v>
+        <v>21.19</v>
       </c>
       <c r="D69" t="n">
-        <v>21.29</v>
+        <v>21.19</v>
       </c>
       <c r="E69" t="n">
-        <v>21.29</v>
+        <v>21.1</v>
       </c>
       <c r="F69" t="n">
-        <v>20454.886</v>
+        <v>20305.1938</v>
       </c>
       <c r="G69" t="n">
-        <v>21.26883333333331</v>
+        <v>21.27549999999998</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,7 +2993,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +3007,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>21.3</v>
+        <v>21.29</v>
       </c>
       <c r="C70" t="n">
-        <v>21.3</v>
+        <v>21.29</v>
       </c>
       <c r="D70" t="n">
-        <v>21.3</v>
+        <v>21.29</v>
       </c>
       <c r="E70" t="n">
-        <v>21.3</v>
+        <v>21.29</v>
       </c>
       <c r="F70" t="n">
-        <v>28.9234</v>
+        <v>20454.886</v>
       </c>
       <c r="G70" t="n">
-        <v>21.26716666666664</v>
+        <v>21.26883333333331</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,7 +3032,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +3046,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>21.12</v>
+        <v>21.3</v>
       </c>
       <c r="C71" t="n">
-        <v>21.12</v>
+        <v>21.3</v>
       </c>
       <c r="D71" t="n">
-        <v>21.12</v>
+        <v>21.3</v>
       </c>
       <c r="E71" t="n">
-        <v>21.12</v>
+        <v>21.3</v>
       </c>
       <c r="F71" t="n">
-        <v>24</v>
+        <v>28.9234</v>
       </c>
       <c r="G71" t="n">
-        <v>21.26249999999997</v>
+        <v>21.26716666666664</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +3071,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2895,10 +3097,10 @@
         <v>21.12</v>
       </c>
       <c r="F72" t="n">
-        <v>28256.599</v>
+        <v>24</v>
       </c>
       <c r="G72" t="n">
-        <v>21.26116666666663</v>
+        <v>21.26249999999997</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +3110,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +3124,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>21.3</v>
+        <v>21.12</v>
       </c>
       <c r="C73" t="n">
-        <v>21.3</v>
+        <v>21.12</v>
       </c>
       <c r="D73" t="n">
-        <v>21.3</v>
+        <v>21.12</v>
       </c>
       <c r="E73" t="n">
-        <v>21.3</v>
+        <v>21.12</v>
       </c>
       <c r="F73" t="n">
-        <v>89</v>
+        <v>28256.599</v>
       </c>
       <c r="G73" t="n">
-        <v>21.25816666666663</v>
+        <v>21.26116666666663</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,7 +3149,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3163,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>21.12</v>
+        <v>21.3</v>
       </c>
       <c r="C74" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="D74" t="n">
-        <v>21.12</v>
+        <v>21.3</v>
       </c>
       <c r="E74" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="F74" t="n">
-        <v>73281.4915</v>
+        <v>89</v>
       </c>
       <c r="G74" t="n">
-        <v>21.25166666666663</v>
+        <v>21.25816666666663</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,7 +3188,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3202,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>21.1</v>
+        <v>21.12</v>
       </c>
       <c r="C75" t="n">
         <v>21.1</v>
       </c>
       <c r="D75" t="n">
-        <v>21.1</v>
+        <v>21.12</v>
       </c>
       <c r="E75" t="n">
         <v>21.1</v>
       </c>
       <c r="F75" t="n">
-        <v>37993.7274</v>
+        <v>73281.4915</v>
       </c>
       <c r="G75" t="n">
-        <v>21.24966666666663</v>
+        <v>21.25166666666663</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,7 +3227,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3241,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>21.02</v>
+        <v>21.1</v>
       </c>
       <c r="C76" t="n">
-        <v>21.01</v>
+        <v>21.1</v>
       </c>
       <c r="D76" t="n">
-        <v>21.02</v>
+        <v>21.1</v>
       </c>
       <c r="E76" t="n">
-        <v>21.01</v>
+        <v>21.1</v>
       </c>
       <c r="F76" t="n">
-        <v>20454.886</v>
+        <v>37993.7274</v>
       </c>
       <c r="G76" t="n">
-        <v>21.24166666666663</v>
+        <v>21.24966666666663</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,7 +3266,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3280,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>21.1</v>
+        <v>21.02</v>
       </c>
       <c r="C77" t="n">
-        <v>21.1</v>
+        <v>21.01</v>
       </c>
       <c r="D77" t="n">
-        <v>21.1</v>
+        <v>21.02</v>
       </c>
       <c r="E77" t="n">
-        <v>21.1</v>
+        <v>21.01</v>
       </c>
       <c r="F77" t="n">
-        <v>8213.2415</v>
+        <v>20454.886</v>
       </c>
       <c r="G77" t="n">
-        <v>21.23666666666663</v>
+        <v>21.24166666666663</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,7 +3305,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3319,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="C78" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="D78" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="E78" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="F78" t="n">
-        <v>25</v>
+        <v>8213.2415</v>
       </c>
       <c r="G78" t="n">
-        <v>21.23349999999996</v>
+        <v>21.23666666666663</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,7 +3344,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,22 +3358,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="C79" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="D79" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="E79" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="F79" t="n">
-        <v>9974.715200000001</v>
+        <v>25</v>
       </c>
       <c r="G79" t="n">
-        <v>21.23333333333329</v>
+        <v>21.23349999999996</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,7 +3383,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,22 +3397,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="C80" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="D80" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="E80" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="F80" t="n">
-        <v>601.1941</v>
+        <v>9974.715200000001</v>
       </c>
       <c r="G80" t="n">
-        <v>21.23016666666662</v>
+        <v>21.23333333333329</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,7 +3422,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,22 +3436,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="C81" t="n">
-        <v>20.95</v>
+        <v>21.2</v>
       </c>
       <c r="D81" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="E81" t="n">
-        <v>20.95</v>
+        <v>21.2</v>
       </c>
       <c r="F81" t="n">
-        <v>95793.10400000001</v>
+        <v>601.1941</v>
       </c>
       <c r="G81" t="n">
-        <v>21.22749999999996</v>
+        <v>21.23016666666662</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,7 +3461,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3475,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20.95</v>
+        <v>21</v>
       </c>
       <c r="C82" t="n">
         <v>20.95</v>
       </c>
       <c r="D82" t="n">
-        <v>20.95</v>
+        <v>21</v>
       </c>
       <c r="E82" t="n">
         <v>20.95</v>
       </c>
       <c r="F82" t="n">
-        <v>43129.282</v>
+        <v>95793.10400000001</v>
       </c>
       <c r="G82" t="n">
-        <v>21.22566666666663</v>
+        <v>21.22749999999996</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,7 +3500,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,7 +3514,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>20.94</v>
+        <v>20.95</v>
       </c>
       <c r="C83" t="n">
         <v>20.95</v>
@@ -3277,13 +3523,13 @@
         <v>20.95</v>
       </c>
       <c r="E83" t="n">
-        <v>20.93</v>
+        <v>20.95</v>
       </c>
       <c r="F83" t="n">
-        <v>5894</v>
+        <v>43129.282</v>
       </c>
       <c r="G83" t="n">
-        <v>21.22299999999996</v>
+        <v>21.22566666666663</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,7 +3539,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3553,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>21</v>
+        <v>20.94</v>
       </c>
       <c r="C84" t="n">
-        <v>21</v>
+        <v>20.95</v>
       </c>
       <c r="D84" t="n">
-        <v>21</v>
+        <v>20.95</v>
       </c>
       <c r="E84" t="n">
-        <v>21</v>
+        <v>20.93</v>
       </c>
       <c r="F84" t="n">
-        <v>8372.045400000001</v>
+        <v>5894</v>
       </c>
       <c r="G84" t="n">
-        <v>21.21799999999996</v>
+        <v>21.22299999999996</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,7 +3578,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3592,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="C85" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="D85" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="E85" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="F85" t="n">
-        <v>2027.9546</v>
+        <v>8372.045400000001</v>
       </c>
       <c r="G85" t="n">
-        <v>21.2068333333333</v>
+        <v>21.21799999999996</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,7 +3617,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3376,19 +3634,19 @@
         <v>20.9</v>
       </c>
       <c r="C86" t="n">
-        <v>20.81</v>
+        <v>20.9</v>
       </c>
       <c r="D86" t="n">
         <v>20.9</v>
       </c>
       <c r="E86" t="n">
-        <v>20.81</v>
+        <v>20.9</v>
       </c>
       <c r="F86" t="n">
-        <v>14992.4552</v>
+        <v>2027.9546</v>
       </c>
       <c r="G86" t="n">
-        <v>21.19416666666664</v>
+        <v>21.2068333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,7 +3656,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3417,13 +3679,13 @@
         <v>20.9</v>
       </c>
       <c r="E87" t="n">
-        <v>20.8</v>
+        <v>20.81</v>
       </c>
       <c r="F87" t="n">
-        <v>67466.5465</v>
+        <v>14992.4552</v>
       </c>
       <c r="G87" t="n">
-        <v>21.18149999999997</v>
+        <v>21.19416666666664</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,7 +3695,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3709,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>20.81</v>
+        <v>20.9</v>
       </c>
       <c r="C88" t="n">
         <v>20.81</v>
       </c>
       <c r="D88" t="n">
-        <v>20.81</v>
+        <v>20.9</v>
       </c>
       <c r="E88" t="n">
-        <v>20.81</v>
+        <v>20.8</v>
       </c>
       <c r="F88" t="n">
-        <v>23151.2093</v>
+        <v>67466.5465</v>
       </c>
       <c r="G88" t="n">
-        <v>21.17499999999997</v>
+        <v>21.18149999999997</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,7 +3734,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3748,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>20.99</v>
+        <v>20.81</v>
       </c>
       <c r="C89" t="n">
-        <v>21.09</v>
+        <v>20.81</v>
       </c>
       <c r="D89" t="n">
-        <v>21.09</v>
+        <v>20.81</v>
       </c>
       <c r="E89" t="n">
-        <v>20.99</v>
+        <v>20.81</v>
       </c>
       <c r="F89" t="n">
-        <v>50</v>
+        <v>23151.2093</v>
       </c>
       <c r="G89" t="n">
-        <v>21.16699999999997</v>
+        <v>21.17499999999997</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3503,7 +3773,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,22 +3787,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>20.81</v>
+        <v>20.99</v>
       </c>
       <c r="C90" t="n">
-        <v>21</v>
+        <v>21.09</v>
       </c>
       <c r="D90" t="n">
-        <v>21</v>
+        <v>21.09</v>
       </c>
       <c r="E90" t="n">
-        <v>20.81</v>
+        <v>20.99</v>
       </c>
       <c r="F90" t="n">
-        <v>55846.3494</v>
+        <v>50</v>
       </c>
       <c r="G90" t="n">
-        <v>21.15749999999997</v>
+        <v>21.16699999999997</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,7 +3812,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3826,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>20.9</v>
+        <v>20.81</v>
       </c>
       <c r="C91" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="D91" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="E91" t="n">
-        <v>20.9</v>
+        <v>20.81</v>
       </c>
       <c r="F91" t="n">
-        <v>22170</v>
+        <v>55846.3494</v>
       </c>
       <c r="G91" t="n">
-        <v>21.15016666666664</v>
+        <v>21.15749999999997</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,7 +3851,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,22 +3865,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>20.92</v>
+        <v>20.9</v>
       </c>
       <c r="C92" t="n">
-        <v>20.92</v>
+        <v>20.9</v>
       </c>
       <c r="D92" t="n">
-        <v>20.92</v>
+        <v>20.9</v>
       </c>
       <c r="E92" t="n">
-        <v>20.92</v>
+        <v>20.9</v>
       </c>
       <c r="F92" t="n">
-        <v>25</v>
+        <v>22170</v>
       </c>
       <c r="G92" t="n">
-        <v>21.14316666666664</v>
+        <v>21.15016666666664</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,7 +3890,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3904,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>20.82</v>
+        <v>20.92</v>
       </c>
       <c r="C93" t="n">
-        <v>20.9</v>
+        <v>20.92</v>
       </c>
       <c r="D93" t="n">
-        <v>20.9</v>
+        <v>20.92</v>
       </c>
       <c r="E93" t="n">
-        <v>20.82</v>
+        <v>20.92</v>
       </c>
       <c r="F93" t="n">
-        <v>8000</v>
+        <v>25</v>
       </c>
       <c r="G93" t="n">
-        <v>21.13183333333331</v>
+        <v>21.14316666666664</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3643,7 +3929,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,10 +3943,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>20.82</v>
+      </c>
+      <c r="C94" t="n">
         <v>20.9</v>
-      </c>
-      <c r="C94" t="n">
-        <v>20.82</v>
       </c>
       <c r="D94" t="n">
         <v>20.9</v>
@@ -3665,10 +3955,10 @@
         <v>20.82</v>
       </c>
       <c r="F94" t="n">
-        <v>47000</v>
+        <v>8000</v>
       </c>
       <c r="G94" t="n">
-        <v>21.11966666666664</v>
+        <v>21.13183333333331</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3678,7 +3968,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +3982,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>20.82</v>
+        <v>20.9</v>
       </c>
       <c r="C95" t="n">
         <v>20.82</v>
       </c>
       <c r="D95" t="n">
-        <v>20.82</v>
+        <v>20.9</v>
       </c>
       <c r="E95" t="n">
         <v>20.82</v>
       </c>
       <c r="F95" t="n">
-        <v>4000</v>
+        <v>47000</v>
       </c>
       <c r="G95" t="n">
-        <v>21.1133333333333</v>
+        <v>21.11966666666664</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3713,7 +4007,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3726,19 +4024,19 @@
         <v>20.82</v>
       </c>
       <c r="C96" t="n">
-        <v>20.8</v>
+        <v>20.82</v>
       </c>
       <c r="D96" t="n">
         <v>20.82</v>
       </c>
       <c r="E96" t="n">
-        <v>20.8</v>
+        <v>20.82</v>
       </c>
       <c r="F96" t="n">
-        <v>33837.9963</v>
+        <v>4000</v>
       </c>
       <c r="G96" t="n">
-        <v>21.10483333333331</v>
+        <v>21.1133333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3748,7 +4046,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3758,22 +4060,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>20.79</v>
+        <v>20.82</v>
       </c>
       <c r="C97" t="n">
-        <v>20.79</v>
+        <v>20.8</v>
       </c>
       <c r="D97" t="n">
-        <v>20.79</v>
+        <v>20.82</v>
       </c>
       <c r="E97" t="n">
-        <v>20.79</v>
+        <v>20.8</v>
       </c>
       <c r="F97" t="n">
-        <v>17000.1668</v>
+        <v>33837.9963</v>
       </c>
       <c r="G97" t="n">
-        <v>21.09633333333331</v>
+        <v>21.10483333333331</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3783,7 +4085,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3805,10 +4111,10 @@
         <v>20.79</v>
       </c>
       <c r="F98" t="n">
-        <v>17310.8978</v>
+        <v>17000.1668</v>
       </c>
       <c r="G98" t="n">
-        <v>21.08949999999997</v>
+        <v>21.09633333333331</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3818,7 +4124,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3840,10 +4150,10 @@
         <v>20.79</v>
       </c>
       <c r="F99" t="n">
-        <v>5012.3555</v>
+        <v>17310.8978</v>
       </c>
       <c r="G99" t="n">
-        <v>21.08449999999997</v>
+        <v>21.08949999999997</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3853,7 +4163,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3863,22 +4177,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>21.16</v>
+        <v>20.79</v>
       </c>
       <c r="C100" t="n">
-        <v>21.16</v>
+        <v>20.79</v>
       </c>
       <c r="D100" t="n">
-        <v>21.16</v>
+        <v>20.79</v>
       </c>
       <c r="E100" t="n">
-        <v>21.16</v>
+        <v>20.79</v>
       </c>
       <c r="F100" t="n">
-        <v>25</v>
+        <v>5012.3555</v>
       </c>
       <c r="G100" t="n">
-        <v>21.07883333333331</v>
+        <v>21.08449999999997</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3888,7 +4202,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3898,22 +4216,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>20.9</v>
+        <v>21.16</v>
       </c>
       <c r="C101" t="n">
-        <v>20.9</v>
+        <v>21.16</v>
       </c>
       <c r="D101" t="n">
-        <v>20.9</v>
+        <v>21.16</v>
       </c>
       <c r="E101" t="n">
-        <v>20.9</v>
+        <v>21.16</v>
       </c>
       <c r="F101" t="n">
-        <v>11345.951</v>
+        <v>25</v>
       </c>
       <c r="G101" t="n">
-        <v>21.07383333333331</v>
+        <v>21.07883333333331</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3923,7 +4241,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3933,22 +4255,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="C102" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="D102" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="E102" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="F102" t="n">
-        <v>25</v>
+        <v>11345.951</v>
       </c>
       <c r="G102" t="n">
-        <v>21.07399999999997</v>
+        <v>21.07383333333331</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3958,7 +4280,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3968,22 +4294,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>21.19</v>
+        <v>21.1</v>
       </c>
       <c r="C103" t="n">
-        <v>21.19</v>
+        <v>21.1</v>
       </c>
       <c r="D103" t="n">
-        <v>21.19</v>
+        <v>21.1</v>
       </c>
       <c r="E103" t="n">
-        <v>21.19</v>
+        <v>21.1</v>
       </c>
       <c r="F103" t="n">
         <v>25</v>
       </c>
       <c r="G103" t="n">
-        <v>21.07383333333331</v>
+        <v>21.07399999999997</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3993,7 +4319,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4006,19 +4336,19 @@
         <v>21.19</v>
       </c>
       <c r="C104" t="n">
-        <v>20.81</v>
+        <v>21.19</v>
       </c>
       <c r="D104" t="n">
         <v>21.19</v>
       </c>
       <c r="E104" t="n">
-        <v>20.81</v>
+        <v>21.19</v>
       </c>
       <c r="F104" t="n">
-        <v>21200</v>
+        <v>25</v>
       </c>
       <c r="G104" t="n">
-        <v>21.06733333333331</v>
+        <v>21.07383333333331</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4028,7 +4358,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4038,22 +4372,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>21.1</v>
+        <v>21.19</v>
       </c>
       <c r="C105" t="n">
-        <v>21.1</v>
+        <v>20.81</v>
       </c>
       <c r="D105" t="n">
-        <v>21.1</v>
+        <v>21.19</v>
       </c>
       <c r="E105" t="n">
-        <v>21.1</v>
+        <v>20.81</v>
       </c>
       <c r="F105" t="n">
-        <v>25</v>
+        <v>21200</v>
       </c>
       <c r="G105" t="n">
-        <v>21.06566666666664</v>
+        <v>21.06733333333331</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4063,7 +4397,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4073,22 +4411,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>20.81</v>
+        <v>21.1</v>
       </c>
       <c r="C106" t="n">
-        <v>20.81</v>
+        <v>21.1</v>
       </c>
       <c r="D106" t="n">
-        <v>20.81</v>
+        <v>21.1</v>
       </c>
       <c r="E106" t="n">
-        <v>20.81</v>
+        <v>21.1</v>
       </c>
       <c r="F106" t="n">
-        <v>7795.2755</v>
+        <v>25</v>
       </c>
       <c r="G106" t="n">
-        <v>21.05916666666663</v>
+        <v>21.06566666666664</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4098,7 +4436,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4108,22 +4450,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>21.1</v>
+        <v>20.81</v>
       </c>
       <c r="C107" t="n">
-        <v>21.18</v>
+        <v>20.81</v>
       </c>
       <c r="D107" t="n">
-        <v>21.18</v>
+        <v>20.81</v>
       </c>
       <c r="E107" t="n">
-        <v>21.1</v>
+        <v>20.81</v>
       </c>
       <c r="F107" t="n">
-        <v>745</v>
+        <v>7795.2755</v>
       </c>
       <c r="G107" t="n">
-        <v>21.05899999999997</v>
+        <v>21.05916666666663</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4133,7 +4475,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4143,22 +4489,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>21.16</v>
+        <v>21.1</v>
       </c>
       <c r="C108" t="n">
-        <v>20.84</v>
+        <v>21.18</v>
       </c>
       <c r="D108" t="n">
-        <v>21.16</v>
+        <v>21.18</v>
       </c>
       <c r="E108" t="n">
-        <v>20.84</v>
+        <v>21.1</v>
       </c>
       <c r="F108" t="n">
-        <v>81306.224</v>
+        <v>745</v>
       </c>
       <c r="G108" t="n">
-        <v>21.05499999999997</v>
+        <v>21.05899999999997</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4168,7 +4514,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4178,22 +4528,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>21.15</v>
+        <v>21.16</v>
       </c>
       <c r="C109" t="n">
-        <v>20.9</v>
+        <v>20.84</v>
       </c>
       <c r="D109" t="n">
-        <v>21.15</v>
+        <v>21.16</v>
       </c>
       <c r="E109" t="n">
-        <v>20.9</v>
+        <v>20.84</v>
       </c>
       <c r="F109" t="n">
-        <v>48413.805</v>
+        <v>81306.224</v>
       </c>
       <c r="G109" t="n">
-        <v>21.04999999999997</v>
+        <v>21.05499999999997</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4203,7 +4553,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4213,22 +4567,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>21.1</v>
+        <v>21.15</v>
       </c>
       <c r="C110" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="D110" t="n">
-        <v>21.1</v>
+        <v>21.15</v>
       </c>
       <c r="E110" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="F110" t="n">
-        <v>34594.514</v>
+        <v>48413.805</v>
       </c>
       <c r="G110" t="n">
-        <v>21.0508333333333</v>
+        <v>21.04999999999997</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4238,7 +4592,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4251,19 +4609,19 @@
         <v>21.1</v>
       </c>
       <c r="C111" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="D111" t="n">
         <v>21.1</v>
       </c>
       <c r="E111" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="F111" t="n">
-        <v>1000</v>
+        <v>34594.514</v>
       </c>
       <c r="G111" t="n">
-        <v>21.04816666666664</v>
+        <v>21.0508333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4273,7 +4631,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4286,19 +4648,19 @@
         <v>21.1</v>
       </c>
       <c r="C112" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="D112" t="n">
         <v>21.1</v>
       </c>
       <c r="E112" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="F112" t="n">
-        <v>1396.8377</v>
+        <v>1000</v>
       </c>
       <c r="G112" t="n">
-        <v>21.04649999999997</v>
+        <v>21.04816666666664</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4308,7 +4670,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4321,19 +4687,19 @@
         <v>21.1</v>
       </c>
       <c r="C113" t="n">
-        <v>21.25</v>
+        <v>21.1</v>
       </c>
       <c r="D113" t="n">
-        <v>21.25</v>
+        <v>21.1</v>
       </c>
       <c r="E113" t="n">
         <v>21.1</v>
       </c>
       <c r="F113" t="n">
-        <v>5037.3555</v>
+        <v>1396.8377</v>
       </c>
       <c r="G113" t="n">
-        <v>21.04966666666663</v>
+        <v>21.04649999999997</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4343,7 +4709,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4353,7 +4723,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>21.25</v>
+        <v>21.1</v>
       </c>
       <c r="C114" t="n">
         <v>21.25</v>
@@ -4362,13 +4732,13 @@
         <v>21.25</v>
       </c>
       <c r="E114" t="n">
-        <v>21.25</v>
+        <v>21.1</v>
       </c>
       <c r="F114" t="n">
-        <v>140.7774</v>
+        <v>5037.3555</v>
       </c>
       <c r="G114" t="n">
-        <v>21.0533333333333</v>
+        <v>21.04966666666663</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4378,7 +4748,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4388,7 +4762,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>21.21</v>
+        <v>21.25</v>
       </c>
       <c r="C115" t="n">
         <v>21.25</v>
@@ -4397,13 +4771,13 @@
         <v>21.25</v>
       </c>
       <c r="E115" t="n">
-        <v>21.21</v>
+        <v>21.25</v>
       </c>
       <c r="F115" t="n">
-        <v>19658.9257</v>
+        <v>140.7774</v>
       </c>
       <c r="G115" t="n">
-        <v>21.05699999999997</v>
+        <v>21.0533333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4413,7 +4787,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4423,7 +4801,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>21.25</v>
+        <v>21.21</v>
       </c>
       <c r="C116" t="n">
         <v>21.25</v>
@@ -4432,13 +4810,13 @@
         <v>21.25</v>
       </c>
       <c r="E116" t="n">
-        <v>21.25</v>
+        <v>21.21</v>
       </c>
       <c r="F116" t="n">
-        <v>3824.86110588</v>
+        <v>19658.9257</v>
       </c>
       <c r="G116" t="n">
-        <v>21.0578333333333</v>
+        <v>21.05699999999997</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4448,7 +4826,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4470,10 +4852,10 @@
         <v>21.25</v>
       </c>
       <c r="F117" t="n">
-        <v>10934.18929412</v>
+        <v>3824.86110588</v>
       </c>
       <c r="G117" t="n">
-        <v>21.05699999999997</v>
+        <v>21.0578333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4483,7 +4865,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4493,22 +4879,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>21.3</v>
+        <v>21.25</v>
       </c>
       <c r="C118" t="n">
         <v>21.25</v>
       </c>
       <c r="D118" t="n">
-        <v>21.3</v>
+        <v>21.25</v>
       </c>
       <c r="E118" t="n">
         <v>21.25</v>
       </c>
       <c r="F118" t="n">
-        <v>1745.6255</v>
+        <v>10934.18929412</v>
       </c>
       <c r="G118" t="n">
-        <v>21.05516666666664</v>
+        <v>21.05699999999997</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4518,7 +4904,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4531,19 +4921,19 @@
         <v>21.3</v>
       </c>
       <c r="C119" t="n">
-        <v>21.3</v>
+        <v>21.25</v>
       </c>
       <c r="D119" t="n">
         <v>21.3</v>
       </c>
       <c r="E119" t="n">
-        <v>21.3</v>
+        <v>21.25</v>
       </c>
       <c r="F119" t="n">
-        <v>16733.8494</v>
+        <v>1745.6255</v>
       </c>
       <c r="G119" t="n">
-        <v>21.05416666666664</v>
+        <v>21.05516666666664</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4553,7 +4943,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4575,10 +4969,10 @@
         <v>21.3</v>
       </c>
       <c r="F120" t="n">
-        <v>25513.9664399</v>
+        <v>16733.8494</v>
       </c>
       <c r="G120" t="n">
-        <v>21.05299999999998</v>
+        <v>21.05416666666664</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4588,7 +4982,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4601,19 +4999,19 @@
         <v>21.3</v>
       </c>
       <c r="C121" t="n">
-        <v>21.37</v>
+        <v>21.3</v>
       </c>
       <c r="D121" t="n">
-        <v>21.37</v>
+        <v>21.3</v>
       </c>
       <c r="E121" t="n">
         <v>21.3</v>
       </c>
       <c r="F121" t="n">
-        <v>15557.7748601</v>
+        <v>25513.9664399</v>
       </c>
       <c r="G121" t="n">
-        <v>21.05566666666664</v>
+        <v>21.05299999999998</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4623,7 +5021,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4633,7 +5035,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>21.37</v>
+        <v>21.3</v>
       </c>
       <c r="C122" t="n">
         <v>21.37</v>
@@ -4642,48 +5044,50 @@
         <v>21.37</v>
       </c>
       <c r="E122" t="n">
-        <v>21.37</v>
+        <v>21.3</v>
       </c>
       <c r="F122" t="n">
-        <v>11782.8937</v>
+        <v>15557.7748601</v>
       </c>
       <c r="G122" t="n">
-        <v>21.05966666666664</v>
+        <v>21.05566666666664</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>21.39</v>
+        <v>21.37</v>
       </c>
       <c r="C123" t="n">
-        <v>21.39</v>
+        <v>21.37</v>
       </c>
       <c r="D123" t="n">
-        <v>21.39</v>
+        <v>21.37</v>
       </c>
       <c r="E123" t="n">
         <v>21.37</v>
       </c>
       <c r="F123" t="n">
-        <v>32328.9251</v>
+        <v>11782.8937</v>
       </c>
       <c r="G123" t="n">
-        <v>21.05999999999997</v>
+        <v>21.05966666666664</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4712,13 +5116,13 @@
         <v>21.39</v>
       </c>
       <c r="E124" t="n">
-        <v>21.39</v>
+        <v>21.37</v>
       </c>
       <c r="F124" t="n">
-        <v>467.5082</v>
+        <v>32328.9251</v>
       </c>
       <c r="G124" t="n">
-        <v>21.06433333333331</v>
+        <v>21.05999999999997</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +5142,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>21.4</v>
+        <v>21.39</v>
       </c>
       <c r="C125" t="n">
-        <v>21.11</v>
+        <v>21.39</v>
       </c>
       <c r="D125" t="n">
-        <v>21.4</v>
+        <v>21.39</v>
       </c>
       <c r="E125" t="n">
-        <v>21.11</v>
+        <v>21.39</v>
       </c>
       <c r="F125" t="n">
-        <v>176.6677</v>
+        <v>467.5082</v>
       </c>
       <c r="G125" t="n">
-        <v>21.06616666666664</v>
+        <v>21.06433333333331</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,10 +5177,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C126" t="n">
         <v>21.11</v>
-      </c>
-      <c r="C126" t="n">
-        <v>21.4</v>
       </c>
       <c r="D126" t="n">
         <v>21.4</v>
@@ -4785,16 +5189,16 @@
         <v>21.11</v>
       </c>
       <c r="F126" t="n">
-        <v>85.5907</v>
+        <v>176.6677</v>
       </c>
       <c r="G126" t="n">
-        <v>21.07116666666664</v>
+        <v>21.06616666666664</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -4808,7 +5212,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>21.4</v>
+        <v>21.11</v>
       </c>
       <c r="C127" t="n">
         <v>21.4</v>
@@ -4817,13 +5221,13 @@
         <v>21.4</v>
       </c>
       <c r="E127" t="n">
-        <v>21.4</v>
+        <v>21.11</v>
       </c>
       <c r="F127" t="n">
-        <v>9788.612499999999</v>
+        <v>85.5907</v>
       </c>
       <c r="G127" t="n">
-        <v>21.07749999999998</v>
+        <v>21.07116666666664</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4855,10 +5259,10 @@
         <v>21.4</v>
       </c>
       <c r="F128" t="n">
-        <v>17458.9661</v>
+        <v>9788.612499999999</v>
       </c>
       <c r="G128" t="n">
-        <v>21.08099999999997</v>
+        <v>21.07749999999998</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4890,16 +5294,16 @@
         <v>21.4</v>
       </c>
       <c r="F129" t="n">
-        <v>5125.2154</v>
+        <v>17458.9661</v>
       </c>
       <c r="G129" t="n">
-        <v>21.08283333333331</v>
+        <v>21.08099999999997</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -4925,16 +5329,16 @@
         <v>21.4</v>
       </c>
       <c r="F130" t="n">
-        <v>5255.7433</v>
+        <v>5125.2154</v>
       </c>
       <c r="G130" t="n">
-        <v>21.08449999999998</v>
+        <v>21.08283333333331</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -4951,25 +5355,25 @@
         <v>21.4</v>
       </c>
       <c r="C131" t="n">
-        <v>21.16</v>
+        <v>21.4</v>
       </c>
       <c r="D131" t="n">
         <v>21.4</v>
       </c>
       <c r="E131" t="n">
-        <v>21.16</v>
+        <v>21.4</v>
       </c>
       <c r="F131" t="n">
-        <v>20592.7958</v>
+        <v>5255.7433</v>
       </c>
       <c r="G131" t="n">
-        <v>21.08516666666665</v>
+        <v>21.08449999999998</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -4983,28 +5387,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>21.25</v>
+        <v>21.4</v>
       </c>
       <c r="C132" t="n">
-        <v>21.25</v>
+        <v>21.16</v>
       </c>
       <c r="D132" t="n">
-        <v>21.25</v>
+        <v>21.4</v>
       </c>
       <c r="E132" t="n">
-        <v>21.25</v>
+        <v>21.16</v>
       </c>
       <c r="F132" t="n">
-        <v>25</v>
+        <v>20592.7958</v>
       </c>
       <c r="G132" t="n">
-        <v>21.08733333333332</v>
+        <v>21.08516666666665</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5018,28 +5422,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>21.35</v>
+        <v>21.25</v>
       </c>
       <c r="C133" t="n">
-        <v>21.39</v>
+        <v>21.25</v>
       </c>
       <c r="D133" t="n">
-        <v>21.39</v>
+        <v>21.25</v>
       </c>
       <c r="E133" t="n">
-        <v>21.35</v>
+        <v>21.25</v>
       </c>
       <c r="F133" t="n">
-        <v>5035</v>
+        <v>25</v>
       </c>
       <c r="G133" t="n">
-        <v>21.08883333333332</v>
+        <v>21.08733333333332</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5053,22 +5457,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>21.4</v>
+        <v>21.35</v>
       </c>
       <c r="C134" t="n">
-        <v>21.41</v>
+        <v>21.39</v>
       </c>
       <c r="D134" t="n">
-        <v>21.41</v>
+        <v>21.39</v>
       </c>
       <c r="E134" t="n">
-        <v>21.4</v>
+        <v>21.35</v>
       </c>
       <c r="F134" t="n">
-        <v>49729.4807</v>
+        <v>5035</v>
       </c>
       <c r="G134" t="n">
-        <v>21.09399999999999</v>
+        <v>21.08883333333332</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5492,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C135" t="n">
         <v>21.41</v>
       </c>
-      <c r="C135" t="n">
-        <v>21.48</v>
-      </c>
       <c r="D135" t="n">
-        <v>21.48</v>
+        <v>21.41</v>
       </c>
       <c r="E135" t="n">
-        <v>21.39</v>
+        <v>21.4</v>
       </c>
       <c r="F135" t="n">
-        <v>107832.8624</v>
+        <v>49729.4807</v>
       </c>
       <c r="G135" t="n">
-        <v>21.10033333333332</v>
+        <v>21.09399999999999</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5527,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>21.47</v>
+        <v>21.41</v>
       </c>
       <c r="C136" t="n">
-        <v>21.47</v>
+        <v>21.48</v>
       </c>
       <c r="D136" t="n">
-        <v>21.47</v>
+        <v>21.48</v>
       </c>
       <c r="E136" t="n">
-        <v>21.47</v>
+        <v>21.39</v>
       </c>
       <c r="F136" t="n">
-        <v>26587.5532</v>
+        <v>107832.8624</v>
       </c>
       <c r="G136" t="n">
-        <v>21.10799999999999</v>
+        <v>21.10033333333332</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,7 +5562,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>21.46</v>
+        <v>21.47</v>
       </c>
       <c r="C137" t="n">
         <v>21.47</v>
@@ -5167,19 +5571,19 @@
         <v>21.47</v>
       </c>
       <c r="E137" t="n">
-        <v>21.46</v>
+        <v>21.47</v>
       </c>
       <c r="F137" t="n">
-        <v>7017.4986</v>
+        <v>26587.5532</v>
       </c>
       <c r="G137" t="n">
-        <v>21.11416666666666</v>
+        <v>21.10799999999999</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5193,28 +5597,28 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="C138" t="n">
         <v>21.47</v>
       </c>
-      <c r="C138" t="n">
-        <v>21.48</v>
-      </c>
       <c r="D138" t="n">
-        <v>21.48</v>
+        <v>21.47</v>
       </c>
       <c r="E138" t="n">
-        <v>21.47</v>
+        <v>21.46</v>
       </c>
       <c r="F138" t="n">
-        <v>65820.52499999999</v>
+        <v>7017.4986</v>
       </c>
       <c r="G138" t="n">
-        <v>21.11716666666666</v>
+        <v>21.11416666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5228,28 +5632,28 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>21.32</v>
+        <v>21.47</v>
       </c>
       <c r="C139" t="n">
-        <v>21.32</v>
+        <v>21.48</v>
       </c>
       <c r="D139" t="n">
-        <v>21.32</v>
+        <v>21.48</v>
       </c>
       <c r="E139" t="n">
-        <v>21.32</v>
+        <v>21.47</v>
       </c>
       <c r="F139" t="n">
-        <v>24.2</v>
+        <v>65820.52499999999</v>
       </c>
       <c r="G139" t="n">
-        <v>21.12083333333333</v>
+        <v>21.11716666666666</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5263,28 +5667,28 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>21.48</v>
+        <v>21.32</v>
       </c>
       <c r="C140" t="n">
-        <v>21.48</v>
+        <v>21.32</v>
       </c>
       <c r="D140" t="n">
-        <v>21.48</v>
+        <v>21.32</v>
       </c>
       <c r="E140" t="n">
-        <v>21.48</v>
+        <v>21.32</v>
       </c>
       <c r="F140" t="n">
-        <v>55</v>
+        <v>24.2</v>
       </c>
       <c r="G140" t="n">
-        <v>21.1255</v>
+        <v>21.12083333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -5310,10 +5714,10 @@
         <v>21.48</v>
       </c>
       <c r="F141" t="n">
-        <v>169.1374</v>
+        <v>55</v>
       </c>
       <c r="G141" t="n">
-        <v>21.13433333333333</v>
+        <v>21.1255</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5737,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>21.32</v>
+        <v>21.48</v>
       </c>
       <c r="C142" t="n">
-        <v>21.21</v>
+        <v>21.48</v>
       </c>
       <c r="D142" t="n">
-        <v>21.32</v>
+        <v>21.48</v>
       </c>
       <c r="E142" t="n">
-        <v>21.21</v>
+        <v>21.48</v>
       </c>
       <c r="F142" t="n">
-        <v>18000</v>
+        <v>169.1374</v>
       </c>
       <c r="G142" t="n">
-        <v>21.13866666666666</v>
+        <v>21.13433333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5371,25 +5775,25 @@
         <v>21.32</v>
       </c>
       <c r="C143" t="n">
-        <v>21.32</v>
+        <v>21.21</v>
       </c>
       <c r="D143" t="n">
         <v>21.32</v>
       </c>
       <c r="E143" t="n">
-        <v>21.32</v>
+        <v>21.21</v>
       </c>
       <c r="F143" t="n">
-        <v>25</v>
+        <v>18000</v>
       </c>
       <c r="G143" t="n">
-        <v>21.14483333333333</v>
+        <v>21.13866666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -5403,7 +5807,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>21.21</v>
+        <v>21.32</v>
       </c>
       <c r="C144" t="n">
         <v>21.32</v>
@@ -5412,13 +5816,13 @@
         <v>21.32</v>
       </c>
       <c r="E144" t="n">
-        <v>21.21</v>
+        <v>21.32</v>
       </c>
       <c r="F144" t="n">
-        <v>438.1456</v>
+        <v>25</v>
       </c>
       <c r="G144" t="n">
-        <v>21.15016666666666</v>
+        <v>21.14483333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5441,19 +5845,19 @@
         <v>21.21</v>
       </c>
       <c r="C145" t="n">
-        <v>21.21</v>
+        <v>21.32</v>
       </c>
       <c r="D145" t="n">
-        <v>21.21</v>
+        <v>21.32</v>
       </c>
       <c r="E145" t="n">
         <v>21.21</v>
       </c>
       <c r="F145" t="n">
-        <v>20626.9599</v>
+        <v>438.1456</v>
       </c>
       <c r="G145" t="n">
-        <v>21.15533333333332</v>
+        <v>21.15016666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5877,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>21.11</v>
+        <v>21.21</v>
       </c>
       <c r="C146" t="n">
-        <v>21.11</v>
+        <v>21.21</v>
       </c>
       <c r="D146" t="n">
-        <v>21.11</v>
+        <v>21.21</v>
       </c>
       <c r="E146" t="n">
-        <v>21.11</v>
+        <v>21.21</v>
       </c>
       <c r="F146" t="n">
-        <v>4787.8513</v>
+        <v>20626.9599</v>
       </c>
       <c r="G146" t="n">
-        <v>21.16033333333332</v>
+        <v>21.15533333333332</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5511,19 +5915,19 @@
         <v>21.11</v>
       </c>
       <c r="C147" t="n">
-        <v>21.2</v>
+        <v>21.11</v>
       </c>
       <c r="D147" t="n">
-        <v>21.2</v>
+        <v>21.11</v>
       </c>
       <c r="E147" t="n">
         <v>21.11</v>
       </c>
       <c r="F147" t="n">
-        <v>35810.5711457</v>
+        <v>4787.8513</v>
       </c>
       <c r="G147" t="n">
-        <v>21.16683333333333</v>
+        <v>21.16033333333332</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,7 +5947,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>21.2</v>
+        <v>21.11</v>
       </c>
       <c r="C148" t="n">
         <v>21.2</v>
@@ -5552,13 +5956,13 @@
         <v>21.2</v>
       </c>
       <c r="E148" t="n">
-        <v>21.2</v>
+        <v>21.11</v>
       </c>
       <c r="F148" t="n">
-        <v>1429.1758543</v>
+        <v>35810.5711457</v>
       </c>
       <c r="G148" t="n">
-        <v>21.17333333333333</v>
+        <v>21.16683333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5982,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>21.31</v>
+        <v>21.2</v>
       </c>
       <c r="C149" t="n">
-        <v>21.48</v>
+        <v>21.2</v>
       </c>
       <c r="D149" t="n">
-        <v>21.48</v>
+        <v>21.2</v>
       </c>
       <c r="E149" t="n">
-        <v>21.31</v>
+        <v>21.2</v>
       </c>
       <c r="F149" t="n">
-        <v>160841.0598</v>
+        <v>1429.1758543</v>
       </c>
       <c r="G149" t="n">
-        <v>21.17983333333333</v>
+        <v>21.17333333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +6017,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>21.49</v>
+        <v>21.31</v>
       </c>
       <c r="C150" t="n">
-        <v>21.5</v>
+        <v>21.48</v>
       </c>
       <c r="D150" t="n">
-        <v>21.5</v>
+        <v>21.48</v>
       </c>
       <c r="E150" t="n">
-        <v>21.49</v>
+        <v>21.31</v>
       </c>
       <c r="F150" t="n">
-        <v>66302.9126</v>
+        <v>160841.0598</v>
       </c>
       <c r="G150" t="n">
-        <v>21.18816666666666</v>
+        <v>21.17983333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +6052,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>21.44</v>
+        <v>21.49</v>
       </c>
       <c r="C151" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="D151" t="n">
-        <v>21.44</v>
+        <v>21.5</v>
       </c>
       <c r="E151" t="n">
-        <v>21.2</v>
+        <v>21.49</v>
       </c>
       <c r="F151" t="n">
-        <v>32435.417</v>
+        <v>66302.9126</v>
       </c>
       <c r="G151" t="n">
-        <v>21.19316666666666</v>
+        <v>21.18816666666666</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +6087,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>21.2</v>
+        <v>21.44</v>
       </c>
       <c r="C152" t="n">
         <v>21.2</v>
       </c>
       <c r="D152" t="n">
-        <v>21.2</v>
+        <v>21.44</v>
       </c>
       <c r="E152" t="n">
         <v>21.2</v>
       </c>
       <c r="F152" t="n">
-        <v>12066.2488</v>
+        <v>32435.417</v>
       </c>
       <c r="G152" t="n">
-        <v>21.19783333333333</v>
+        <v>21.19316666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5721,19 +6125,19 @@
         <v>21.2</v>
       </c>
       <c r="C153" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="D153" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="E153" t="n">
         <v>21.2</v>
       </c>
       <c r="F153" t="n">
-        <v>42834.2312</v>
+        <v>12066.2488</v>
       </c>
       <c r="G153" t="n">
-        <v>21.20783333333333</v>
+        <v>21.19783333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +6157,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>21.26</v>
+        <v>21.2</v>
       </c>
       <c r="C154" t="n">
-        <v>21.26</v>
+        <v>21.5</v>
       </c>
       <c r="D154" t="n">
-        <v>21.26</v>
+        <v>21.5</v>
       </c>
       <c r="E154" t="n">
-        <v>21.26</v>
+        <v>21.2</v>
       </c>
       <c r="F154" t="n">
-        <v>94.66379999999999</v>
+        <v>42834.2312</v>
       </c>
       <c r="G154" t="n">
-        <v>21.21516666666666</v>
+        <v>21.20783333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +6192,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>21.3</v>
+        <v>21.26</v>
       </c>
       <c r="C155" t="n">
-        <v>21.3</v>
+        <v>21.26</v>
       </c>
       <c r="D155" t="n">
-        <v>21.3</v>
+        <v>21.26</v>
       </c>
       <c r="E155" t="n">
-        <v>21.3</v>
+        <v>21.26</v>
       </c>
       <c r="F155" t="n">
-        <v>5919.3049</v>
+        <v>94.66379999999999</v>
       </c>
       <c r="G155" t="n">
-        <v>21.22316666666666</v>
+        <v>21.21516666666666</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +6227,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>21.31</v>
+        <v>21.3</v>
       </c>
       <c r="C156" t="n">
-        <v>21.31</v>
+        <v>21.3</v>
       </c>
       <c r="D156" t="n">
-        <v>21.31</v>
+        <v>21.3</v>
       </c>
       <c r="E156" t="n">
-        <v>21.31</v>
+        <v>21.3</v>
       </c>
       <c r="F156" t="n">
-        <v>9349.076499999999</v>
+        <v>5919.3049</v>
       </c>
       <c r="G156" t="n">
-        <v>21.23166666666666</v>
+        <v>21.22316666666666</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +6262,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>21.3</v>
+        <v>21.31</v>
       </c>
       <c r="C157" t="n">
-        <v>21.3</v>
+        <v>21.31</v>
       </c>
       <c r="D157" t="n">
-        <v>21.3</v>
+        <v>21.31</v>
       </c>
       <c r="E157" t="n">
-        <v>21.3</v>
+        <v>21.31</v>
       </c>
       <c r="F157" t="n">
-        <v>4207.0844</v>
+        <v>9349.076499999999</v>
       </c>
       <c r="G157" t="n">
-        <v>21.24016666666666</v>
+        <v>21.23166666666666</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +6297,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>21.49</v>
+        <v>21.3</v>
       </c>
       <c r="C158" t="n">
         <v>21.3</v>
       </c>
       <c r="D158" t="n">
-        <v>21.49</v>
+        <v>21.3</v>
       </c>
       <c r="E158" t="n">
         <v>21.3</v>
       </c>
       <c r="F158" t="n">
-        <v>1783.6863</v>
+        <v>4207.0844</v>
       </c>
       <c r="G158" t="n">
-        <v>21.24866666666666</v>
+        <v>21.24016666666666</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5931,19 +6335,19 @@
         <v>21.49</v>
       </c>
       <c r="C159" t="n">
-        <v>21.49</v>
+        <v>21.3</v>
       </c>
       <c r="D159" t="n">
         <v>21.49</v>
       </c>
       <c r="E159" t="n">
-        <v>21.49</v>
+        <v>21.3</v>
       </c>
       <c r="F159" t="n">
-        <v>850.3185999999999</v>
+        <v>1783.6863</v>
       </c>
       <c r="G159" t="n">
-        <v>21.26033333333333</v>
+        <v>21.24866666666666</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +6367,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>21.31</v>
+        <v>21.49</v>
       </c>
       <c r="C160" t="n">
-        <v>21.13</v>
+        <v>21.49</v>
       </c>
       <c r="D160" t="n">
-        <v>21.31</v>
+        <v>21.49</v>
       </c>
       <c r="E160" t="n">
-        <v>21.13</v>
+        <v>21.49</v>
       </c>
       <c r="F160" t="n">
-        <v>19288.4188</v>
+        <v>850.3185999999999</v>
       </c>
       <c r="G160" t="n">
-        <v>21.25983333333333</v>
+        <v>21.26033333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +6402,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>21.2</v>
+        <v>21.31</v>
       </c>
       <c r="C161" t="n">
-        <v>21.12</v>
+        <v>21.13</v>
       </c>
       <c r="D161" t="n">
-        <v>21.2</v>
+        <v>21.31</v>
       </c>
       <c r="E161" t="n">
-        <v>21.12</v>
+        <v>21.13</v>
       </c>
       <c r="F161" t="n">
-        <v>11345.951</v>
+        <v>19288.4188</v>
       </c>
       <c r="G161" t="n">
-        <v>21.26349999999999</v>
+        <v>21.25983333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6437,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>21.15</v>
+        <v>21.2</v>
       </c>
       <c r="C162" t="n">
-        <v>21.11</v>
+        <v>21.12</v>
       </c>
       <c r="D162" t="n">
-        <v>21.15</v>
+        <v>21.2</v>
       </c>
       <c r="E162" t="n">
-        <v>21.11</v>
+        <v>21.12</v>
       </c>
       <c r="F162" t="n">
-        <v>52043.3545</v>
+        <v>11345.951</v>
       </c>
       <c r="G162" t="n">
-        <v>21.26366666666666</v>
+        <v>21.26349999999999</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6472,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>21.39</v>
+        <v>21.15</v>
       </c>
       <c r="C163" t="n">
-        <v>21.39</v>
+        <v>21.11</v>
       </c>
       <c r="D163" t="n">
-        <v>21.39</v>
+        <v>21.15</v>
       </c>
       <c r="E163" t="n">
-        <v>21.39</v>
+        <v>21.11</v>
       </c>
       <c r="F163" t="n">
-        <v>16971.3845</v>
+        <v>52043.3545</v>
       </c>
       <c r="G163" t="n">
-        <v>21.26699999999999</v>
+        <v>21.26366666666666</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6507,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>21.38</v>
+        <v>21.39</v>
       </c>
       <c r="C164" t="n">
-        <v>21.4</v>
+        <v>21.39</v>
       </c>
       <c r="D164" t="n">
-        <v>21.4</v>
+        <v>21.39</v>
       </c>
       <c r="E164" t="n">
-        <v>21.38</v>
+        <v>21.39</v>
       </c>
       <c r="F164" t="n">
-        <v>12200</v>
+        <v>16971.3845</v>
       </c>
       <c r="G164" t="n">
-        <v>21.27683333333333</v>
+        <v>21.26699999999999</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6542,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>21.16</v>
+        <v>21.38</v>
       </c>
       <c r="C165" t="n">
-        <v>21.16</v>
+        <v>21.4</v>
       </c>
       <c r="D165" t="n">
-        <v>21.16</v>
+        <v>21.4</v>
       </c>
       <c r="E165" t="n">
-        <v>21.16</v>
+        <v>21.38</v>
       </c>
       <c r="F165" t="n">
-        <v>872.325</v>
+        <v>12200</v>
       </c>
       <c r="G165" t="n">
-        <v>21.27783333333333</v>
+        <v>21.27683333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6577,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>21.4</v>
+        <v>21.16</v>
       </c>
       <c r="C166" t="n">
-        <v>21.4</v>
+        <v>21.16</v>
       </c>
       <c r="D166" t="n">
-        <v>21.4</v>
+        <v>21.16</v>
       </c>
       <c r="E166" t="n">
-        <v>21.4</v>
+        <v>21.16</v>
       </c>
       <c r="F166" t="n">
-        <v>768.5053</v>
+        <v>872.325</v>
       </c>
       <c r="G166" t="n">
-        <v>21.28766666666667</v>
+        <v>21.27783333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6220,10 +6624,10 @@
         <v>21.4</v>
       </c>
       <c r="F167" t="n">
-        <v>36.7804</v>
+        <v>768.5053</v>
       </c>
       <c r="G167" t="n">
-        <v>21.29133333333333</v>
+        <v>21.28766666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6255,10 +6659,10 @@
         <v>21.4</v>
       </c>
       <c r="F168" t="n">
-        <v>5300</v>
+        <v>36.7804</v>
       </c>
       <c r="G168" t="n">
-        <v>21.30066666666667</v>
+        <v>21.29133333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6682,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>21.17</v>
+        <v>21.4</v>
       </c>
       <c r="C169" t="n">
-        <v>21.15</v>
+        <v>21.4</v>
       </c>
       <c r="D169" t="n">
-        <v>21.17</v>
+        <v>21.4</v>
       </c>
       <c r="E169" t="n">
-        <v>21.15</v>
+        <v>21.4</v>
       </c>
       <c r="F169" t="n">
-        <v>18850.3722</v>
+        <v>5300</v>
       </c>
       <c r="G169" t="n">
-        <v>21.30483333333334</v>
+        <v>21.30066666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6717,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>21.2</v>
+        <v>21.17</v>
       </c>
       <c r="C170" t="n">
-        <v>21.2</v>
+        <v>21.15</v>
       </c>
       <c r="D170" t="n">
-        <v>21.2</v>
+        <v>21.17</v>
       </c>
       <c r="E170" t="n">
-        <v>21.2</v>
+        <v>21.15</v>
       </c>
       <c r="F170" t="n">
-        <v>22012.3641</v>
+        <v>18850.3722</v>
       </c>
       <c r="G170" t="n">
-        <v>21.30650000000001</v>
+        <v>21.30483333333334</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6752,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>21.13</v>
+        <v>21.2</v>
       </c>
       <c r="C171" t="n">
-        <v>21.11</v>
+        <v>21.2</v>
       </c>
       <c r="D171" t="n">
-        <v>21.13</v>
+        <v>21.2</v>
       </c>
       <c r="E171" t="n">
-        <v>21.11</v>
+        <v>21.2</v>
       </c>
       <c r="F171" t="n">
-        <v>33691.8101</v>
+        <v>22012.3641</v>
       </c>
       <c r="G171" t="n">
-        <v>21.31</v>
+        <v>21.30650000000001</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6787,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>21.1</v>
+        <v>21.13</v>
       </c>
       <c r="C172" t="n">
-        <v>21.03</v>
+        <v>21.11</v>
       </c>
       <c r="D172" t="n">
-        <v>21.1</v>
+        <v>21.13</v>
       </c>
       <c r="E172" t="n">
-        <v>21.03</v>
+        <v>21.11</v>
       </c>
       <c r="F172" t="n">
-        <v>159809.0881</v>
+        <v>33691.8101</v>
       </c>
       <c r="G172" t="n">
-        <v>21.30883333333334</v>
+        <v>21.31</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6822,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>21.26</v>
+        <v>21.1</v>
       </c>
       <c r="C173" t="n">
-        <v>21.26</v>
+        <v>21.03</v>
       </c>
       <c r="D173" t="n">
-        <v>21.26</v>
+        <v>21.1</v>
       </c>
       <c r="E173" t="n">
-        <v>21.26</v>
+        <v>21.03</v>
       </c>
       <c r="F173" t="n">
-        <v>25</v>
+        <v>159809.0881</v>
       </c>
       <c r="G173" t="n">
-        <v>21.309</v>
+        <v>21.30883333333334</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6857,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>21.09</v>
+        <v>21.26</v>
       </c>
       <c r="C174" t="n">
-        <v>21.04</v>
+        <v>21.26</v>
       </c>
       <c r="D174" t="n">
-        <v>21.09</v>
+        <v>21.26</v>
       </c>
       <c r="E174" t="n">
-        <v>21.04</v>
+        <v>21.26</v>
       </c>
       <c r="F174" t="n">
-        <v>15726.3794</v>
+        <v>25</v>
       </c>
       <c r="G174" t="n">
-        <v>21.3055</v>
+        <v>21.309</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6892,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>21.05</v>
+        <v>21.09</v>
       </c>
       <c r="C175" t="n">
-        <v>21.03</v>
+        <v>21.04</v>
       </c>
       <c r="D175" t="n">
-        <v>21.05</v>
+        <v>21.09</v>
       </c>
       <c r="E175" t="n">
-        <v>21.03</v>
+        <v>21.04</v>
       </c>
       <c r="F175" t="n">
-        <v>229721.3423</v>
+        <v>15726.3794</v>
       </c>
       <c r="G175" t="n">
-        <v>21.30183333333333</v>
+        <v>21.3055</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6927,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="C176" t="n">
         <v>21.03</v>
       </c>
-      <c r="C176" t="n">
-        <v>21.29</v>
-      </c>
       <c r="D176" t="n">
-        <v>21.29</v>
+        <v>21.05</v>
       </c>
       <c r="E176" t="n">
         <v>21.03</v>
       </c>
       <c r="F176" t="n">
-        <v>20450.96852559</v>
+        <v>229721.3423</v>
       </c>
       <c r="G176" t="n">
-        <v>21.3025</v>
+        <v>21.30183333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6962,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>21.09</v>
+        <v>21.03</v>
       </c>
       <c r="C177" t="n">
-        <v>21.09</v>
+        <v>21.29</v>
       </c>
       <c r="D177" t="n">
-        <v>21.09</v>
+        <v>21.29</v>
       </c>
       <c r="E177" t="n">
-        <v>21.09</v>
+        <v>21.03</v>
       </c>
       <c r="F177" t="n">
-        <v>1675.0139</v>
+        <v>20450.96852559</v>
       </c>
       <c r="G177" t="n">
-        <v>21.29983333333333</v>
+        <v>21.3025</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6997,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>20.9</v>
+        <v>21.09</v>
       </c>
       <c r="C178" t="n">
-        <v>20.85</v>
+        <v>21.09</v>
       </c>
       <c r="D178" t="n">
-        <v>20.9</v>
+        <v>21.09</v>
       </c>
       <c r="E178" t="n">
-        <v>20.85</v>
+        <v>21.09</v>
       </c>
       <c r="F178" t="n">
-        <v>15418.3541</v>
+        <v>1675.0139</v>
       </c>
       <c r="G178" t="n">
-        <v>21.29316666666666</v>
+        <v>21.29983333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +7032,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="C179" t="n">
         <v>20.85</v>
       </c>
       <c r="D179" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="E179" t="n">
         <v>20.85</v>
       </c>
       <c r="F179" t="n">
-        <v>18325.359</v>
+        <v>15418.3541</v>
       </c>
       <c r="G179" t="n">
-        <v>21.28566666666666</v>
+        <v>21.29316666666666</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +7067,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>20.85</v>
+        <v>21</v>
       </c>
       <c r="C180" t="n">
         <v>20.85</v>
       </c>
       <c r="D180" t="n">
-        <v>20.85</v>
+        <v>21</v>
       </c>
       <c r="E180" t="n">
         <v>20.85</v>
       </c>
       <c r="F180" t="n">
-        <v>64403.5062</v>
+        <v>18325.359</v>
       </c>
       <c r="G180" t="n">
-        <v>21.27816666666666</v>
+        <v>21.28566666666666</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +7102,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>21</v>
+        <v>20.85</v>
       </c>
       <c r="C181" t="n">
         <v>20.85</v>
       </c>
       <c r="D181" t="n">
-        <v>21</v>
+        <v>20.85</v>
       </c>
       <c r="E181" t="n">
         <v>20.85</v>
       </c>
       <c r="F181" t="n">
-        <v>20900</v>
+        <v>64403.5062</v>
       </c>
       <c r="G181" t="n">
-        <v>21.2695</v>
+        <v>21.27816666666666</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +7137,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>20.87</v>
+        <v>21</v>
       </c>
       <c r="C182" t="n">
-        <v>20.78</v>
+        <v>20.85</v>
       </c>
       <c r="D182" t="n">
-        <v>20.87</v>
+        <v>21</v>
       </c>
       <c r="E182" t="n">
-        <v>20.78</v>
+        <v>20.85</v>
       </c>
       <c r="F182" t="n">
-        <v>96798.1875</v>
+        <v>20900</v>
       </c>
       <c r="G182" t="n">
-        <v>21.25966666666666</v>
+        <v>21.2695</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,22 +7172,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>20.77</v>
+        <v>20.87</v>
       </c>
       <c r="C183" t="n">
-        <v>20.7</v>
+        <v>20.78</v>
       </c>
       <c r="D183" t="n">
-        <v>20.77</v>
+        <v>20.87</v>
       </c>
       <c r="E183" t="n">
-        <v>20.7</v>
+        <v>20.78</v>
       </c>
       <c r="F183" t="n">
-        <v>37893.7345</v>
+        <v>96798.1875</v>
       </c>
       <c r="G183" t="n">
-        <v>21.24816666666667</v>
+        <v>21.25966666666666</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +7207,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>20.71</v>
+        <v>20.77</v>
       </c>
       <c r="C184" t="n">
-        <v>20.71</v>
+        <v>20.7</v>
       </c>
       <c r="D184" t="n">
-        <v>20.71</v>
+        <v>20.77</v>
       </c>
       <c r="E184" t="n">
-        <v>20.71</v>
+        <v>20.7</v>
       </c>
       <c r="F184" t="n">
-        <v>5856.9374</v>
+        <v>37893.7345</v>
       </c>
       <c r="G184" t="n">
-        <v>21.23683333333333</v>
+        <v>21.24816666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +7242,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>20.72</v>
+        <v>20.71</v>
       </c>
       <c r="C185" t="n">
-        <v>20.72</v>
+        <v>20.71</v>
       </c>
       <c r="D185" t="n">
-        <v>20.72</v>
+        <v>20.71</v>
       </c>
       <c r="E185" t="n">
-        <v>20.72</v>
+        <v>20.71</v>
       </c>
       <c r="F185" t="n">
-        <v>3622.9384</v>
+        <v>5856.9374</v>
       </c>
       <c r="G185" t="n">
-        <v>21.23033333333333</v>
+        <v>21.23683333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +7277,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>20.7</v>
+        <v>20.72</v>
       </c>
       <c r="C186" t="n">
-        <v>20.7</v>
+        <v>20.72</v>
       </c>
       <c r="D186" t="n">
-        <v>20.7</v>
+        <v>20.72</v>
       </c>
       <c r="E186" t="n">
-        <v>20.7</v>
+        <v>20.72</v>
       </c>
       <c r="F186" t="n">
-        <v>12816.0623</v>
+        <v>3622.9384</v>
       </c>
       <c r="G186" t="n">
-        <v>21.21866666666666</v>
+        <v>21.23033333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +7312,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>20.71</v>
+        <v>20.7</v>
       </c>
       <c r="C187" t="n">
         <v>20.7</v>
       </c>
       <c r="D187" t="n">
-        <v>20.71</v>
+        <v>20.7</v>
       </c>
       <c r="E187" t="n">
         <v>20.7</v>
       </c>
       <c r="F187" t="n">
-        <v>3697.4011</v>
+        <v>12816.0623</v>
       </c>
       <c r="G187" t="n">
-        <v>21.207</v>
+        <v>21.21866666666666</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +7347,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>20.72</v>
+        <v>20.71</v>
       </c>
       <c r="C188" t="n">
-        <v>20.72</v>
+        <v>20.7</v>
       </c>
       <c r="D188" t="n">
-        <v>20.72</v>
+        <v>20.71</v>
       </c>
       <c r="E188" t="n">
-        <v>20.72</v>
+        <v>20.7</v>
       </c>
       <c r="F188" t="n">
-        <v>111.243</v>
+        <v>3697.4011</v>
       </c>
       <c r="G188" t="n">
-        <v>21.19566666666666</v>
+        <v>21.207</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,35 +7382,31 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>20.79</v>
+        <v>20.72</v>
       </c>
       <c r="C189" t="n">
-        <v>20.79</v>
+        <v>20.72</v>
       </c>
       <c r="D189" t="n">
-        <v>20.79</v>
+        <v>20.72</v>
       </c>
       <c r="E189" t="n">
-        <v>20.79</v>
+        <v>20.72</v>
       </c>
       <c r="F189" t="n">
-        <v>7009.0497</v>
+        <v>111.243</v>
       </c>
       <c r="G189" t="n">
-        <v>21.18549999999999</v>
+        <v>21.19566666666666</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="K189" t="n">
-        <v>20.72</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
@@ -7020,37 +7420,29 @@
         <v>20.79</v>
       </c>
       <c r="C190" t="n">
-        <v>20.8</v>
+        <v>20.79</v>
       </c>
       <c r="D190" t="n">
-        <v>20.8</v>
+        <v>20.79</v>
       </c>
       <c r="E190" t="n">
         <v>20.79</v>
       </c>
       <c r="F190" t="n">
-        <v>29098.8898</v>
+        <v>7009.0497</v>
       </c>
       <c r="G190" t="n">
-        <v>21.17549999999999</v>
+        <v>21.18549999999999</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>20.79</v>
-      </c>
-      <c r="K190" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7072,28 +7464,20 @@
         <v>20.79</v>
       </c>
       <c r="F191" t="n">
-        <v>85276.64780000001</v>
+        <v>29098.8898</v>
       </c>
       <c r="G191" t="n">
-        <v>21.16949999999999</v>
+        <v>21.17549999999999</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K191" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7103,35 +7487,31 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>20.7</v>
+        <v>20.79</v>
       </c>
       <c r="C192" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="D192" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="E192" t="n">
-        <v>20.7</v>
+        <v>20.79</v>
       </c>
       <c r="F192" t="n">
-        <v>7183.496</v>
+        <v>85276.64780000001</v>
       </c>
       <c r="G192" t="n">
-        <v>21.16033333333332</v>
+        <v>21.16949999999999</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K192" t="n">
-        <v>20.8</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
@@ -7154,10 +7534,10 @@
         <v>20.7</v>
       </c>
       <c r="F193" t="n">
-        <v>20450.9686</v>
+        <v>7183.496</v>
       </c>
       <c r="G193" t="n">
-        <v>21.14883333333332</v>
+        <v>21.16033333333332</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7166,14 +7546,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7195,10 +7569,10 @@
         <v>20.7</v>
       </c>
       <c r="F194" t="n">
-        <v>16971.3845</v>
+        <v>20450.9686</v>
       </c>
       <c r="G194" t="n">
-        <v>21.13699999999999</v>
+        <v>21.14883333333332</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7207,14 +7581,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7236,10 +7604,10 @@
         <v>20.7</v>
       </c>
       <c r="F195" t="n">
-        <v>15538.9101</v>
+        <v>16971.3845</v>
       </c>
       <c r="G195" t="n">
-        <v>21.12399999999999</v>
+        <v>21.13699999999999</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7271,10 +7639,10 @@
         <v>20.7</v>
       </c>
       <c r="F196" t="n">
-        <v>16428.7095</v>
+        <v>15538.9101</v>
       </c>
       <c r="G196" t="n">
-        <v>21.11116666666666</v>
+        <v>21.12399999999999</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7306,10 +7674,10 @@
         <v>20.7</v>
       </c>
       <c r="F197" t="n">
-        <v>179.0749</v>
+        <v>16428.7095</v>
       </c>
       <c r="G197" t="n">
-        <v>21.09833333333332</v>
+        <v>21.11116666666666</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7329,35 +7697,31 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>20.84</v>
+        <v>20.7</v>
       </c>
       <c r="C198" t="n">
-        <v>20.84</v>
+        <v>20.7</v>
       </c>
       <c r="D198" t="n">
-        <v>20.84</v>
+        <v>20.7</v>
       </c>
       <c r="E198" t="n">
-        <v>20.84</v>
+        <v>20.7</v>
       </c>
       <c r="F198" t="n">
-        <v>170.1572</v>
+        <v>179.0749</v>
       </c>
       <c r="G198" t="n">
-        <v>21.08766666666666</v>
+        <v>21.09833333333332</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K198" t="n">
-        <v>20.7</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
@@ -7368,40 +7732,32 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>20.87</v>
+        <v>20.84</v>
       </c>
       <c r="C199" t="n">
-        <v>20.98</v>
+        <v>20.84</v>
       </c>
       <c r="D199" t="n">
-        <v>20.98</v>
+        <v>20.84</v>
       </c>
       <c r="E199" t="n">
-        <v>20.87</v>
+        <v>20.84</v>
       </c>
       <c r="F199" t="n">
-        <v>8414.820400000001</v>
+        <v>170.1572</v>
       </c>
       <c r="G199" t="n">
-        <v>21.08199999999999</v>
+        <v>21.08766666666666</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>20.84</v>
-      </c>
-      <c r="K199" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7411,40 +7767,32 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>21.18</v>
+        <v>20.87</v>
       </c>
       <c r="C200" t="n">
-        <v>21.18</v>
+        <v>20.98</v>
       </c>
       <c r="D200" t="n">
-        <v>21.18</v>
+        <v>20.98</v>
       </c>
       <c r="E200" t="n">
-        <v>21.18</v>
+        <v>20.87</v>
       </c>
       <c r="F200" t="n">
-        <v>853.5205</v>
+        <v>8414.820400000001</v>
       </c>
       <c r="G200" t="n">
-        <v>21.07699999999999</v>
+        <v>21.08199999999999</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>20.98</v>
-      </c>
-      <c r="K200" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7454,22 +7802,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>21</v>
+        <v>21.18</v>
       </c>
       <c r="C201" t="n">
-        <v>21</v>
+        <v>21.18</v>
       </c>
       <c r="D201" t="n">
-        <v>21</v>
+        <v>21.18</v>
       </c>
       <c r="E201" t="n">
-        <v>21</v>
+        <v>21.18</v>
       </c>
       <c r="F201" t="n">
-        <v>159.2587</v>
+        <v>853.5205</v>
       </c>
       <c r="G201" t="n">
-        <v>21.06899999999999</v>
+        <v>21.07699999999999</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7489,22 +7837,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="C202" t="n">
-        <v>21.17</v>
+        <v>21</v>
       </c>
       <c r="D202" t="n">
-        <v>21.17</v>
+        <v>21</v>
       </c>
       <c r="E202" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="F202" t="n">
-        <v>5200</v>
+        <v>159.2587</v>
       </c>
       <c r="G202" t="n">
-        <v>21.06833333333332</v>
+        <v>21.06899999999999</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7524,22 +7872,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>20.94</v>
+        <v>21.1</v>
       </c>
       <c r="C203" t="n">
-        <v>20.79</v>
+        <v>21.17</v>
       </c>
       <c r="D203" t="n">
-        <v>20.94</v>
+        <v>21.17</v>
       </c>
       <c r="E203" t="n">
-        <v>20.79</v>
+        <v>21.1</v>
       </c>
       <c r="F203" t="n">
-        <v>209660.2322</v>
+        <v>5200</v>
       </c>
       <c r="G203" t="n">
-        <v>21.05949999999999</v>
+        <v>21.06833333333332</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7559,22 +7907,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>21.09</v>
+        <v>20.94</v>
       </c>
       <c r="C204" t="n">
-        <v>21.09</v>
+        <v>20.79</v>
       </c>
       <c r="D204" t="n">
-        <v>21.09</v>
+        <v>20.94</v>
       </c>
       <c r="E204" t="n">
-        <v>21.09</v>
+        <v>20.79</v>
       </c>
       <c r="F204" t="n">
-        <v>175.77050734</v>
+        <v>209660.2322</v>
       </c>
       <c r="G204" t="n">
-        <v>21.05566666666666</v>
+        <v>21.05949999999999</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7594,22 +7942,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>20.9</v>
+        <v>21.09</v>
       </c>
       <c r="C205" t="n">
-        <v>20.9</v>
+        <v>21.09</v>
       </c>
       <c r="D205" t="n">
-        <v>20.9</v>
+        <v>21.09</v>
       </c>
       <c r="E205" t="n">
-        <v>20.9</v>
+        <v>21.09</v>
       </c>
       <c r="F205" t="n">
-        <v>48788.2653</v>
+        <v>175.77050734</v>
       </c>
       <c r="G205" t="n">
-        <v>21.05049999999999</v>
+        <v>21.05566666666666</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7641,10 +7989,10 @@
         <v>20.9</v>
       </c>
       <c r="F206" t="n">
-        <v>6367.8528</v>
+        <v>48788.2653</v>
       </c>
       <c r="G206" t="n">
-        <v>21.04699999999999</v>
+        <v>21.05049999999999</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7664,22 +8012,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>20.99</v>
+        <v>20.9</v>
       </c>
       <c r="C207" t="n">
-        <v>20.99</v>
+        <v>20.9</v>
       </c>
       <c r="D207" t="n">
-        <v>20.99</v>
+        <v>20.9</v>
       </c>
       <c r="E207" t="n">
-        <v>20.99</v>
+        <v>20.9</v>
       </c>
       <c r="F207" t="n">
-        <v>16000</v>
+        <v>6367.8528</v>
       </c>
       <c r="G207" t="n">
-        <v>21.04349999999999</v>
+        <v>21.04699999999999</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7699,22 +8047,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>20.78</v>
+        <v>20.99</v>
       </c>
       <c r="C208" t="n">
-        <v>20.78</v>
+        <v>20.99</v>
       </c>
       <c r="D208" t="n">
-        <v>20.78</v>
+        <v>20.99</v>
       </c>
       <c r="E208" t="n">
-        <v>20.78</v>
+        <v>20.99</v>
       </c>
       <c r="F208" t="n">
-        <v>11618.9933</v>
+        <v>16000</v>
       </c>
       <c r="G208" t="n">
-        <v>21.03649999999999</v>
+        <v>21.04349999999999</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7734,22 +8082,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>20.99</v>
+        <v>20.78</v>
       </c>
       <c r="C209" t="n">
-        <v>20.99</v>
+        <v>20.78</v>
       </c>
       <c r="D209" t="n">
-        <v>20.99</v>
+        <v>20.78</v>
       </c>
       <c r="E209" t="n">
-        <v>20.99</v>
+        <v>20.78</v>
       </c>
       <c r="F209" t="n">
-        <v>50</v>
+        <v>11618.9933</v>
       </c>
       <c r="G209" t="n">
-        <v>21.02833333333333</v>
+        <v>21.03649999999999</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7781,10 +8129,10 @@
         <v>20.99</v>
       </c>
       <c r="F210" t="n">
-        <v>177.863</v>
+        <v>50</v>
       </c>
       <c r="G210" t="n">
-        <v>21.01983333333333</v>
+        <v>21.02833333333333</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7816,10 +8164,10 @@
         <v>20.99</v>
       </c>
       <c r="F211" t="n">
-        <v>84</v>
+        <v>177.863</v>
       </c>
       <c r="G211" t="n">
-        <v>21.01633333333332</v>
+        <v>21.01983333333333</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7851,10 +8199,10 @@
         <v>20.99</v>
       </c>
       <c r="F212" t="n">
-        <v>0.607</v>
+        <v>84</v>
       </c>
       <c r="G212" t="n">
-        <v>21.01283333333333</v>
+        <v>21.01633333333332</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7886,10 +8234,10 @@
         <v>20.99</v>
       </c>
       <c r="F213" t="n">
-        <v>72181.3845</v>
+        <v>0.607</v>
       </c>
       <c r="G213" t="n">
-        <v>21.00433333333332</v>
+        <v>21.01283333333333</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7909,22 +8257,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>21.1</v>
+        <v>20.99</v>
       </c>
       <c r="C214" t="n">
-        <v>21.1</v>
+        <v>20.99</v>
       </c>
       <c r="D214" t="n">
-        <v>21.1</v>
+        <v>20.99</v>
       </c>
       <c r="E214" t="n">
-        <v>21.1</v>
+        <v>20.99</v>
       </c>
       <c r="F214" t="n">
-        <v>48002.9565</v>
+        <v>72181.3845</v>
       </c>
       <c r="G214" t="n">
-        <v>21.00166666666666</v>
+        <v>21.00433333333332</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7944,22 +8292,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>21.11</v>
+        <v>21.1</v>
       </c>
       <c r="C215" t="n">
-        <v>21.11</v>
+        <v>21.1</v>
       </c>
       <c r="D215" t="n">
-        <v>21.11</v>
+        <v>21.1</v>
       </c>
       <c r="E215" t="n">
-        <v>21.11</v>
+        <v>21.1</v>
       </c>
       <c r="F215" t="n">
-        <v>691.0635</v>
+        <v>48002.9565</v>
       </c>
       <c r="G215" t="n">
-        <v>20.99849999999999</v>
+        <v>21.00166666666666</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7979,22 +8327,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>20.99</v>
+        <v>21.11</v>
       </c>
       <c r="C216" t="n">
-        <v>20.99</v>
+        <v>21.11</v>
       </c>
       <c r="D216" t="n">
-        <v>20.99</v>
+        <v>21.11</v>
       </c>
       <c r="E216" t="n">
-        <v>20.99</v>
+        <v>21.11</v>
       </c>
       <c r="F216" t="n">
-        <v>25</v>
+        <v>691.0635</v>
       </c>
       <c r="G216" t="n">
-        <v>20.99316666666666</v>
+        <v>20.99849999999999</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8014,22 +8362,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>21.11</v>
+        <v>20.99</v>
       </c>
       <c r="C217" t="n">
-        <v>21.11</v>
+        <v>20.99</v>
       </c>
       <c r="D217" t="n">
-        <v>21.11</v>
+        <v>20.99</v>
       </c>
       <c r="E217" t="n">
-        <v>21.11</v>
+        <v>20.99</v>
       </c>
       <c r="F217" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G217" t="n">
-        <v>20.98999999999999</v>
+        <v>20.99316666666666</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8049,22 +8397,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>21.15</v>
+        <v>21.11</v>
       </c>
       <c r="C218" t="n">
-        <v>20.71</v>
+        <v>21.11</v>
       </c>
       <c r="D218" t="n">
-        <v>21.15</v>
+        <v>21.11</v>
       </c>
       <c r="E218" t="n">
-        <v>20.71</v>
+        <v>21.11</v>
       </c>
       <c r="F218" t="n">
-        <v>29957.5664</v>
+        <v>30</v>
       </c>
       <c r="G218" t="n">
-        <v>20.98016666666666</v>
+        <v>20.98999999999999</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8084,22 +8432,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>20.9</v>
+        <v>21.15</v>
       </c>
       <c r="C219" t="n">
-        <v>20.95</v>
+        <v>20.71</v>
       </c>
       <c r="D219" t="n">
-        <v>20.95</v>
+        <v>21.15</v>
       </c>
       <c r="E219" t="n">
-        <v>20.9</v>
+        <v>20.71</v>
       </c>
       <c r="F219" t="n">
-        <v>655.985</v>
+        <v>29957.5664</v>
       </c>
       <c r="G219" t="n">
-        <v>20.97116666666666</v>
+        <v>20.98016666666666</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8119,22 +8467,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>20.98</v>
+        <v>20.9</v>
       </c>
       <c r="C220" t="n">
-        <v>20.98</v>
+        <v>20.95</v>
       </c>
       <c r="D220" t="n">
-        <v>20.98</v>
+        <v>20.95</v>
       </c>
       <c r="E220" t="n">
-        <v>20.98</v>
+        <v>20.9</v>
       </c>
       <c r="F220" t="n">
-        <v>623.3085</v>
+        <v>655.985</v>
       </c>
       <c r="G220" t="n">
-        <v>20.96866666666666</v>
+        <v>20.97116666666666</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8154,22 +8502,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>21.07</v>
+        <v>20.98</v>
       </c>
       <c r="C221" t="n">
-        <v>21.07</v>
+        <v>20.98</v>
       </c>
       <c r="D221" t="n">
-        <v>21.07</v>
+        <v>20.98</v>
       </c>
       <c r="E221" t="n">
-        <v>21.07</v>
+        <v>20.98</v>
       </c>
       <c r="F221" t="n">
-        <v>24</v>
+        <v>623.3085</v>
       </c>
       <c r="G221" t="n">
-        <v>20.96783333333332</v>
+        <v>20.96866666666666</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8189,22 +8537,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>20.98</v>
+        <v>21.07</v>
       </c>
       <c r="C222" t="n">
-        <v>20.98</v>
+        <v>21.07</v>
       </c>
       <c r="D222" t="n">
-        <v>20.98</v>
+        <v>21.07</v>
       </c>
       <c r="E222" t="n">
-        <v>20.98</v>
+        <v>21.07</v>
       </c>
       <c r="F222" t="n">
-        <v>12000</v>
+        <v>24</v>
       </c>
       <c r="G222" t="n">
-        <v>20.96566666666666</v>
+        <v>20.96783333333332</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8227,19 +8575,19 @@
         <v>20.98</v>
       </c>
       <c r="C223" t="n">
-        <v>21.14</v>
+        <v>20.98</v>
       </c>
       <c r="D223" t="n">
-        <v>21.14</v>
+        <v>20.98</v>
       </c>
       <c r="E223" t="n">
         <v>20.98</v>
       </c>
       <c r="F223" t="n">
-        <v>14718</v>
+        <v>12000</v>
       </c>
       <c r="G223" t="n">
-        <v>20.96149999999999</v>
+        <v>20.96566666666666</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8259,22 +8607,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>21.03</v>
+        <v>20.98</v>
       </c>
       <c r="C224" t="n">
-        <v>21.03</v>
+        <v>21.14</v>
       </c>
       <c r="D224" t="n">
-        <v>21.03</v>
+        <v>21.14</v>
       </c>
       <c r="E224" t="n">
-        <v>21.03</v>
+        <v>20.98</v>
       </c>
       <c r="F224" t="n">
-        <v>86.4511</v>
+        <v>14718</v>
       </c>
       <c r="G224" t="n">
-        <v>20.95533333333332</v>
+        <v>20.96149999999999</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8306,10 +8654,10 @@
         <v>21.03</v>
       </c>
       <c r="F225" t="n">
-        <v>5863.9909</v>
+        <v>86.4511</v>
       </c>
       <c r="G225" t="n">
-        <v>20.95316666666666</v>
+        <v>20.95533333333332</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8341,10 +8689,10 @@
         <v>21.03</v>
       </c>
       <c r="F226" t="n">
-        <v>293.1568</v>
+        <v>5863.9909</v>
       </c>
       <c r="G226" t="n">
-        <v>20.94699999999999</v>
+        <v>20.95316666666666</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8367,19 +8715,19 @@
         <v>21.03</v>
       </c>
       <c r="C227" t="n">
-        <v>21.1</v>
+        <v>21.03</v>
       </c>
       <c r="D227" t="n">
-        <v>21.1</v>
+        <v>21.03</v>
       </c>
       <c r="E227" t="n">
         <v>21.03</v>
       </c>
       <c r="F227" t="n">
-        <v>36299.7145</v>
+        <v>293.1568</v>
       </c>
       <c r="G227" t="n">
-        <v>20.94199999999999</v>
+        <v>20.94699999999999</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8399,7 +8747,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>21.1</v>
+        <v>21.03</v>
       </c>
       <c r="C228" t="n">
         <v>21.1</v>
@@ -8408,13 +8756,13 @@
         <v>21.1</v>
       </c>
       <c r="E228" t="n">
-        <v>21.1</v>
+        <v>21.03</v>
       </c>
       <c r="F228" t="n">
-        <v>14.2031</v>
+        <v>36299.7145</v>
       </c>
       <c r="G228" t="n">
-        <v>20.93699999999998</v>
+        <v>20.94199999999999</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8434,22 +8782,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>21.11</v>
+        <v>21.1</v>
       </c>
       <c r="C229" t="n">
-        <v>21.11</v>
+        <v>21.1</v>
       </c>
       <c r="D229" t="n">
-        <v>21.11</v>
+        <v>21.1</v>
       </c>
       <c r="E229" t="n">
-        <v>21.11</v>
+        <v>21.1</v>
       </c>
       <c r="F229" t="n">
-        <v>30</v>
+        <v>14.2031</v>
       </c>
       <c r="G229" t="n">
-        <v>20.93633333333331</v>
+        <v>20.93699999999998</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8469,22 +8817,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>21.03</v>
+        <v>21.11</v>
       </c>
       <c r="C230" t="n">
-        <v>21.03</v>
+        <v>21.11</v>
       </c>
       <c r="D230" t="n">
-        <v>21.03</v>
+        <v>21.11</v>
       </c>
       <c r="E230" t="n">
-        <v>21.03</v>
+        <v>21.11</v>
       </c>
       <c r="F230" t="n">
-        <v>278.499</v>
+        <v>30</v>
       </c>
       <c r="G230" t="n">
-        <v>20.93349999999998</v>
+        <v>20.93633333333331</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8516,10 +8864,10 @@
         <v>21.03</v>
       </c>
       <c r="F231" t="n">
-        <v>2647.8904</v>
+        <v>278.499</v>
       </c>
       <c r="G231" t="n">
-        <v>20.93216666666665</v>
+        <v>20.93349999999998</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8539,22 +8887,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>21</v>
+        <v>21.03</v>
       </c>
       <c r="C232" t="n">
-        <v>21</v>
+        <v>21.03</v>
       </c>
       <c r="D232" t="n">
-        <v>21</v>
+        <v>21.03</v>
       </c>
       <c r="E232" t="n">
-        <v>21</v>
+        <v>21.03</v>
       </c>
       <c r="F232" t="n">
-        <v>4672.7628</v>
+        <v>2647.8904</v>
       </c>
       <c r="G232" t="n">
-        <v>20.93166666666665</v>
+        <v>20.93216666666665</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8574,22 +8922,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>20.99</v>
+        <v>21</v>
       </c>
       <c r="C233" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="D233" t="n">
-        <v>20.99</v>
+        <v>21</v>
       </c>
       <c r="E233" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="F233" t="n">
-        <v>362101.7083</v>
+        <v>4672.7628</v>
       </c>
       <c r="G233" t="n">
-        <v>20.92066666666664</v>
+        <v>20.93166666666665</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8609,22 +8957,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>20.7</v>
+        <v>20.99</v>
       </c>
       <c r="C234" t="n">
         <v>20.6</v>
       </c>
       <c r="D234" t="n">
-        <v>20.7</v>
+        <v>20.99</v>
       </c>
       <c r="E234" t="n">
         <v>20.6</v>
       </c>
       <c r="F234" t="n">
-        <v>35799.7145</v>
+        <v>362101.7083</v>
       </c>
       <c r="G234" t="n">
-        <v>20.91333333333331</v>
+        <v>20.92066666666664</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8656,10 +9004,10 @@
         <v>20.6</v>
       </c>
       <c r="F235" t="n">
-        <v>57310.6761</v>
+        <v>35799.7145</v>
       </c>
       <c r="G235" t="n">
-        <v>20.90616666666664</v>
+        <v>20.91333333333331</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8679,22 +9027,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>20.61</v>
+        <v>20.7</v>
       </c>
       <c r="C236" t="n">
-        <v>20.61</v>
+        <v>20.6</v>
       </c>
       <c r="D236" t="n">
-        <v>20.61</v>
+        <v>20.7</v>
       </c>
       <c r="E236" t="n">
-        <v>20.61</v>
+        <v>20.6</v>
       </c>
       <c r="F236" t="n">
-        <v>38517.6596</v>
+        <v>57310.6761</v>
       </c>
       <c r="G236" t="n">
-        <v>20.89483333333331</v>
+        <v>20.90616666666664</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8714,22 +9062,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>20.6</v>
+        <v>20.61</v>
       </c>
       <c r="C237" t="n">
-        <v>20.6</v>
+        <v>20.61</v>
       </c>
       <c r="D237" t="n">
-        <v>20.6</v>
+        <v>20.61</v>
       </c>
       <c r="E237" t="n">
-        <v>20.6</v>
+        <v>20.61</v>
       </c>
       <c r="F237" t="n">
-        <v>10675.4424</v>
+        <v>38517.6596</v>
       </c>
       <c r="G237" t="n">
-        <v>20.88666666666664</v>
+        <v>20.89483333333331</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8749,22 +9097,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="C238" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="D238" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="E238" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="F238" t="n">
-        <v>389.8603</v>
+        <v>10675.4424</v>
       </c>
       <c r="G238" t="n">
-        <v>20.88416666666664</v>
+        <v>20.88666666666664</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8784,22 +9132,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>20.77</v>
+        <v>20.7</v>
       </c>
       <c r="C239" t="n">
-        <v>20.77</v>
+        <v>20.7</v>
       </c>
       <c r="D239" t="n">
-        <v>20.77</v>
+        <v>20.7</v>
       </c>
       <c r="E239" t="n">
-        <v>20.77</v>
+        <v>20.7</v>
       </c>
       <c r="F239" t="n">
-        <v>200</v>
+        <v>389.8603</v>
       </c>
       <c r="G239" t="n">
-        <v>20.88283333333331</v>
+        <v>20.88416666666664</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8819,22 +9167,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>20.71</v>
+        <v>20.77</v>
       </c>
       <c r="C240" t="n">
-        <v>20.5</v>
+        <v>20.77</v>
       </c>
       <c r="D240" t="n">
-        <v>20.71</v>
+        <v>20.77</v>
       </c>
       <c r="E240" t="n">
-        <v>20.5</v>
+        <v>20.77</v>
       </c>
       <c r="F240" t="n">
-        <v>174624.5684</v>
+        <v>200</v>
       </c>
       <c r="G240" t="n">
-        <v>20.87699999999998</v>
+        <v>20.88283333333331</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8854,22 +9202,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>20.5</v>
+        <v>20.71</v>
       </c>
       <c r="C241" t="n">
         <v>20.5</v>
       </c>
       <c r="D241" t="n">
-        <v>20.5</v>
+        <v>20.71</v>
       </c>
       <c r="E241" t="n">
         <v>20.5</v>
       </c>
       <c r="F241" t="n">
-        <v>47275.1765</v>
+        <v>174624.5684</v>
       </c>
       <c r="G241" t="n">
-        <v>20.87116666666665</v>
+        <v>20.87699999999998</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8889,22 +9237,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>20.51</v>
+        <v>20.5</v>
       </c>
       <c r="C242" t="n">
-        <v>20.59</v>
+        <v>20.5</v>
       </c>
       <c r="D242" t="n">
-        <v>20.59</v>
+        <v>20.5</v>
       </c>
       <c r="E242" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="F242" t="n">
-        <v>178094.5434</v>
+        <v>47275.1765</v>
       </c>
       <c r="G242" t="n">
-        <v>20.86799999999998</v>
+        <v>20.87116666666665</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8924,22 +9272,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="C243" t="n">
         <v>20.59</v>
       </c>
-      <c r="C243" t="n">
-        <v>20.6</v>
-      </c>
       <c r="D243" t="n">
-        <v>20.6</v>
+        <v>20.59</v>
       </c>
       <c r="E243" t="n">
-        <v>20.59</v>
+        <v>20.4</v>
       </c>
       <c r="F243" t="n">
-        <v>19200</v>
+        <v>178094.5434</v>
       </c>
       <c r="G243" t="n">
-        <v>20.86633333333331</v>
+        <v>20.86799999999998</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8959,22 +9307,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>20.5</v>
+        <v>20.59</v>
       </c>
       <c r="C244" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="D244" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="E244" t="n">
-        <v>20.5</v>
+        <v>20.59</v>
       </c>
       <c r="F244" t="n">
-        <v>853.5205</v>
+        <v>19200</v>
       </c>
       <c r="G244" t="n">
-        <v>20.86283333333331</v>
+        <v>20.86633333333331</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9006,10 +9354,10 @@
         <v>20.5</v>
       </c>
       <c r="F245" t="n">
-        <v>40877.8942</v>
+        <v>853.5205</v>
       </c>
       <c r="G245" t="n">
-        <v>20.85916666666664</v>
+        <v>20.86283333333331</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9029,22 +9377,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>20.49</v>
+        <v>20.5</v>
       </c>
       <c r="C246" t="n">
-        <v>20.49</v>
+        <v>20.5</v>
       </c>
       <c r="D246" t="n">
-        <v>20.49</v>
+        <v>20.5</v>
       </c>
       <c r="E246" t="n">
-        <v>20.49</v>
+        <v>20.5</v>
       </c>
       <c r="F246" t="n">
-        <v>6062.7212</v>
+        <v>40877.8942</v>
       </c>
       <c r="G246" t="n">
-        <v>20.85566666666664</v>
+        <v>20.85916666666664</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9064,22 +9412,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>20.5</v>
+        <v>20.49</v>
       </c>
       <c r="C247" t="n">
-        <v>20.5</v>
+        <v>20.49</v>
       </c>
       <c r="D247" t="n">
-        <v>20.5</v>
+        <v>20.49</v>
       </c>
       <c r="E247" t="n">
-        <v>20.5</v>
+        <v>20.49</v>
       </c>
       <c r="F247" t="n">
-        <v>8140.7246</v>
+        <v>6062.7212</v>
       </c>
       <c r="G247" t="n">
-        <v>20.85233333333331</v>
+        <v>20.85566666666664</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9094,6 +9442,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C248" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D248" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E248" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F248" t="n">
+        <v>8140.7246</v>
+      </c>
+      <c r="G248" t="n">
+        <v>20.85233333333331</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-14 BackTest WAXP.xlsx
+++ b/BackTest/2020-01-14 BackTest WAXP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N316"/>
+  <dimension ref="A1:M316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.39</v>
       </c>
       <c r="J3" t="n">
         <v>20.39</v>
       </c>
-      <c r="K3" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>20.39</v>
       </c>
       <c r="J4" t="n">
         <v>20.39</v>
       </c>
-      <c r="K4" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>20.39</v>
       </c>
       <c r="J5" t="n">
         <v>20.39</v>
       </c>
-      <c r="K5" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,19 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.39</v>
       </c>
       <c r="J6" t="n">
         <v>20.39</v>
       </c>
-      <c r="K6" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +640,23 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>20.39</v>
       </c>
       <c r="J7" t="n">
         <v>20.39</v>
       </c>
-      <c r="K7" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,26 +681,23 @@
         <v>178933.3376000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>20.39</v>
       </c>
       <c r="J8" t="n">
         <v>20.39</v>
       </c>
-      <c r="K8" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,26 +722,23 @@
         <v>253946.2718146601</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.38</v>
       </c>
       <c r="J9" t="n">
-        <v>20.38</v>
-      </c>
-      <c r="K9" t="n">
         <v>20.39</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -792,26 +763,23 @@
         <v>253946.2718146601</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>20.39</v>
       </c>
       <c r="J10" t="n">
         <v>20.39</v>
       </c>
-      <c r="K10" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -836,26 +804,23 @@
         <v>334042.9296</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>20.39</v>
       </c>
       <c r="J11" t="n">
         <v>20.39</v>
       </c>
-      <c r="K11" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -880,26 +845,23 @@
         <v>380639.4313000001</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="J12" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K12" t="n">
         <v>20.39</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -924,26 +886,23 @@
         <v>380639.4313000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>20.49</v>
       </c>
       <c r="J13" t="n">
-        <v>20.49</v>
-      </c>
-      <c r="K13" t="n">
         <v>20.39</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -968,26 +927,23 @@
         <v>380639.4313000001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>20.49</v>
       </c>
       <c r="J14" t="n">
-        <v>20.49</v>
-      </c>
-      <c r="K14" t="n">
         <v>20.39</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1012,26 +968,23 @@
         <v>380639.4313000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>20.49</v>
       </c>
       <c r="J15" t="n">
-        <v>20.49</v>
-      </c>
-      <c r="K15" t="n">
         <v>20.39</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1056,26 +1009,23 @@
         <v>380639.4313000001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>20.49</v>
       </c>
       <c r="J16" t="n">
-        <v>20.49</v>
-      </c>
-      <c r="K16" t="n">
         <v>20.39</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1100,24 +1050,23 @@
         <v>379539.4313000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="J17" t="n">
         <v>20.39</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1142,26 +1091,23 @@
         <v>380669.4313000001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>20.2</v>
       </c>
       <c r="J18" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="K18" t="n">
         <v>20.39</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1186,24 +1132,23 @@
         <v>439238.4898</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="J19" t="n">
         <v>20.39</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1228,24 +1173,23 @@
         <v>439238.4898</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="J20" t="n">
         <v>20.39</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1270,24 +1214,23 @@
         <v>483573.5098000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="J21" t="n">
         <v>20.39</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1312,24 +1255,23 @@
         <v>473782.1594000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="J22" t="n">
         <v>20.39</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1354,24 +1296,23 @@
         <v>473782.1594000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J23" t="n">
         <v>20.39</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1396,24 +1337,23 @@
         <v>473782.1594000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J24" t="n">
         <v>20.39</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1438,24 +1378,23 @@
         <v>722506.3501</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J25" t="n">
         <v>20.39</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1480,24 +1419,23 @@
         <v>734622.3501</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="J26" t="n">
         <v>20.39</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1524,22 +1462,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
         <v>20.39</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1566,22 +1501,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
         <v>20.39</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1606,24 +1538,23 @@
         <v>704016.9785000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="J29" t="n">
         <v>20.39</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1648,24 +1579,23 @@
         <v>704016.9785000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="J30" t="n">
         <v>20.39</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1690,528 +1620,487 @@
         <v>714016.9785000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
         <v>20.39</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1.020012260912212</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="C32" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="D32" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="E32" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="F32" t="n">
+        <v>883.3348999999999</v>
+      </c>
+      <c r="G32" t="n">
+        <v>713133.6436000001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="J32" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C33" t="n">
+        <v>20.72</v>
+      </c>
+      <c r="D33" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>20.71</v>
+      </c>
+      <c r="F33" t="n">
+        <v>300995.41780725</v>
+      </c>
+      <c r="G33" t="n">
+        <v>412138.2257927501</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D34" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E34" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>416138.2257927501</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>20.89</v>
-      </c>
-      <c r="C32" t="n">
-        <v>20.89</v>
-      </c>
-      <c r="D32" t="n">
-        <v>20.89</v>
-      </c>
-      <c r="E32" t="n">
-        <v>20.89</v>
-      </c>
-      <c r="F32" t="n">
-        <v>883.3348999999999</v>
-      </c>
-      <c r="G32" t="n">
-        <v>713133.6436000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20.72</v>
+      </c>
+      <c r="C35" t="n">
+        <v>20.72</v>
+      </c>
+      <c r="D35" t="n">
+        <v>20.72</v>
+      </c>
+      <c r="E35" t="n">
+        <v>20.72</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>412138.2257927501</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20.87</v>
+      </c>
+      <c r="C36" t="n">
+        <v>20.91</v>
+      </c>
+      <c r="D36" t="n">
+        <v>20.91</v>
+      </c>
+      <c r="E36" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1119.0314</v>
+      </c>
+      <c r="G36" t="n">
+        <v>413257.2571927501</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
         <v>20.9</v>
       </c>
-      <c r="C33" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="D33" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="E33" t="n">
-        <v>20.71</v>
-      </c>
-      <c r="F33" t="n">
-        <v>300995.41780725</v>
-      </c>
-      <c r="G33" t="n">
-        <v>412138.2257927501</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="C34" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="D34" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="E34" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="F34" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G34" t="n">
-        <v>416138.2257927501</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="C37" t="n">
+        <v>21</v>
+      </c>
+      <c r="D37" t="n">
+        <v>21</v>
+      </c>
+      <c r="E37" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="F37" t="n">
+        <v>159611.28927442</v>
+      </c>
+      <c r="G37" t="n">
+        <v>572868.5464671701</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="C35" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="D35" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="E35" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="F35" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G35" t="n">
-        <v>412138.2257927501</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>21</v>
+      </c>
+      <c r="C38" t="n">
+        <v>21</v>
+      </c>
+      <c r="D38" t="n">
+        <v>21</v>
+      </c>
+      <c r="E38" t="n">
+        <v>21</v>
+      </c>
+      <c r="F38" t="n">
+        <v>36028.0864</v>
+      </c>
+      <c r="G38" t="n">
+        <v>572868.5464671701</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>20.87</v>
-      </c>
-      <c r="C36" t="n">
-        <v>20.91</v>
-      </c>
-      <c r="D36" t="n">
-        <v>20.91</v>
-      </c>
-      <c r="E36" t="n">
-        <v>20.83</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1119.0314</v>
-      </c>
-      <c r="G36" t="n">
-        <v>413257.2571927501</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>21</v>
+      </c>
+      <c r="C39" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>21</v>
+      </c>
+      <c r="F39" t="n">
+        <v>282970.58442558</v>
+      </c>
+      <c r="G39" t="n">
+        <v>855839.1308927501</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="C37" t="n">
-        <v>21</v>
-      </c>
-      <c r="D37" t="n">
-        <v>21</v>
-      </c>
-      <c r="E37" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="F37" t="n">
-        <v>159611.28927442</v>
-      </c>
-      <c r="G37" t="n">
-        <v>572868.5464671701</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>63617.666</v>
+      </c>
+      <c r="G40" t="n">
+        <v>855839.1308927501</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>21</v>
-      </c>
-      <c r="C38" t="n">
-        <v>21</v>
-      </c>
-      <c r="D38" t="n">
-        <v>21</v>
-      </c>
-      <c r="E38" t="n">
-        <v>21</v>
-      </c>
-      <c r="F38" t="n">
-        <v>36028.0864</v>
-      </c>
-      <c r="G38" t="n">
-        <v>572868.5464671701</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>26583.826</v>
+      </c>
+      <c r="G41" t="n">
+        <v>882422.9568927501</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>21</v>
-      </c>
-      <c r="C39" t="n">
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
         <v>21.1</v>
       </c>
-      <c r="D39" t="n">
+      <c r="C42" t="n">
         <v>21.1</v>
       </c>
-      <c r="E39" t="n">
-        <v>21</v>
-      </c>
-      <c r="F39" t="n">
-        <v>282970.58442558</v>
-      </c>
-      <c r="G39" t="n">
-        <v>855839.1308927501</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="D42" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>881422.9568927501</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="C43" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E43" t="n">
         <v>21.1</v>
       </c>
-      <c r="C40" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="E40" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="F40" t="n">
-        <v>63617.666</v>
-      </c>
-      <c r="G40" t="n">
-        <v>855839.1308927501</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="F43" t="n">
+        <v>56140.0492</v>
+      </c>
+      <c r="G43" t="n">
+        <v>937563.0060927501</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="C41" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D41" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="E41" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F41" t="n">
-        <v>26583.826</v>
-      </c>
-      <c r="G41" t="n">
-        <v>882422.9568927501</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="C42" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="D42" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="E42" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G42" t="n">
-        <v>881422.9568927501</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>21.25</v>
-      </c>
-      <c r="C43" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D43" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E43" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="F43" t="n">
-        <v>56140.0492</v>
-      </c>
-      <c r="G43" t="n">
-        <v>937563.0060927501</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2236,24 +2125,21 @@
         <v>937563.0060927501</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L44" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1.014138755980861</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2278,24 +2164,15 @@
         <v>877867.7116002601</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2320,24 +2197,15 @@
         <v>878140.2821002601</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2364,22 +2232,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2404,24 +2263,15 @@
         <v>892041.7619002601</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2446,24 +2296,15 @@
         <v>850410.9592002601</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2488,24 +2329,15 @@
         <v>850410.9592002601</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2532,22 +2364,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2572,24 +2395,15 @@
         <v>1302373.52007323</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2616,24 +2430,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1.053852378616969</v>
-      </c>
-      <c r="N53" t="n">
-        <v>1.000490677134446</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2658,18 +2461,15 @@
         <v>1219899.63797323</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2694,18 +2494,15 @@
         <v>1520822.83367323</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2730,18 +2527,15 @@
         <v>1676617.53337323</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2766,18 +2560,15 @@
         <v>1749535.80767323</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2802,18 +2593,15 @@
         <v>1749535.80767323</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2838,18 +2626,15 @@
         <v>1380053.19227323</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2874,18 +2659,15 @@
         <v>1227907.91797323</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2912,16 +2694,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2948,16 +2727,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2984,16 +2760,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3020,16 +2793,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3056,16 +2826,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3092,16 +2859,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3128,16 +2892,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3164,16 +2925,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3200,16 +2958,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3236,16 +2991,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3272,16 +3024,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3308,16 +3057,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3344,16 +3090,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3380,16 +3123,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3416,16 +3156,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3452,16 +3189,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3488,16 +3222,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3524,16 +3255,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3560,16 +3288,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3596,16 +3321,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3632,16 +3354,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3668,16 +3387,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3704,16 +3420,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3740,16 +3453,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3776,16 +3486,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3812,16 +3519,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3848,16 +3552,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3884,16 +3585,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3920,16 +3618,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3956,16 +3651,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3992,16 +3684,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4028,16 +3717,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4064,16 +3750,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4100,16 +3783,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4136,16 +3816,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4172,16 +3849,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4208,16 +3882,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4244,16 +3915,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4280,16 +3948,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4316,16 +3981,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4352,16 +4014,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4388,16 +4047,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4424,16 +4080,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4460,16 +4113,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4496,16 +4146,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4532,16 +4179,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4568,16 +4212,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4602,18 +4243,15 @@
         <v>1026833.47526733</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4638,18 +4276,15 @@
         <v>1005595.33836733</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4674,18 +4309,15 @@
         <v>1009149.92296733</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4712,16 +4344,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4746,18 +4375,15 @@
         <v>972103.0254673304</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4782,18 +4408,15 @@
         <v>908062.9576673304</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4818,18 +4441,15 @@
         <v>908062.9576673304</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4854,18 +4474,15 @@
         <v>914062.9576673304</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4890,18 +4507,15 @@
         <v>939946.2952673304</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4926,18 +4540,15 @@
         <v>956946.2952673304</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4962,18 +4573,15 @@
         <v>956946.2952673304</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4998,18 +4606,15 @@
         <v>972100.7750673303</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5036,16 +4641,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5072,16 +4674,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5108,16 +4707,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5144,16 +4740,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5180,16 +4773,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5216,16 +4806,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5252,16 +4839,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5286,18 +4870,15 @@
         <v>879553.5542673303</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5324,16 +4905,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5358,18 +4936,15 @@
         <v>900037.3636673302</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5396,16 +4971,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5432,16 +5004,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5468,16 +5037,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5504,16 +5070,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5540,16 +5103,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5576,16 +5136,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5612,16 +5169,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5648,16 +5202,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5684,16 +5235,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5720,16 +5268,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5756,16 +5301,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5792,16 +5334,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5828,16 +5367,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5864,16 +5400,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5900,16 +5433,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5934,18 +5464,15 @@
         <v>700789.2381673302</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5972,16 +5499,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6006,18 +5530,15 @@
         <v>700789.2381673302</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6042,18 +5563,15 @@
         <v>700839.2381673302</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6078,18 +5596,15 @@
         <v>644992.8887673302</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6114,18 +5629,15 @@
         <v>622822.8887673302</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6150,18 +5662,15 @@
         <v>622847.8887673302</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6188,16 +5697,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6222,18 +5728,15 @@
         <v>567847.8887673302</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6258,18 +5761,15 @@
         <v>567847.8887673302</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6296,16 +5796,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6332,16 +5829,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6366,18 +5860,15 @@
         <v>517009.7256673302</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6402,18 +5893,15 @@
         <v>517009.7256673302</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6438,18 +5926,15 @@
         <v>517034.7256673302</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6474,18 +5959,15 @@
         <v>505688.7746673302</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6510,18 +5992,15 @@
         <v>505713.7746673302</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6546,18 +6025,15 @@
         <v>505738.7746673302</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6584,16 +6060,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6620,16 +6093,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6656,16 +6126,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6692,16 +6159,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6728,16 +6192,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6764,16 +6225,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6800,16 +6258,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6836,16 +6291,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6872,16 +6324,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6908,16 +6357,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6944,16 +6390,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6980,16 +6423,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7016,16 +6456,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7052,16 +6489,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7088,16 +6522,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7124,16 +6555,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7160,16 +6588,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7196,16 +6621,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7232,16 +6654,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7268,16 +6687,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7304,16 +6720,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7340,16 +6753,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7376,16 +6786,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7412,16 +6819,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7446,18 +6850,15 @@
         <v>549179.2597274302</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7482,18 +6883,15 @@
         <v>549179.2597274302</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7520,16 +6918,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7556,16 +6951,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7592,16 +6984,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7628,16 +7017,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7664,16 +7050,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7700,16 +7083,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7736,16 +7116,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7772,16 +7149,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7806,18 +7180,15 @@
         <v>730441.7788274302</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7844,16 +7215,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7880,16 +7248,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7914,18 +7279,15 @@
         <v>730472.5788274303</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7952,16 +7314,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7988,16 +7347,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8024,16 +7380,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8060,16 +7413,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8096,16 +7446,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8132,16 +7479,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8168,16 +7512,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8204,16 +7545,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8240,16 +7578,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8276,16 +7611,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8312,16 +7644,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8348,16 +7677,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8384,16 +7710,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8420,16 +7743,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8456,16 +7776,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8492,16 +7809,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8528,16 +7842,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8564,16 +7875,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8600,16 +7908,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8636,16 +7941,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8672,16 +7974,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8708,16 +8007,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8744,16 +8040,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8780,16 +8073,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8816,16 +8106,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8852,16 +8139,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8888,16 +8172,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8924,16 +8205,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8960,16 +8238,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8996,16 +8271,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9032,16 +8304,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9068,16 +8337,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9104,16 +8370,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9140,16 +8403,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9176,16 +8436,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9212,16 +8469,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9248,16 +8502,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9284,16 +8535,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9320,16 +8568,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9356,16 +8601,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9392,16 +8634,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9428,16 +8667,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9464,16 +8700,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9498,18 +8731,15 @@
         <v>361026.8439987201</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9534,18 +8764,15 @@
         <v>348210.7816987201</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9570,18 +8797,15 @@
         <v>348210.7816987201</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9606,18 +8830,15 @@
         <v>348322.0246987201</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9642,18 +8863,15 @@
         <v>355331.0743987201</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9678,18 +8896,15 @@
         <v>384429.9641987201</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9714,18 +8929,15 @@
         <v>384429.9641987201</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9750,18 +8962,15 @@
         <v>377246.4681987201</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9786,18 +8995,15 @@
         <v>377246.4681987201</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9822,18 +9028,15 @@
         <v>377246.4681987201</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9858,18 +9061,15 @@
         <v>377246.4681987201</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9896,16 +9096,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9930,18 +9127,15 @@
         <v>377246.4681987201</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9966,18 +9160,15 @@
         <v>377416.6253987201</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10002,18 +9193,15 @@
         <v>385831.4457987202</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10038,18 +9226,15 @@
         <v>386684.9662987202</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10074,18 +9259,15 @@
         <v>386525.7075987202</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10110,18 +9292,15 @@
         <v>391725.7075987202</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10146,18 +9325,15 @@
         <v>182065.4753987202</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10182,18 +9358,15 @@
         <v>182241.2459060602</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10220,16 +9393,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10254,18 +9424,15 @@
         <v>133452.9806060602</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10292,16 +9459,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10328,16 +9492,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10364,16 +9525,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10400,16 +9558,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10436,16 +9591,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10472,16 +9624,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10508,16 +9657,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10544,16 +9690,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10580,16 +9723,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10616,16 +9756,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10652,16 +9789,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10688,16 +9822,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10724,16 +9855,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10760,16 +9888,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10796,16 +9921,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10832,16 +9954,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10868,16 +9987,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10904,16 +10020,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10940,16 +10053,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10976,16 +10086,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11012,16 +10119,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11048,16 +10152,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11084,16 +10185,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11120,16 +10218,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11156,16 +10251,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11192,16 +10284,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11228,16 +10317,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11264,16 +10350,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11300,16 +10383,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11336,16 +10416,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11372,16 +10449,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11408,16 +10482,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11444,16 +10515,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11480,16 +10548,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11516,16 +10581,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11552,16 +10614,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11588,16 +10647,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11624,16 +10680,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11660,16 +10713,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11696,16 +10746,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11732,16 +10779,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11768,16 +10812,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11804,16 +10845,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11840,16 +10878,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11876,16 +10911,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11912,16 +10944,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11948,16 +10977,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11984,16 +11010,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12020,16 +11043,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12056,16 +11076,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12092,18 +11109,15 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest WAXP.xlsx
+++ b/BackTest/2020-01-14 BackTest WAXP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>20.39</v>
@@ -521,7 +521,7 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>20.39</v>
@@ -562,7 +562,7 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>20.39</v>
@@ -603,7 +603,7 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>20.39</v>
@@ -640,7 +640,7 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>20.39</v>
@@ -681,7 +681,7 @@
         <v>178933.3376000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>20.39</v>
@@ -722,7 +722,7 @@
         <v>253946.2718146601</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>20.38</v>
@@ -763,7 +763,7 @@
         <v>253946.2718146601</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>20.39</v>
@@ -804,7 +804,7 @@
         <v>334042.9296</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>20.39</v>
@@ -845,7 +845,7 @@
         <v>380639.4313000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>20.4</v>
@@ -886,7 +886,7 @@
         <v>380639.4313000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>20.49</v>
@@ -927,7 +927,7 @@
         <v>380639.4313000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>20.49</v>
@@ -968,7 +968,7 @@
         <v>380639.4313000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>20.49</v>
@@ -1009,7 +1009,7 @@
         <v>380639.4313000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>20.49</v>
@@ -1050,7 +1050,7 @@
         <v>379539.4313000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>20.49</v>
@@ -1091,7 +1091,7 @@
         <v>380669.4313000001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>20.2</v>
@@ -1132,7 +1132,7 @@
         <v>439238.4898</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>20.4</v>
@@ -1173,11 +1173,9 @@
         <v>439238.4898</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>20.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>20.39</v>
       </c>
@@ -1214,7 +1212,7 @@
         <v>483573.5098000001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>20.49</v>
@@ -1255,7 +1253,7 @@
         <v>473782.1594000001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>20.58</v>
@@ -1296,7 +1294,7 @@
         <v>473782.1594000001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>20.5</v>
@@ -1337,7 +1335,7 @@
         <v>473782.1594000001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>20.5</v>
@@ -1378,7 +1376,7 @@
         <v>722506.3501</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>20.5</v>
@@ -1419,11 +1417,9 @@
         <v>734622.3501</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>20.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>20.39</v>
       </c>
@@ -1538,11 +1534,9 @@
         <v>704016.9785000001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>20.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>20.39</v>
       </c>
@@ -1579,11 +1573,9 @@
         <v>704016.9785000001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>20.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>20.39</v>
       </c>
@@ -1620,7 +1612,7 @@
         <v>714016.9785000001</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
@@ -1628,11 +1620,11 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.020012260912212</v>
+        <v>1</v>
       </c>
       <c r="M31" t="inlineStr"/>
     </row>
@@ -1659,15 +1651,17 @@
         <v>713133.6436000001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>20.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+        <v>20.39</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1700,11 +1694,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>20.9</v>
+        <v>20.39</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1739,7 +1733,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>20.9</v>
+        <v>20.39</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1778,7 +1772,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>20.9</v>
+        <v>20.39</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1813,11 +1807,11 @@
         <v>413257.2571927501</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>20.9</v>
+        <v>20.39</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1852,11 +1846,11 @@
         <v>572868.5464671701</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>20.9</v>
+        <v>20.39</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1891,11 +1885,11 @@
         <v>572868.5464671701</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>20.9</v>
+        <v>20.39</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1930,11 +1924,11 @@
         <v>855839.1308927501</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>20.9</v>
+        <v>20.39</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1973,7 +1967,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>20.9</v>
+        <v>20.39</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2008,11 +2002,11 @@
         <v>882422.9568927501</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>20.9</v>
+        <v>20.39</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2047,11 +2041,11 @@
         <v>881422.9568927501</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>20.9</v>
+        <v>20.39</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2086,11 +2080,11 @@
         <v>937563.0060927501</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>20.9</v>
+        <v>20.39</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2125,615 +2119,725 @@
         <v>937563.0060927501</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>20.9</v>
+        <v>20.39</v>
       </c>
       <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C45" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E45" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>59695.29449249</v>
+      </c>
+      <c r="G45" t="n">
+        <v>877867.7116002601</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="C46" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="D46" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="E46" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="F46" t="n">
+        <v>272.5705</v>
+      </c>
+      <c r="G46" t="n">
+        <v>878140.2821002601</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="C47" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="D47" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="E47" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="F47" t="n">
+        <v>29.8248</v>
+      </c>
+      <c r="G47" t="n">
+        <v>878140.2821002601</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="C48" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="D48" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="E48" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="F48" t="n">
+        <v>13901.4798</v>
+      </c>
+      <c r="G48" t="n">
+        <v>892041.7619002601</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="C49" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="D49" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="E49" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="F49" t="n">
+        <v>41630.8027</v>
+      </c>
+      <c r="G49" t="n">
+        <v>850410.9592002601</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="C50" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="D50" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="E50" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3743.8184</v>
+      </c>
+      <c r="G50" t="n">
+        <v>850410.9592002601</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="C51" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="D51" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="E51" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="F51" t="n">
+        <v>25</v>
+      </c>
+      <c r="G51" t="n">
+        <v>850410.9592002601</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="C52" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="D52" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="F52" t="n">
+        <v>451962.56087297</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1302373.52007323</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="C53" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="D53" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="E53" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="F53" t="n">
+        <v>15778.0575</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1318151.57757323</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="C54" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="D54" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="E54" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>98251.9396</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1219899.63797323</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="C55" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="D55" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="E55" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="F55" t="n">
+        <v>300923.1957</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1520822.83367323</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="C56" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="D56" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="E56" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F56" t="n">
+        <v>155794.6997</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1676617.53337323</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C57" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="D57" t="n">
+        <v>22</v>
+      </c>
+      <c r="E57" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="F57" t="n">
+        <v>72918.2743</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1749535.80767323</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="C58" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="D58" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="E58" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="F58" t="n">
+        <v>17537.0761</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1749535.80767323</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="C59" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D59" t="n">
+        <v>22</v>
+      </c>
+      <c r="E59" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F59" t="n">
+        <v>369482.6154</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1380053.19227323</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C60" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D60" t="n">
+        <v>22</v>
+      </c>
+      <c r="E60" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F60" t="n">
+        <v>152145.2743</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1227907.91797323</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>22</v>
+      </c>
+      <c r="C61" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="D61" t="n">
+        <v>22</v>
+      </c>
+      <c r="E61" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F61" t="n">
+        <v>8513.408799999999</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1236421.32677323</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C62" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="D62" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="E62" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="F62" t="n">
+        <v>23908.2192</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1260329.54597323</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1.014138755980861</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C45" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="D45" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E45" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="F45" t="n">
-        <v>59695.29449249</v>
-      </c>
-      <c r="G45" t="n">
-        <v>877867.7116002601</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="C46" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="D46" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="E46" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="F46" t="n">
-        <v>272.5705</v>
-      </c>
-      <c r="G46" t="n">
-        <v>878140.2821002601</v>
-      </c>
-      <c r="H46" t="n">
-        <v>3</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="C47" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="D47" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="E47" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="F47" t="n">
-        <v>29.8248</v>
-      </c>
-      <c r="G47" t="n">
-        <v>878140.2821002601</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="C48" t="n">
-        <v>21.46</v>
-      </c>
-      <c r="D48" t="n">
-        <v>21.46</v>
-      </c>
-      <c r="E48" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="F48" t="n">
-        <v>13901.4798</v>
-      </c>
-      <c r="G48" t="n">
-        <v>892041.7619002601</v>
-      </c>
-      <c r="H48" t="n">
-        <v>3</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>21.46</v>
-      </c>
-      <c r="C49" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="D49" t="n">
-        <v>21.46</v>
-      </c>
-      <c r="E49" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="F49" t="n">
-        <v>41630.8027</v>
-      </c>
-      <c r="G49" t="n">
-        <v>850410.9592002601</v>
-      </c>
-      <c r="H49" t="n">
-        <v>3</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="C50" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="D50" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="E50" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="F50" t="n">
-        <v>3743.8184</v>
-      </c>
-      <c r="G50" t="n">
-        <v>850410.9592002601</v>
-      </c>
-      <c r="H50" t="n">
-        <v>3</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="C51" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="D51" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="E51" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="F51" t="n">
-        <v>25</v>
-      </c>
-      <c r="G51" t="n">
-        <v>850410.9592002601</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="C52" t="n">
-        <v>21.47</v>
-      </c>
-      <c r="D52" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E52" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="F52" t="n">
-        <v>451962.56087297</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1302373.52007323</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>21.47</v>
-      </c>
-      <c r="C53" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="D53" t="n">
-        <v>21.68</v>
-      </c>
-      <c r="E53" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="F53" t="n">
-        <v>15778.0575</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1318151.57757323</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>21.62</v>
-      </c>
-      <c r="C54" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="D54" t="n">
-        <v>21.71</v>
-      </c>
-      <c r="E54" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F54" t="n">
-        <v>98251.9396</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1219899.63797323</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>21.71</v>
-      </c>
-      <c r="C55" t="n">
-        <v>21.71</v>
-      </c>
-      <c r="D55" t="n">
-        <v>21.71</v>
-      </c>
-      <c r="E55" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="F55" t="n">
-        <v>300923.1957</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1520822.83367323</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>21.71</v>
-      </c>
-      <c r="C56" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="D56" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="E56" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F56" t="n">
-        <v>155794.6997</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1676617.53337323</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="C57" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="D57" t="n">
-        <v>22</v>
-      </c>
-      <c r="E57" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F57" t="n">
-        <v>72918.2743</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1749535.80767323</v>
-      </c>
-      <c r="H57" t="n">
-        <v>3</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="C58" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="D58" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="E58" t="n">
-        <v>21.98</v>
-      </c>
-      <c r="F58" t="n">
-        <v>17537.0761</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1749535.80767323</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>21.98</v>
-      </c>
-      <c r="C59" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D59" t="n">
-        <v>22</v>
-      </c>
-      <c r="E59" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F59" t="n">
-        <v>369482.6154</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1380053.19227323</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="C60" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D60" t="n">
-        <v>22</v>
-      </c>
-      <c r="E60" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F60" t="n">
-        <v>152145.2743</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1227907.91797323</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>22</v>
-      </c>
-      <c r="C61" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="D61" t="n">
-        <v>22</v>
-      </c>
-      <c r="E61" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F61" t="n">
-        <v>8513.408799999999</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1236421.32677323</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="C62" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="D62" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="E62" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F62" t="n">
-        <v>23908.2192</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1260329.54597323</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>1.069055909759686</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.000490677134446</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2923,7 +3027,7 @@
         <v>1173885.949567331</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2956,7 +3060,7 @@
         <v>1070672.776067331</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2989,7 +3093,7 @@
         <v>1070672.776067331</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3022,7 +3126,7 @@
         <v>1062311.776067331</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3055,7 +3159,7 @@
         <v>1062361.776067331</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3088,7 +3192,7 @@
         <v>1068468.36066733</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3121,7 +3225,7 @@
         <v>1068153.76876733</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3154,7 +3258,7 @@
         <v>1068178.76876733</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3187,7 +3291,7 @@
         <v>1012539.11246733</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3220,7 +3324,7 @@
         <v>1073136.85026733</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3253,7 +3357,7 @@
         <v>1016466.59906733</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3286,7 +3390,7 @@
         <v>1037290.04486733</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3319,7 +3423,7 @@
         <v>1031193.85096733</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3352,7 +3456,7 @@
         <v>969997.5303673302</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3385,7 +3489,7 @@
         <v>993667.6276673302</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3418,7 +3522,7 @@
         <v>1051460.49426733</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3451,7 +3555,7 @@
         <v>1085654.77976733</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3484,7 +3588,7 @@
         <v>1085654.77976733</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3517,7 +3621,7 @@
         <v>1085654.77976733</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3550,7 +3654,7 @@
         <v>1081535.77976733</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3583,7 +3687,7 @@
         <v>1082300.77976733</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3847,7 +3951,7 @@
         <v>1189936.70926733</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3880,7 +3984,7 @@
         <v>1182355.62486733</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3913,7 +4017,7 @@
         <v>1159446.82326733</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3946,7 +4050,7 @@
         <v>1159471.82326733</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3979,7 +4083,7 @@
         <v>1019471.82326733</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4012,7 +4116,7 @@
         <v>976481.5187673304</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4045,7 +4149,7 @@
         <v>1029226.29326733</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4078,7 +4182,7 @@
         <v>1029226.29326733</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4111,7 +4215,7 @@
         <v>1029226.29326733</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4144,7 +4248,7 @@
         <v>1029226.29326733</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4177,7 +4281,7 @@
         <v>1026901.79296733</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4210,7 +4314,7 @@
         <v>1026808.47526733</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4243,7 +4347,7 @@
         <v>1026833.47526733</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4276,7 +4380,7 @@
         <v>1005595.33836733</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4309,7 +4413,7 @@
         <v>1009149.92296733</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4342,7 +4446,7 @@
         <v>1009174.92296733</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4375,7 +4479,7 @@
         <v>972103.0254673304</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4408,7 +4512,7 @@
         <v>908062.9576673304</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4441,7 +4545,7 @@
         <v>908062.9576673304</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4474,7 +4578,7 @@
         <v>914062.9576673304</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4507,7 +4611,7 @@
         <v>939946.2952673304</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4540,7 +4644,7 @@
         <v>956946.2952673304</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4573,7 +4677,7 @@
         <v>956946.2952673304</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4606,7 +4710,7 @@
         <v>972100.7750673303</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4672,7 +4776,7 @@
         <v>961366.8786673304</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4705,7 +4809,7 @@
         <v>961391.8786673304</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4738,7 +4842,7 @@
         <v>947854.0256673304</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4771,7 +4875,7 @@
         <v>859666.5790673303</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4804,7 +4908,7 @@
         <v>868179.3479673304</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4837,7 +4941,7 @@
         <v>859248.3604673303</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4870,7 +4974,7 @@
         <v>879553.5542673303</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4903,7 +5007,7 @@
         <v>900008.4402673303</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4936,7 +5040,7 @@
         <v>900037.3636673302</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4969,7 +5073,7 @@
         <v>900013.3636673302</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5035,7 +5139,7 @@
         <v>900102.3636673302</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5068,7 +5172,7 @@
         <v>826820.8721673302</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5101,7 +5205,7 @@
         <v>826820.8721673302</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5134,7 +5238,7 @@
         <v>806365.9861673303</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5167,7 +5271,7 @@
         <v>814579.2276673303</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5200,7 +5304,7 @@
         <v>814604.2276673303</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5233,7 +5337,7 @@
         <v>804629.5124673303</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5365,7 +5469,7 @@
         <v>709437.6025673302</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5398,7 +5502,7 @@
         <v>717809.6479673302</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5431,7 +5535,7 @@
         <v>715781.6933673301</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5464,7 +5568,7 @@
         <v>700789.2381673302</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5530,7 +5634,7 @@
         <v>700789.2381673302</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5563,7 +5667,7 @@
         <v>700839.2381673302</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5596,7 +5700,7 @@
         <v>644992.8887673302</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5629,7 +5733,7 @@
         <v>622822.8887673302</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5662,7 +5766,7 @@
         <v>622847.8887673302</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5728,7 +5832,7 @@
         <v>567847.8887673302</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5761,7 +5865,7 @@
         <v>567847.8887673302</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5860,7 +5964,7 @@
         <v>517009.7256673302</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5893,7 +5997,7 @@
         <v>517009.7256673302</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5926,7 +6030,7 @@
         <v>517034.7256673302</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5959,7 +6063,7 @@
         <v>505688.7746673302</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5992,7 +6096,7 @@
         <v>505713.7746673302</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6025,7 +6129,7 @@
         <v>505738.7746673302</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6850,7 +6954,7 @@
         <v>549179.2597274302</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6883,7 +6987,7 @@
         <v>549179.2597274302</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7180,7 +7284,7 @@
         <v>730441.7788274302</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7279,7 +7383,7 @@
         <v>730472.5788274303</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8005,7 +8109,7 @@
         <v>906546.7373731302</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8038,7 +8142,7 @@
         <v>918746.7373731302</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8071,7 +8175,7 @@
         <v>917874.4123731302</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8104,7 +8208,7 @@
         <v>918642.9176731302</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8137,7 +8241,7 @@
         <v>918642.9176731302</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8170,7 +8274,7 @@
         <v>918642.9176731302</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8269,7 +8373,7 @@
         <v>888113.0994731302</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8302,7 +8406,7 @@
         <v>728304.0113731301</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8335,7 +8439,7 @@
         <v>728329.0113731301</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8368,7 +8472,7 @@
         <v>712602.6319731302</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8434,7 +8538,7 @@
         <v>503332.2581987202</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8731,7 +8835,7 @@
         <v>361026.8439987201</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8764,7 +8868,7 @@
         <v>348210.7816987201</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8797,7 +8901,7 @@
         <v>348210.7816987201</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8830,7 +8934,7 @@
         <v>348322.0246987201</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8863,7 +8967,7 @@
         <v>355331.0743987201</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8896,7 +9000,7 @@
         <v>384429.9641987201</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8929,7 +9033,7 @@
         <v>384429.9641987201</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8962,7 +9066,7 @@
         <v>377246.4681987201</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8995,7 +9099,7 @@
         <v>377246.4681987201</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9028,7 +9132,7 @@
         <v>377246.4681987201</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9061,7 +9165,7 @@
         <v>377246.4681987201</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9127,7 +9231,7 @@
         <v>377246.4681987201</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9160,7 +9264,7 @@
         <v>377416.6253987201</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9193,7 +9297,7 @@
         <v>385831.4457987202</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9226,7 +9330,7 @@
         <v>386684.9662987202</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9259,7 +9363,7 @@
         <v>386525.7075987202</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9292,7 +9396,7 @@
         <v>391725.7075987202</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9325,7 +9429,7 @@
         <v>182065.4753987202</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9358,7 +9462,7 @@
         <v>182241.2459060602</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9424,7 +9528,7 @@
         <v>133452.9806060602</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10612,11 +10716,17 @@
         <v>-138260.9197939399</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>20.5</v>
+      </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10649,7 +10759,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10678,11 +10792,17 @@
         <v>-119914.4402939399</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>20.6</v>
+      </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10711,11 +10831,17 @@
         <v>-119914.4402939399</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>20.5</v>
+      </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10744,11 +10870,17 @@
         <v>-125977.1614939399</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>20.5</v>
+      </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10777,11 +10909,17 @@
         <v>-117836.4368939399</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>20.49</v>
+      </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10810,11 +10948,17 @@
         <v>-138386.5061939399</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>20.5</v>
+      </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10843,11 +10987,17 @@
         <v>-133186.5061939399</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>20.4</v>
+      </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10876,11 +11026,17 @@
         <v>-118986.5061939399</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>20.48</v>
+      </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10913,7 +11069,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10946,7 +11106,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10979,7 +11143,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11012,7 +11180,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11045,7 +11217,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11078,7 +11254,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11111,13 +11291,17 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
       <c r="M316" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest WAXP.xlsx
+++ b/BackTest/2020-01-14 BackTest WAXP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="J3" t="n">
-        <v>20.39</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="J4" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="J5" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -640,11 +620,9 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>20.39</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>20.39</v>
       </c>
@@ -722,142 +700,116 @@
         <v>253946.2718146601</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>20.38</v>
-      </c>
-      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
         <v>20.39</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="C10" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12038</v>
+      </c>
+      <c r="G10" t="n">
+        <v>253946.2718146601</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>80096.65778533999</v>
+      </c>
+      <c r="G11" t="n">
+        <v>334042.9296</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="E12" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>46596.5017</v>
+      </c>
+      <c r="G12" t="n">
+        <v>380639.4313000001</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="C10" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="D10" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="E10" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="F10" t="n">
-        <v>12038</v>
-      </c>
-      <c r="G10" t="n">
-        <v>253946.2718146601</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="J10" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D11" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E11" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>80096.65778533999</v>
-      </c>
-      <c r="G11" t="n">
-        <v>334042.9296</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="J11" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C12" t="n">
-        <v>20.49</v>
-      </c>
-      <c r="D12" t="n">
-        <v>20.49</v>
-      </c>
-      <c r="E12" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>46596.5017</v>
-      </c>
-      <c r="G12" t="n">
-        <v>380639.4313000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -891,9 +843,7 @@
       <c r="I13" t="n">
         <v>20.49</v>
       </c>
-      <c r="J13" t="n">
-        <v>20.39</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -927,14 +877,10 @@
         <v>380639.4313000001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>20.49</v>
-      </c>
-      <c r="J14" t="n">
-        <v>20.39</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -968,14 +914,10 @@
         <v>380639.4313000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>20.49</v>
-      </c>
-      <c r="J15" t="n">
-        <v>20.39</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1014,9 +956,7 @@
       <c r="I16" t="n">
         <v>20.49</v>
       </c>
-      <c r="J16" t="n">
-        <v>20.39</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1050,14 +990,10 @@
         <v>379539.4313000001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>20.49</v>
-      </c>
-      <c r="J17" t="n">
-        <v>20.39</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1096,9 +1032,7 @@
       <c r="I18" t="n">
         <v>20.2</v>
       </c>
-      <c r="J18" t="n">
-        <v>20.39</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1132,14 +1066,10 @@
         <v>439238.4898</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>20.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1173,12 +1103,10 @@
         <v>439238.4898</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>20.39</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1212,14 +1140,10 @@
         <v>483573.5098000001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>20.49</v>
-      </c>
-      <c r="J21" t="n">
-        <v>20.39</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1253,14 +1177,10 @@
         <v>473782.1594000001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>20.58</v>
-      </c>
-      <c r="J22" t="n">
-        <v>20.39</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1294,22 +1214,16 @@
         <v>473782.1594000001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>20.39</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1335,19 +1249,11 @@
         <v>473782.1594000001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1376,19 +1282,11 @@
         <v>722506.3501</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1417,17 +1315,11 @@
         <v>734622.3501</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1456,17 +1348,11 @@
         <v>614543.3501</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1495,17 +1381,11 @@
         <v>704016.9785000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1534,17 +1414,11 @@
         <v>704016.9785000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1573,17 +1447,11 @@
         <v>704016.9785000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1612,17 +1480,11 @@
         <v>714016.9785000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1651,17 +1513,11 @@
         <v>713133.6436000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1690,17 +1546,11 @@
         <v>412138.2257927501</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1729,17 +1579,11 @@
         <v>416138.2257927501</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1768,17 +1612,11 @@
         <v>412138.2257927501</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1807,17 +1645,11 @@
         <v>413257.2571927501</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1846,17 +1678,11 @@
         <v>572868.5464671701</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1885,17 +1711,11 @@
         <v>572868.5464671701</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1924,17 +1744,11 @@
         <v>855839.1308927501</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1963,17 +1777,11 @@
         <v>855839.1308927501</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2002,17 +1810,11 @@
         <v>882422.9568927501</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2041,17 +1843,11 @@
         <v>881422.9568927501</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2080,17 +1876,11 @@
         <v>937563.0060927501</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2119,17 +1909,11 @@
         <v>937563.0060927501</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2158,17 +1942,11 @@
         <v>877867.7116002601</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2197,17 +1975,11 @@
         <v>878140.2821002601</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2236,17 +2008,11 @@
         <v>878140.2821002601</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2275,17 +2041,11 @@
         <v>892041.7619002601</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2317,14 +2077,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2356,14 +2110,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2395,14 +2143,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2434,14 +2176,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2473,14 +2209,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2512,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2551,14 +2275,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2590,14 +2308,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2629,14 +2341,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2668,14 +2374,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2707,14 +2407,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2746,14 +2440,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2785,14 +2473,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2821,23 +2503,15 @@
         <v>1260329.54597323</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>1.069055909759686</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1.000490677134446</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3027,7 +2701,7 @@
         <v>1173885.949567331</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3060,7 +2734,7 @@
         <v>1070672.776067331</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3093,7 +2767,7 @@
         <v>1070672.776067331</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3126,7 +2800,7 @@
         <v>1062311.776067331</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3159,7 +2833,7 @@
         <v>1062361.776067331</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3192,7 +2866,7 @@
         <v>1068468.36066733</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3225,7 +2899,7 @@
         <v>1068153.76876733</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3258,7 +2932,7 @@
         <v>1068178.76876733</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3291,7 +2965,7 @@
         <v>1012539.11246733</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3324,7 +2998,7 @@
         <v>1073136.85026733</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3357,7 +3031,7 @@
         <v>1016466.59906733</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3390,7 +3064,7 @@
         <v>1037290.04486733</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3423,7 +3097,7 @@
         <v>1031193.85096733</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3654,7 +3328,7 @@
         <v>1081535.77976733</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3687,7 +3361,7 @@
         <v>1082300.77976733</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3951,7 +3625,7 @@
         <v>1189936.70926733</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3984,7 +3658,7 @@
         <v>1182355.62486733</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4017,7 +3691,7 @@
         <v>1159446.82326733</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4050,7 +3724,7 @@
         <v>1159471.82326733</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4083,7 +3757,7 @@
         <v>1019471.82326733</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4116,7 +3790,7 @@
         <v>976481.5187673304</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4149,7 +3823,7 @@
         <v>1029226.29326733</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4182,7 +3856,7 @@
         <v>1029226.29326733</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4215,7 +3889,7 @@
         <v>1029226.29326733</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4248,7 +3922,7 @@
         <v>1029226.29326733</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4281,7 +3955,7 @@
         <v>1026901.79296733</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4314,7 +3988,7 @@
         <v>1026808.47526733</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4347,7 +4021,7 @@
         <v>1026833.47526733</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4380,7 +4054,7 @@
         <v>1005595.33836733</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4413,7 +4087,7 @@
         <v>1009149.92296733</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4446,7 +4120,7 @@
         <v>1009174.92296733</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4479,7 +4153,7 @@
         <v>972103.0254673304</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4512,7 +4186,7 @@
         <v>908062.9576673304</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4545,7 +4219,7 @@
         <v>908062.9576673304</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4578,7 +4252,7 @@
         <v>914062.9576673304</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4611,7 +4285,7 @@
         <v>939946.2952673304</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4677,7 +4351,7 @@
         <v>956946.2952673304</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4776,7 +4450,7 @@
         <v>961366.8786673304</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4809,7 +4483,7 @@
         <v>961391.8786673304</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4842,7 +4516,7 @@
         <v>947854.0256673304</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4875,7 +4549,7 @@
         <v>859666.5790673303</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4908,7 +4582,7 @@
         <v>868179.3479673304</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4941,7 +4615,7 @@
         <v>859248.3604673303</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4974,7 +4648,7 @@
         <v>879553.5542673303</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5007,7 +4681,7 @@
         <v>900008.4402673303</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5073,7 +4747,7 @@
         <v>900013.3636673302</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5139,7 +4813,7 @@
         <v>900102.3636673302</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5172,7 +4846,7 @@
         <v>826820.8721673302</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5205,7 +4879,7 @@
         <v>826820.8721673302</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5238,7 +4912,7 @@
         <v>806365.9861673303</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5271,7 +4945,7 @@
         <v>814579.2276673303</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5304,7 +4978,7 @@
         <v>814604.2276673303</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5337,7 +5011,7 @@
         <v>804629.5124673303</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5469,7 +5143,7 @@
         <v>709437.6025673302</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5502,7 +5176,7 @@
         <v>717809.6479673302</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5535,7 +5209,7 @@
         <v>715781.6933673301</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5568,7 +5242,7 @@
         <v>700789.2381673302</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5634,7 +5308,7 @@
         <v>700789.2381673302</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -8109,7 +7783,7 @@
         <v>906546.7373731302</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8142,7 +7816,7 @@
         <v>918746.7373731302</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8175,7 +7849,7 @@
         <v>917874.4123731302</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8208,7 +7882,7 @@
         <v>918642.9176731302</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8241,7 +7915,7 @@
         <v>918642.9176731302</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8274,7 +7948,7 @@
         <v>918642.9176731302</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8373,7 +8047,7 @@
         <v>888113.0994731302</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8406,7 +8080,7 @@
         <v>728304.0113731301</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8439,7 +8113,7 @@
         <v>728329.0113731301</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8472,7 +8146,7 @@
         <v>712602.6319731302</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8538,7 +8212,7 @@
         <v>503332.2581987202</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -10485,7 +10159,7 @@
         <v>-170162.9722939399</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10716,17 +10390,11 @@
         <v>-138260.9197939399</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>20.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10755,15 +10423,11 @@
         <v>-119060.9197939399</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10792,17 +10456,11 @@
         <v>-119914.4402939399</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>20.6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10831,17 +10489,11 @@
         <v>-119914.4402939399</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>20.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10870,17 +10522,11 @@
         <v>-125977.1614939399</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>20.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10909,17 +10555,11 @@
         <v>-117836.4368939399</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>20.49</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10948,17 +10588,11 @@
         <v>-138386.5061939399</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>20.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10992,12 +10626,10 @@
       <c r="I308" t="n">
         <v>20.4</v>
       </c>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11031,10 +10663,12 @@
       <c r="I309" t="n">
         <v>20.48</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>20.4</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L309" t="n">
@@ -11068,10 +10702,12 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>20.4</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L310" t="n">
@@ -11106,11 +10742,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11143,11 +10775,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11176,15 +10804,15 @@
         <v>-11577.72875810989</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="J313" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11213,13 +10841,15 @@
         <v>-11577.72875810989</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>20.83</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L314" t="n">
@@ -11253,10 +10883,12 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>20.83</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L315" t="n">
@@ -11291,17 +10923,13 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
       <c r="M316" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest WAXP.xlsx
+++ b/BackTest/2020-01-14 BackTest WAXP.xlsx
@@ -484,10 +484,14 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="J3" t="n">
+        <v>20.39</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="J4" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="J5" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -620,9 +640,11 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>20.39</v>
+      </c>
       <c r="J7" t="n">
         <v>20.39</v>
       </c>
@@ -700,11 +722,19 @@
         <v>253946.2718146601</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="J9" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -733,11 +763,19 @@
         <v>253946.2718146601</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="J10" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -766,11 +804,19 @@
         <v>334042.9296</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="J11" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -804,10 +850,12 @@
       <c r="I12" t="n">
         <v>20.4</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>20.39</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -843,7 +891,9 @@
       <c r="I13" t="n">
         <v>20.49</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>20.39</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -877,10 +927,12 @@
         <v>380639.4313000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>20.39</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -914,10 +966,12 @@
         <v>380639.4313000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>20.39</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -951,12 +1005,12 @@
         <v>380639.4313000001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>20.49</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>20.39</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -990,10 +1044,12 @@
         <v>379539.4313000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>20.39</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1027,12 +1083,12 @@
         <v>380669.4313000001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>20.39</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1069,7 +1125,9 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>20.39</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1103,10 +1161,12 @@
         <v>439238.4898</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>20.39</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1140,10 +1200,12 @@
         <v>483573.5098000001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>20.39</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1177,10 +1239,12 @@
         <v>473782.1594000001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>20.39</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1214,1172 +1278,1388 @@
         <v>473782.1594000001</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>50</v>
+      </c>
+      <c r="G24" t="n">
+        <v>473782.1594000001</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D25" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E25" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>248724.1907</v>
+      </c>
+      <c r="G25" t="n">
+        <v>722506.3501</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C26" t="n">
+        <v>20.69</v>
+      </c>
+      <c r="D26" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E26" t="n">
+        <v>20.69</v>
+      </c>
+      <c r="F26" t="n">
+        <v>12116</v>
+      </c>
+      <c r="G26" t="n">
+        <v>734622.3501</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C27" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D27" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="E27" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F27" t="n">
+        <v>120079</v>
+      </c>
+      <c r="G27" t="n">
+        <v>614543.3501</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C28" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D28" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E28" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>89473.6284</v>
+      </c>
+      <c r="G28" t="n">
+        <v>704016.9785000001</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C29" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D29" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E29" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>20121.1407</v>
+      </c>
+      <c r="G29" t="n">
+        <v>704016.9785000001</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D30" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8861.2096</v>
+      </c>
+      <c r="G30" t="n">
+        <v>704016.9785000001</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C31" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F31" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>714016.9785000001</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="C32" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="D32" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="E32" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="F32" t="n">
+        <v>883.3348999999999</v>
+      </c>
+      <c r="G32" t="n">
+        <v>713133.6436000001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C33" t="n">
+        <v>20.72</v>
+      </c>
+      <c r="D33" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>20.71</v>
+      </c>
+      <c r="F33" t="n">
+        <v>300995.41780725</v>
+      </c>
+      <c r="G33" t="n">
+        <v>412138.2257927501</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D34" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E34" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>416138.2257927501</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20.72</v>
+      </c>
+      <c r="C35" t="n">
+        <v>20.72</v>
+      </c>
+      <c r="D35" t="n">
+        <v>20.72</v>
+      </c>
+      <c r="E35" t="n">
+        <v>20.72</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>412138.2257927501</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20.87</v>
+      </c>
+      <c r="C36" t="n">
+        <v>20.91</v>
+      </c>
+      <c r="D36" t="n">
+        <v>20.91</v>
+      </c>
+      <c r="E36" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1119.0314</v>
+      </c>
+      <c r="G36" t="n">
+        <v>413257.2571927501</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="C37" t="n">
+        <v>21</v>
+      </c>
+      <c r="D37" t="n">
+        <v>21</v>
+      </c>
+      <c r="E37" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="F37" t="n">
+        <v>159611.28927442</v>
+      </c>
+      <c r="G37" t="n">
+        <v>572868.5464671701</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>21</v>
+      </c>
+      <c r="C38" t="n">
+        <v>21</v>
+      </c>
+      <c r="D38" t="n">
+        <v>21</v>
+      </c>
+      <c r="E38" t="n">
+        <v>21</v>
+      </c>
+      <c r="F38" t="n">
+        <v>36028.0864</v>
+      </c>
+      <c r="G38" t="n">
+        <v>572868.5464671701</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>21</v>
+      </c>
+      <c r="C39" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>21</v>
+      </c>
+      <c r="F39" t="n">
+        <v>282970.58442558</v>
+      </c>
+      <c r="G39" t="n">
+        <v>855839.1308927501</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>63617.666</v>
+      </c>
+      <c r="G40" t="n">
+        <v>855839.1308927501</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>26583.826</v>
+      </c>
+      <c r="G41" t="n">
+        <v>882422.9568927501</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>881422.9568927501</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="C43" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E43" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>56140.0492</v>
+      </c>
+      <c r="G43" t="n">
+        <v>937563.0060927501</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C44" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E44" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>75207.77160751</v>
+      </c>
+      <c r="G44" t="n">
+        <v>937563.0060927501</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C45" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E45" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>59695.29449249</v>
+      </c>
+      <c r="G45" t="n">
+        <v>877867.7116002601</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="C46" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="D46" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="E46" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="F46" t="n">
+        <v>272.5705</v>
+      </c>
+      <c r="G46" t="n">
+        <v>878140.2821002601</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="C47" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="D47" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="E47" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="F47" t="n">
+        <v>29.8248</v>
+      </c>
+      <c r="G47" t="n">
+        <v>878140.2821002601</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="C48" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="D48" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="E48" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="F48" t="n">
+        <v>13901.4798</v>
+      </c>
+      <c r="G48" t="n">
+        <v>892041.7619002601</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="C49" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="D49" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="E49" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="F49" t="n">
+        <v>41630.8027</v>
+      </c>
+      <c r="G49" t="n">
+        <v>850410.9592002601</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="C50" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="D50" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="E50" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3743.8184</v>
+      </c>
+      <c r="G50" t="n">
+        <v>850410.9592002601</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="C51" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="D51" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="E51" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="F51" t="n">
+        <v>25</v>
+      </c>
+      <c r="G51" t="n">
+        <v>850410.9592002601</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="C52" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="D52" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="F52" t="n">
+        <v>451962.56087297</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1302373.52007323</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="C53" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="D53" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="E53" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="F53" t="n">
+        <v>15778.0575</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1318151.57757323</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="C54" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="D54" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="E54" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>98251.9396</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1219899.63797323</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="C55" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="D55" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="E55" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="F55" t="n">
+        <v>300923.1957</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1520822.83367323</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="C56" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="D56" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="E56" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F56" t="n">
+        <v>155794.6997</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1676617.53337323</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C57" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="D57" t="n">
+        <v>22</v>
+      </c>
+      <c r="E57" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="F57" t="n">
+        <v>72918.2743</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1749535.80767323</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="C58" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="D58" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="E58" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="F58" t="n">
+        <v>17537.0761</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1749535.80767323</v>
+      </c>
+      <c r="H58" t="n">
         <v>2</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C24" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E24" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F24" t="n">
-        <v>50</v>
-      </c>
-      <c r="G24" t="n">
-        <v>473782.1594000001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C25" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D25" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E25" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F25" t="n">
-        <v>248724.1907</v>
-      </c>
-      <c r="G25" t="n">
-        <v>722506.3501</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C26" t="n">
-        <v>20.69</v>
-      </c>
-      <c r="D26" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E26" t="n">
-        <v>20.69</v>
-      </c>
-      <c r="F26" t="n">
-        <v>12116</v>
-      </c>
-      <c r="G26" t="n">
-        <v>734622.3501</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="C27" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D27" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="E27" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F27" t="n">
-        <v>120079</v>
-      </c>
-      <c r="G27" t="n">
-        <v>614543.3501</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C28" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D28" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E28" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F28" t="n">
-        <v>89473.6284</v>
-      </c>
-      <c r="G28" t="n">
-        <v>704016.9785000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C29" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D29" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E29" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F29" t="n">
-        <v>20121.1407</v>
-      </c>
-      <c r="G29" t="n">
-        <v>704016.9785000001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="C30" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D30" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="E30" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F30" t="n">
-        <v>8861.2096</v>
-      </c>
-      <c r="G30" t="n">
-        <v>704016.9785000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="C31" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="D31" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="E31" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="F31" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G31" t="n">
-        <v>714016.9785000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>20.89</v>
-      </c>
-      <c r="C32" t="n">
-        <v>20.89</v>
-      </c>
-      <c r="D32" t="n">
-        <v>20.89</v>
-      </c>
-      <c r="E32" t="n">
-        <v>20.89</v>
-      </c>
-      <c r="F32" t="n">
-        <v>883.3348999999999</v>
-      </c>
-      <c r="G32" t="n">
-        <v>713133.6436000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C33" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="D33" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="E33" t="n">
-        <v>20.71</v>
-      </c>
-      <c r="F33" t="n">
-        <v>300995.41780725</v>
-      </c>
-      <c r="G33" t="n">
-        <v>412138.2257927501</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="C34" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="D34" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="E34" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="F34" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G34" t="n">
-        <v>416138.2257927501</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="C35" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="D35" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="E35" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="F35" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G35" t="n">
-        <v>412138.2257927501</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>20.87</v>
-      </c>
-      <c r="C36" t="n">
-        <v>20.91</v>
-      </c>
-      <c r="D36" t="n">
-        <v>20.91</v>
-      </c>
-      <c r="E36" t="n">
-        <v>20.83</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1119.0314</v>
-      </c>
-      <c r="G36" t="n">
-        <v>413257.2571927501</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="C37" t="n">
-        <v>21</v>
-      </c>
-      <c r="D37" t="n">
-        <v>21</v>
-      </c>
-      <c r="E37" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="F37" t="n">
-        <v>159611.28927442</v>
-      </c>
-      <c r="G37" t="n">
-        <v>572868.5464671701</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>21</v>
-      </c>
-      <c r="C38" t="n">
-        <v>21</v>
-      </c>
-      <c r="D38" t="n">
-        <v>21</v>
-      </c>
-      <c r="E38" t="n">
-        <v>21</v>
-      </c>
-      <c r="F38" t="n">
-        <v>36028.0864</v>
-      </c>
-      <c r="G38" t="n">
-        <v>572868.5464671701</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>21</v>
-      </c>
-      <c r="C39" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="D39" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="E39" t="n">
-        <v>21</v>
-      </c>
-      <c r="F39" t="n">
-        <v>282970.58442558</v>
-      </c>
-      <c r="G39" t="n">
-        <v>855839.1308927501</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="C40" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="E40" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="F40" t="n">
-        <v>63617.666</v>
-      </c>
-      <c r="G40" t="n">
-        <v>855839.1308927501</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="C41" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D41" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="E41" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F41" t="n">
-        <v>26583.826</v>
-      </c>
-      <c r="G41" t="n">
-        <v>882422.9568927501</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="C42" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="D42" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="E42" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G42" t="n">
-        <v>881422.9568927501</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>21.25</v>
-      </c>
-      <c r="C43" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D43" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E43" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="F43" t="n">
-        <v>56140.0492</v>
-      </c>
-      <c r="G43" t="n">
-        <v>937563.0060927501</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C44" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D44" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E44" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F44" t="n">
-        <v>75207.77160751</v>
-      </c>
-      <c r="G44" t="n">
-        <v>937563.0060927501</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C45" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="D45" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E45" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="F45" t="n">
-        <v>59695.29449249</v>
-      </c>
-      <c r="G45" t="n">
-        <v>877867.7116002601</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="C46" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="D46" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="E46" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="F46" t="n">
-        <v>272.5705</v>
-      </c>
-      <c r="G46" t="n">
-        <v>878140.2821002601</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="C47" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="D47" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="E47" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="F47" t="n">
-        <v>29.8248</v>
-      </c>
-      <c r="G47" t="n">
-        <v>878140.2821002601</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="C48" t="n">
-        <v>21.46</v>
-      </c>
-      <c r="D48" t="n">
-        <v>21.46</v>
-      </c>
-      <c r="E48" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="F48" t="n">
-        <v>13901.4798</v>
-      </c>
-      <c r="G48" t="n">
-        <v>892041.7619002601</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>21.46</v>
-      </c>
-      <c r="C49" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="D49" t="n">
-        <v>21.46</v>
-      </c>
-      <c r="E49" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="F49" t="n">
-        <v>41630.8027</v>
-      </c>
-      <c r="G49" t="n">
-        <v>850410.9592002601</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="C50" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="D50" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="E50" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="F50" t="n">
-        <v>3743.8184</v>
-      </c>
-      <c r="G50" t="n">
-        <v>850410.9592002601</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="C51" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="D51" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="E51" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="F51" t="n">
-        <v>25</v>
-      </c>
-      <c r="G51" t="n">
-        <v>850410.9592002601</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="C52" t="n">
-        <v>21.47</v>
-      </c>
-      <c r="D52" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E52" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="F52" t="n">
-        <v>451962.56087297</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1302373.52007323</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>21.47</v>
-      </c>
-      <c r="C53" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="D53" t="n">
-        <v>21.68</v>
-      </c>
-      <c r="E53" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="F53" t="n">
-        <v>15778.0575</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1318151.57757323</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>21.62</v>
-      </c>
-      <c r="C54" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="D54" t="n">
-        <v>21.71</v>
-      </c>
-      <c r="E54" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F54" t="n">
-        <v>98251.9396</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1219899.63797323</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>21.71</v>
-      </c>
-      <c r="C55" t="n">
-        <v>21.71</v>
-      </c>
-      <c r="D55" t="n">
-        <v>21.71</v>
-      </c>
-      <c r="E55" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="F55" t="n">
-        <v>300923.1957</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1520822.83367323</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>21.71</v>
-      </c>
-      <c r="C56" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="D56" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="E56" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F56" t="n">
-        <v>155794.6997</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1676617.53337323</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="C57" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="D57" t="n">
-        <v>22</v>
-      </c>
-      <c r="E57" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F57" t="n">
-        <v>72918.2743</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1749535.80767323</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="C58" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="D58" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="E58" t="n">
-        <v>21.98</v>
-      </c>
-      <c r="F58" t="n">
-        <v>17537.0761</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1749535.80767323</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>1.073469838155959</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.000490677134446</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2404,7 +2684,7 @@
         <v>1380053.19227323</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2437,7 +2717,7 @@
         <v>1227907.91797323</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2470,7 +2750,7 @@
         <v>1236421.32677323</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2503,7 +2783,7 @@
         <v>1260329.54597323</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2536,7 +2816,7 @@
         <v>1214649.76716733</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2569,7 +2849,7 @@
         <v>1161662.89656733</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2635,7 +2915,7 @@
         <v>1173885.949567331</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2668,7 +2948,7 @@
         <v>1173885.949567331</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2899,7 +3179,7 @@
         <v>1068153.76876733</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3097,7 +3377,7 @@
         <v>1031193.85096733</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3130,7 +3410,7 @@
         <v>969997.5303673302</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3163,7 +3443,7 @@
         <v>993667.6276673302</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3196,7 +3476,7 @@
         <v>1051460.49426733</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3229,7 +3509,7 @@
         <v>1085654.77976733</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3262,7 +3542,7 @@
         <v>1085654.77976733</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3328,7 +3608,7 @@
         <v>1081535.77976733</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3427,7 +3707,7 @@
         <v>1049822.77976733</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -10159,7 +10439,7 @@
         <v>-170162.9722939399</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10423,7 +10703,7 @@
         <v>-119060.9197939399</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10456,7 +10736,7 @@
         <v>-119914.4402939399</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10489,7 +10769,7 @@
         <v>-119914.4402939399</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10555,7 +10835,7 @@
         <v>-117836.4368939399</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10621,14 +10901,10 @@
         <v>-133186.5061939399</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J308" t="n">
-        <v>20.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
@@ -10658,19 +10934,11 @@
         <v>-118986.5061939399</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>20.48</v>
-      </c>
-      <c r="J309" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10702,14 +10970,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10804,14 +11066,10 @@
         <v>-11577.72875810989</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>20.83</v>
-      </c>
-      <c r="J313" t="n">
-        <v>20.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
@@ -10841,17 +11099,11 @@
         <v>-11577.72875810989</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>20.83</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10883,14 +11135,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>20.83</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-14 BackTest WAXP.xlsx
+++ b/BackTest/2020-01-14 BackTest WAXP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M316"/>
+  <dimension ref="A1:L316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>4000</v>
       </c>
       <c r="G2" t="n">
-        <v>192133.3376000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>13200</v>
       </c>
       <c r="G3" t="n">
-        <v>192133.3376000001</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>20.39</v>
       </c>
       <c r="I3" t="n">
         <v>20.39</v>
       </c>
-      <c r="J3" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>110</v>
       </c>
       <c r="G4" t="n">
-        <v>192133.3376000001</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>20.39</v>
       </c>
       <c r="I4" t="n">
         <v>20.39</v>
       </c>
-      <c r="J4" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>41798.3775</v>
       </c>
       <c r="G5" t="n">
-        <v>192133.3376000001</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>20.39</v>
       </c>
       <c r="I5" t="n">
         <v>20.39</v>
       </c>
-      <c r="J5" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +583,19 @@
         <v>25</v>
       </c>
       <c r="G6" t="n">
-        <v>192133.3376000001</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>20.39</v>
       </c>
       <c r="I6" t="n">
         <v>20.39</v>
       </c>
-      <c r="J6" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +617,23 @@
         <v>1039</v>
       </c>
       <c r="G7" t="n">
-        <v>192133.3376000001</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>20.39</v>
       </c>
       <c r="I7" t="n">
         <v>20.39</v>
       </c>
-      <c r="J7" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,26 +655,23 @@
         <v>13200</v>
       </c>
       <c r="G8" t="n">
-        <v>178933.3376000001</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>20.39</v>
       </c>
       <c r="I8" t="n">
         <v>20.39</v>
       </c>
-      <c r="J8" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,26 +693,23 @@
         <v>75012.93421466</v>
       </c>
       <c r="G9" t="n">
-        <v>253946.2718146601</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>20.38</v>
       </c>
       <c r="I9" t="n">
-        <v>20.38</v>
-      </c>
-      <c r="J9" t="n">
         <v>20.39</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -760,26 +731,23 @@
         <v>12038</v>
       </c>
       <c r="G10" t="n">
-        <v>253946.2718146601</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>20.39</v>
       </c>
       <c r="I10" t="n">
         <v>20.39</v>
       </c>
-      <c r="J10" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -801,26 +769,23 @@
         <v>80096.65778533999</v>
       </c>
       <c r="G11" t="n">
-        <v>334042.9296</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>20.39</v>
       </c>
       <c r="I11" t="n">
         <v>20.39</v>
       </c>
-      <c r="J11" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -842,26 +807,23 @@
         <v>46596.5017</v>
       </c>
       <c r="G12" t="n">
-        <v>380639.4313000001</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>20.4</v>
       </c>
       <c r="I12" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J12" t="n">
         <v>20.39</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -883,26 +845,23 @@
         <v>21327.8622</v>
       </c>
       <c r="G13" t="n">
-        <v>380639.4313000001</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>20.49</v>
       </c>
       <c r="I13" t="n">
-        <v>20.49</v>
-      </c>
-      <c r="J13" t="n">
         <v>20.39</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -924,24 +883,23 @@
         <v>32709.9235</v>
       </c>
       <c r="G14" t="n">
-        <v>380639.4313000001</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="I14" t="n">
         <v>20.39</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -963,24 +921,23 @@
         <v>976.0859</v>
       </c>
       <c r="G15" t="n">
-        <v>380639.4313000001</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="I15" t="n">
         <v>20.39</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1002,24 +959,23 @@
         <v>50</v>
       </c>
       <c r="G16" t="n">
-        <v>380639.4313000001</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="I16" t="n">
         <v>20.39</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1041,24 +997,23 @@
         <v>1100</v>
       </c>
       <c r="G17" t="n">
-        <v>379539.4313000001</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="I17" t="n">
         <v>20.39</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1080,24 +1035,23 @@
         <v>1130</v>
       </c>
       <c r="G18" t="n">
-        <v>380669.4313000001</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="I18" t="n">
         <v>20.39</v>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1119,24 +1073,21 @@
         <v>58569.0585</v>
       </c>
       <c r="G19" t="n">
-        <v>439238.4898</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
         <v>20.39</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1158,24 +1109,21 @@
         <v>4889.7058</v>
       </c>
       <c r="G20" t="n">
-        <v>439238.4898</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
         <v>20.39</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1197,24 +1145,21 @@
         <v>44335.02</v>
       </c>
       <c r="G21" t="n">
-        <v>483573.5098000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
         <v>20.39</v>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1236,24 +1181,21 @@
         <v>9791.350399999999</v>
       </c>
       <c r="G22" t="n">
-        <v>473782.1594000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
         <v>20.39</v>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1275,24 +1217,21 @@
         <v>20000</v>
       </c>
       <c r="G23" t="n">
-        <v>473782.1594000001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
         <v>20.39</v>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1314,24 +1253,21 @@
         <v>50</v>
       </c>
       <c r="G24" t="n">
-        <v>473782.1594000001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
         <v>20.39</v>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1353,24 +1289,21 @@
         <v>248724.1907</v>
       </c>
       <c r="G25" t="n">
-        <v>722506.3501</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
         <v>20.39</v>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1392,24 +1325,21 @@
         <v>12116</v>
       </c>
       <c r="G26" t="n">
-        <v>734622.3501</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
         <v>20.39</v>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1431,24 +1361,21 @@
         <v>120079</v>
       </c>
       <c r="G27" t="n">
-        <v>614543.3501</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
         <v>20.39</v>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1470,24 +1397,21 @@
         <v>89473.6284</v>
       </c>
       <c r="G28" t="n">
-        <v>704016.9785000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
         <v>20.39</v>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1509,24 +1433,21 @@
         <v>20121.1407</v>
       </c>
       <c r="G29" t="n">
-        <v>704016.9785000001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
         <v>20.39</v>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1548,24 +1469,21 @@
         <v>8861.2096</v>
       </c>
       <c r="G30" t="n">
-        <v>704016.9785000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
         <v>20.39</v>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1587,24 +1505,21 @@
         <v>10000</v>
       </c>
       <c r="G31" t="n">
-        <v>714016.9785000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
         <v>20.39</v>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1626,24 +1541,21 @@
         <v>883.3348999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>713133.6436000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
         <v>20.39</v>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1665,24 +1577,21 @@
         <v>300995.41780725</v>
       </c>
       <c r="G33" t="n">
-        <v>412138.2257927501</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
         <v>20.39</v>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1704,24 +1613,21 @@
         <v>4000</v>
       </c>
       <c r="G34" t="n">
-        <v>416138.2257927501</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
         <v>20.39</v>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1743,24 +1649,21 @@
         <v>4000</v>
       </c>
       <c r="G35" t="n">
-        <v>412138.2257927501</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
         <v>20.39</v>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1782,24 +1685,21 @@
         <v>1119.0314</v>
       </c>
       <c r="G36" t="n">
-        <v>413257.2571927501</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
         <v>20.39</v>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1821,24 +1721,21 @@
         <v>159611.28927442</v>
       </c>
       <c r="G37" t="n">
-        <v>572868.5464671701</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
         <v>20.39</v>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1860,24 +1757,21 @@
         <v>36028.0864</v>
       </c>
       <c r="G38" t="n">
-        <v>572868.5464671701</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
         <v>20.39</v>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1899,24 +1793,21 @@
         <v>282970.58442558</v>
       </c>
       <c r="G39" t="n">
-        <v>855839.1308927501</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
         <v>20.39</v>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1938,24 +1829,21 @@
         <v>63617.666</v>
       </c>
       <c r="G40" t="n">
-        <v>855839.1308927501</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
         <v>20.39</v>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1977,24 +1865,21 @@
         <v>26583.826</v>
       </c>
       <c r="G41" t="n">
-        <v>882422.9568927501</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
         <v>20.39</v>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2016,24 +1901,21 @@
         <v>1000</v>
       </c>
       <c r="G42" t="n">
-        <v>881422.9568927501</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
         <v>20.39</v>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2055,24 +1937,21 @@
         <v>56140.0492</v>
       </c>
       <c r="G43" t="n">
-        <v>937563.0060927501</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
         <v>20.39</v>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2094,24 +1973,21 @@
         <v>75207.77160751</v>
       </c>
       <c r="G44" t="n">
-        <v>937563.0060927501</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
         <v>20.39</v>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2133,24 +2009,21 @@
         <v>59695.29449249</v>
       </c>
       <c r="G45" t="n">
-        <v>877867.7116002601</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
         <v>20.39</v>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2172,24 +2045,21 @@
         <v>272.5705</v>
       </c>
       <c r="G46" t="n">
-        <v>878140.2821002601</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
         <v>20.39</v>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2211,24 +2081,21 @@
         <v>29.8248</v>
       </c>
       <c r="G47" t="n">
-        <v>878140.2821002601</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
         <v>20.39</v>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2250,24 +2117,21 @@
         <v>13901.4798</v>
       </c>
       <c r="G48" t="n">
-        <v>892041.7619002601</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
         <v>20.39</v>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2289,24 +2153,21 @@
         <v>41630.8027</v>
       </c>
       <c r="G49" t="n">
-        <v>850410.9592002601</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
         <v>20.39</v>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2328,24 +2189,21 @@
         <v>3743.8184</v>
       </c>
       <c r="G50" t="n">
-        <v>850410.9592002601</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
         <v>20.39</v>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2367,24 +2225,21 @@
         <v>25</v>
       </c>
       <c r="G51" t="n">
-        <v>850410.9592002601</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
         <v>20.39</v>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2406,24 +2261,21 @@
         <v>451962.56087297</v>
       </c>
       <c r="G52" t="n">
-        <v>1302373.52007323</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
         <v>20.39</v>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2445,24 +2297,21 @@
         <v>15778.0575</v>
       </c>
       <c r="G53" t="n">
-        <v>1318151.57757323</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
         <v>20.39</v>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2484,24 +2333,21 @@
         <v>98251.9396</v>
       </c>
       <c r="G54" t="n">
-        <v>1219899.63797323</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
         <v>20.39</v>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2523,24 +2369,21 @@
         <v>300923.1957</v>
       </c>
       <c r="G55" t="n">
-        <v>1520822.83367323</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
         <v>20.39</v>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2562,24 +2405,21 @@
         <v>155794.6997</v>
       </c>
       <c r="G56" t="n">
-        <v>1676617.53337323</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
         <v>20.39</v>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2601,24 +2441,21 @@
         <v>72918.2743</v>
       </c>
       <c r="G57" t="n">
-        <v>1749535.80767323</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
         <v>20.39</v>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2640,24 +2477,21 @@
         <v>17537.0761</v>
       </c>
       <c r="G58" t="n">
-        <v>1749535.80767323</v>
-      </c>
-      <c r="H58" t="n">
         <v>2</v>
       </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
         <v>20.39</v>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
+      <c r="K58" t="n">
+        <v>1.073469838155959</v>
+      </c>
       <c r="L58" t="n">
-        <v>1.073469838155959</v>
-      </c>
-      <c r="M58" t="n">
         <v>1.000490677134446</v>
       </c>
     </row>
@@ -2681,18 +2515,15 @@
         <v>369482.6154</v>
       </c>
       <c r="G59" t="n">
-        <v>1380053.19227323</v>
-      </c>
-      <c r="H59" t="n">
         <v>2</v>
       </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2714,18 +2545,15 @@
         <v>152145.2743</v>
       </c>
       <c r="G60" t="n">
-        <v>1227907.91797323</v>
-      </c>
-      <c r="H60" t="n">
         <v>2</v>
       </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2747,18 +2575,15 @@
         <v>8513.408799999999</v>
       </c>
       <c r="G61" t="n">
-        <v>1236421.32677323</v>
-      </c>
-      <c r="H61" t="n">
         <v>2</v>
       </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2780,18 +2605,15 @@
         <v>23908.2192</v>
       </c>
       <c r="G62" t="n">
-        <v>1260329.54597323</v>
-      </c>
-      <c r="H62" t="n">
         <v>2</v>
       </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2813,18 +2635,15 @@
         <v>45679.7788059</v>
       </c>
       <c r="G63" t="n">
-        <v>1214649.76716733</v>
-      </c>
-      <c r="H63" t="n">
         <v>2</v>
       </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2846,18 +2665,15 @@
         <v>52986.8706</v>
       </c>
       <c r="G64" t="n">
-        <v>1161662.89656733</v>
-      </c>
-      <c r="H64" t="n">
         <v>2</v>
       </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2879,18 +2695,15 @@
         <v>6000</v>
       </c>
       <c r="G65" t="n">
-        <v>1161662.89656733</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2912,18 +2725,15 @@
         <v>12223.053</v>
       </c>
       <c r="G66" t="n">
-        <v>1173885.949567331</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2945,18 +2755,15 @@
         <v>59712.5649</v>
       </c>
       <c r="G67" t="n">
-        <v>1173885.949567331</v>
-      </c>
-      <c r="H67" t="n">
         <v>2</v>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2978,18 +2785,15 @@
         <v>50</v>
       </c>
       <c r="G68" t="n">
-        <v>1173885.949567331</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3011,18 +2815,15 @@
         <v>103213.1735</v>
       </c>
       <c r="G69" t="n">
-        <v>1070672.776067331</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3044,18 +2845,15 @@
         <v>6600</v>
       </c>
       <c r="G70" t="n">
-        <v>1070672.776067331</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3077,18 +2875,15 @@
         <v>8361</v>
       </c>
       <c r="G71" t="n">
-        <v>1062311.776067331</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3110,18 +2905,15 @@
         <v>50</v>
       </c>
       <c r="G72" t="n">
-        <v>1062361.776067331</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3143,18 +2935,15 @@
         <v>6106.5846</v>
       </c>
       <c r="G73" t="n">
-        <v>1068468.36066733</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3176,18 +2965,15 @@
         <v>314.5919</v>
       </c>
       <c r="G74" t="n">
-        <v>1068153.76876733</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3209,18 +2995,15 @@
         <v>25</v>
       </c>
       <c r="G75" t="n">
-        <v>1068178.76876733</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3242,18 +3025,15 @@
         <v>55639.6563</v>
       </c>
       <c r="G76" t="n">
-        <v>1012539.11246733</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3275,18 +3055,15 @@
         <v>60597.7378</v>
       </c>
       <c r="G77" t="n">
-        <v>1073136.85026733</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3308,18 +3085,15 @@
         <v>56670.2512</v>
       </c>
       <c r="G78" t="n">
-        <v>1016466.59906733</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3341,18 +3115,15 @@
         <v>20823.4458</v>
       </c>
       <c r="G79" t="n">
-        <v>1037290.04486733</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3374,18 +3145,15 @@
         <v>6096.1939</v>
       </c>
       <c r="G80" t="n">
-        <v>1031193.85096733</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3407,18 +3175,15 @@
         <v>61196.3206</v>
       </c>
       <c r="G81" t="n">
-        <v>969997.5303673302</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3440,18 +3205,15 @@
         <v>23670.0973</v>
       </c>
       <c r="G82" t="n">
-        <v>993667.6276673302</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3473,18 +3235,15 @@
         <v>57792.8666</v>
       </c>
       <c r="G83" t="n">
-        <v>1051460.49426733</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3506,18 +3265,15 @@
         <v>34194.2855</v>
       </c>
       <c r="G84" t="n">
-        <v>1085654.77976733</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3539,18 +3295,15 @@
         <v>563.6068613800001</v>
       </c>
       <c r="G85" t="n">
-        <v>1085654.77976733</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3572,18 +3325,15 @@
         <v>45265.39313862</v>
       </c>
       <c r="G86" t="n">
-        <v>1085654.77976733</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3605,18 +3355,15 @@
         <v>4119</v>
       </c>
       <c r="G87" t="n">
-        <v>1081535.77976733</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3638,18 +3385,15 @@
         <v>765</v>
       </c>
       <c r="G88" t="n">
-        <v>1082300.77976733</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3671,18 +3415,15 @@
         <v>25</v>
       </c>
       <c r="G89" t="n">
-        <v>1082300.77976733</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3704,18 +3445,15 @@
         <v>32478</v>
       </c>
       <c r="G90" t="n">
-        <v>1049822.77976733</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3737,18 +3475,15 @@
         <v>34001.1362</v>
       </c>
       <c r="G91" t="n">
-        <v>1049822.77976733</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3770,18 +3505,15 @@
         <v>116664.7575</v>
       </c>
       <c r="G92" t="n">
-        <v>1166487.53726733</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3803,18 +3535,15 @@
         <v>0.889</v>
       </c>
       <c r="G93" t="n">
-        <v>1166486.64826733</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3836,18 +3565,15 @@
         <v>2517.9334</v>
       </c>
       <c r="G94" t="n">
-        <v>1163968.71486733</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3869,18 +3595,15 @@
         <v>35025</v>
       </c>
       <c r="G95" t="n">
-        <v>1198993.71486733</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3902,18 +3625,15 @@
         <v>9057.0056</v>
       </c>
       <c r="G96" t="n">
-        <v>1189936.70926733</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3935,18 +3655,15 @@
         <v>7581.0844</v>
       </c>
       <c r="G97" t="n">
-        <v>1182355.62486733</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3968,18 +3685,15 @@
         <v>22908.8016</v>
       </c>
       <c r="G98" t="n">
-        <v>1159446.82326733</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4001,18 +3715,15 @@
         <v>25</v>
       </c>
       <c r="G99" t="n">
-        <v>1159471.82326733</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4034,18 +3745,15 @@
         <v>140000</v>
       </c>
       <c r="G100" t="n">
-        <v>1019471.82326733</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4067,18 +3775,15 @@
         <v>42990.3045</v>
       </c>
       <c r="G101" t="n">
-        <v>976481.5187673304</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4100,18 +3805,15 @@
         <v>52744.7745</v>
       </c>
       <c r="G102" t="n">
-        <v>1029226.29326733</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4133,18 +3835,15 @@
         <v>25</v>
       </c>
       <c r="G103" t="n">
-        <v>1029226.29326733</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4166,18 +3865,15 @@
         <v>31265.3908</v>
       </c>
       <c r="G104" t="n">
-        <v>1029226.29326733</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4199,18 +3895,15 @@
         <v>1739.7533</v>
       </c>
       <c r="G105" t="n">
-        <v>1029226.29326733</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4232,18 +3925,15 @@
         <v>2324.5003</v>
       </c>
       <c r="G106" t="n">
-        <v>1026901.79296733</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4265,18 +3955,15 @@
         <v>93.3177</v>
       </c>
       <c r="G107" t="n">
-        <v>1026808.47526733</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4298,18 +3985,15 @@
         <v>25</v>
       </c>
       <c r="G108" t="n">
-        <v>1026833.47526733</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4331,18 +4015,15 @@
         <v>21238.1369</v>
       </c>
       <c r="G109" t="n">
-        <v>1005595.33836733</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4364,18 +4045,15 @@
         <v>3554.5846</v>
       </c>
       <c r="G110" t="n">
-        <v>1009149.92296733</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4397,18 +4075,15 @@
         <v>25</v>
       </c>
       <c r="G111" t="n">
-        <v>1009174.92296733</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4430,18 +4105,15 @@
         <v>37071.8975</v>
       </c>
       <c r="G112" t="n">
-        <v>972103.0254673304</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4463,18 +4135,15 @@
         <v>64040.0678</v>
       </c>
       <c r="G113" t="n">
-        <v>908062.9576673304</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4496,18 +4165,15 @@
         <v>12039.009</v>
       </c>
       <c r="G114" t="n">
-        <v>908062.9576673304</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4529,18 +4195,15 @@
         <v>6000</v>
       </c>
       <c r="G115" t="n">
-        <v>914062.9576673304</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,18 +4225,15 @@
         <v>25883.3376</v>
       </c>
       <c r="G116" t="n">
-        <v>939946.2952673304</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4595,18 +4255,15 @@
         <v>17000</v>
       </c>
       <c r="G117" t="n">
-        <v>956946.2952673304</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4628,18 +4285,15 @@
         <v>45896.0093</v>
       </c>
       <c r="G118" t="n">
-        <v>956946.2952673304</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4661,18 +4315,15 @@
         <v>15154.4798</v>
       </c>
       <c r="G119" t="n">
-        <v>972100.7750673303</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4694,18 +4345,15 @@
         <v>10270.2896</v>
       </c>
       <c r="G120" t="n">
-        <v>961830.4854673303</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4727,18 +4375,15 @@
         <v>463.6068</v>
       </c>
       <c r="G121" t="n">
-        <v>961366.8786673304</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4760,18 +4405,15 @@
         <v>25</v>
       </c>
       <c r="G122" t="n">
-        <v>961391.8786673304</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4793,18 +4435,15 @@
         <v>13537.853</v>
       </c>
       <c r="G123" t="n">
-        <v>947854.0256673304</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4826,18 +4465,15 @@
         <v>88187.4466</v>
       </c>
       <c r="G124" t="n">
-        <v>859666.5790673303</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4859,18 +4495,15 @@
         <v>8512.768899999999</v>
       </c>
       <c r="G125" t="n">
-        <v>868179.3479673304</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4892,18 +4525,15 @@
         <v>8930.987499999999</v>
       </c>
       <c r="G126" t="n">
-        <v>859248.3604673303</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4925,18 +4555,15 @@
         <v>20305.1938</v>
       </c>
       <c r="G127" t="n">
-        <v>879553.5542673303</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4958,18 +4585,15 @@
         <v>20454.886</v>
       </c>
       <c r="G128" t="n">
-        <v>900008.4402673303</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4991,18 +4615,15 @@
         <v>28.9234</v>
       </c>
       <c r="G129" t="n">
-        <v>900037.3636673302</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5024,18 +4645,15 @@
         <v>24</v>
       </c>
       <c r="G130" t="n">
-        <v>900013.3636673302</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5057,18 +4675,15 @@
         <v>28256.599</v>
       </c>
       <c r="G131" t="n">
-        <v>900013.3636673302</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5090,18 +4705,15 @@
         <v>89</v>
       </c>
       <c r="G132" t="n">
-        <v>900102.3636673302</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5123,18 +4735,15 @@
         <v>73281.4915</v>
       </c>
       <c r="G133" t="n">
-        <v>826820.8721673302</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5156,18 +4765,15 @@
         <v>37993.7274</v>
       </c>
       <c r="G134" t="n">
-        <v>826820.8721673302</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5189,18 +4795,15 @@
         <v>20454.886</v>
       </c>
       <c r="G135" t="n">
-        <v>806365.9861673303</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5222,18 +4825,15 @@
         <v>8213.2415</v>
       </c>
       <c r="G136" t="n">
-        <v>814579.2276673303</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5255,18 +4855,15 @@
         <v>25</v>
       </c>
       <c r="G137" t="n">
-        <v>814604.2276673303</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5288,18 +4885,15 @@
         <v>9974.715200000001</v>
       </c>
       <c r="G138" t="n">
-        <v>804629.5124673303</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5321,18 +4915,15 @@
         <v>601.1941</v>
       </c>
       <c r="G139" t="n">
-        <v>805230.7065673303</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5354,18 +4945,15 @@
         <v>95793.10400000001</v>
       </c>
       <c r="G140" t="n">
-        <v>709437.6025673302</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5387,18 +4975,15 @@
         <v>43129.282</v>
       </c>
       <c r="G141" t="n">
-        <v>709437.6025673302</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5420,18 +5005,15 @@
         <v>5894</v>
       </c>
       <c r="G142" t="n">
-        <v>709437.6025673302</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5453,18 +5035,15 @@
         <v>8372.045400000001</v>
       </c>
       <c r="G143" t="n">
-        <v>717809.6479673302</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5486,18 +5065,15 @@
         <v>2027.9546</v>
       </c>
       <c r="G144" t="n">
-        <v>715781.6933673301</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5519,18 +5095,15 @@
         <v>14992.4552</v>
       </c>
       <c r="G145" t="n">
-        <v>700789.2381673302</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5552,18 +5125,15 @@
         <v>67466.5465</v>
       </c>
       <c r="G146" t="n">
-        <v>700789.2381673302</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5585,18 +5155,15 @@
         <v>23151.2093</v>
       </c>
       <c r="G147" t="n">
-        <v>700789.2381673302</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5618,18 +5185,15 @@
         <v>50</v>
       </c>
       <c r="G148" t="n">
-        <v>700839.2381673302</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5651,18 +5215,15 @@
         <v>55846.3494</v>
       </c>
       <c r="G149" t="n">
-        <v>644992.8887673302</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5684,18 +5245,15 @@
         <v>22170</v>
       </c>
       <c r="G150" t="n">
-        <v>622822.8887673302</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5717,18 +5275,15 @@
         <v>25</v>
       </c>
       <c r="G151" t="n">
-        <v>622847.8887673302</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5750,18 +5305,15 @@
         <v>8000</v>
       </c>
       <c r="G152" t="n">
-        <v>614847.8887673302</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5783,18 +5335,15 @@
         <v>47000</v>
       </c>
       <c r="G153" t="n">
-        <v>567847.8887673302</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5816,18 +5365,15 @@
         <v>4000</v>
       </c>
       <c r="G154" t="n">
-        <v>567847.8887673302</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5849,18 +5395,15 @@
         <v>33837.9963</v>
       </c>
       <c r="G155" t="n">
-        <v>534009.8924673302</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5882,18 +5425,15 @@
         <v>17000.1668</v>
       </c>
       <c r="G156" t="n">
-        <v>517009.7256673302</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5915,18 +5455,15 @@
         <v>17310.8978</v>
       </c>
       <c r="G157" t="n">
-        <v>517009.7256673302</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5948,18 +5485,15 @@
         <v>5012.3555</v>
       </c>
       <c r="G158" t="n">
-        <v>517009.7256673302</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5981,18 +5515,15 @@
         <v>25</v>
       </c>
       <c r="G159" t="n">
-        <v>517034.7256673302</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6014,18 +5545,15 @@
         <v>11345.951</v>
       </c>
       <c r="G160" t="n">
-        <v>505688.7746673302</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6047,18 +5575,15 @@
         <v>25</v>
       </c>
       <c r="G161" t="n">
-        <v>505713.7746673302</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6080,18 +5605,15 @@
         <v>25</v>
       </c>
       <c r="G162" t="n">
-        <v>505738.7746673302</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6113,18 +5635,15 @@
         <v>21200</v>
       </c>
       <c r="G163" t="n">
-        <v>484538.7746673302</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6146,18 +5665,15 @@
         <v>25</v>
       </c>
       <c r="G164" t="n">
-        <v>484563.7746673302</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6179,18 +5695,15 @@
         <v>7795.2755</v>
       </c>
       <c r="G165" t="n">
-        <v>476768.4991673302</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6212,18 +5725,15 @@
         <v>745</v>
       </c>
       <c r="G166" t="n">
-        <v>477513.4991673302</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6245,18 +5755,15 @@
         <v>81306.224</v>
       </c>
       <c r="G167" t="n">
-        <v>396207.2751673302</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6278,18 +5785,15 @@
         <v>48413.805</v>
       </c>
       <c r="G168" t="n">
-        <v>444621.0801673302</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6311,18 +5815,15 @@
         <v>34594.514</v>
       </c>
       <c r="G169" t="n">
-        <v>479215.5941673302</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6344,18 +5845,15 @@
         <v>1000</v>
       </c>
       <c r="G170" t="n">
-        <v>478215.5941673302</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6377,18 +5875,15 @@
         <v>1396.8377</v>
       </c>
       <c r="G171" t="n">
-        <v>479612.4318673302</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6410,18 +5905,15 @@
         <v>5037.3555</v>
       </c>
       <c r="G172" t="n">
-        <v>484649.7873673302</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6443,18 +5935,15 @@
         <v>140.7774</v>
       </c>
       <c r="G173" t="n">
-        <v>484649.7873673302</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6476,18 +5965,15 @@
         <v>19658.9257</v>
       </c>
       <c r="G174" t="n">
-        <v>484649.7873673302</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6509,18 +5995,15 @@
         <v>3824.86110588</v>
       </c>
       <c r="G175" t="n">
-        <v>484649.7873673302</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6542,18 +6025,15 @@
         <v>10934.18929412</v>
       </c>
       <c r="G176" t="n">
-        <v>484649.7873673302</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6575,18 +6055,15 @@
         <v>1745.6255</v>
       </c>
       <c r="G177" t="n">
-        <v>484649.7873673302</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6608,18 +6085,15 @@
         <v>16733.8494</v>
       </c>
       <c r="G178" t="n">
-        <v>501383.6367673302</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6641,18 +6115,15 @@
         <v>25513.9664399</v>
       </c>
       <c r="G179" t="n">
-        <v>501383.6367673302</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6674,18 +6145,15 @@
         <v>15557.7748601</v>
       </c>
       <c r="G180" t="n">
-        <v>516941.4116274302</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6707,18 +6175,15 @@
         <v>11782.8937</v>
       </c>
       <c r="G181" t="n">
-        <v>516941.4116274302</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6740,18 +6205,15 @@
         <v>32328.9251</v>
       </c>
       <c r="G182" t="n">
-        <v>549270.3367274302</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6773,18 +6235,15 @@
         <v>467.5082</v>
       </c>
       <c r="G183" t="n">
-        <v>549270.3367274302</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6806,18 +6265,15 @@
         <v>176.6677</v>
       </c>
       <c r="G184" t="n">
-        <v>549093.6690274302</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6839,18 +6295,15 @@
         <v>85.5907</v>
       </c>
       <c r="G185" t="n">
-        <v>549179.2597274302</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6872,18 +6325,15 @@
         <v>9788.612499999999</v>
       </c>
       <c r="G186" t="n">
-        <v>549179.2597274302</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6905,18 +6355,15 @@
         <v>17458.9661</v>
       </c>
       <c r="G187" t="n">
-        <v>549179.2597274302</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6938,18 +6385,15 @@
         <v>5125.2154</v>
       </c>
       <c r="G188" t="n">
-        <v>549179.2597274302</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6971,18 +6415,15 @@
         <v>5255.7433</v>
       </c>
       <c r="G189" t="n">
-        <v>549179.2597274302</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7004,18 +6445,15 @@
         <v>20592.7958</v>
       </c>
       <c r="G190" t="n">
-        <v>528586.4639274302</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7037,18 +6475,15 @@
         <v>25</v>
       </c>
       <c r="G191" t="n">
-        <v>528611.4639274302</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7070,18 +6505,15 @@
         <v>5035</v>
       </c>
       <c r="G192" t="n">
-        <v>533646.4639274302</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7103,18 +6535,15 @@
         <v>49729.4807</v>
       </c>
       <c r="G193" t="n">
-        <v>583375.9446274302</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7136,18 +6565,15 @@
         <v>107832.8624</v>
       </c>
       <c r="G194" t="n">
-        <v>691208.8070274302</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7169,18 +6595,15 @@
         <v>26587.5532</v>
       </c>
       <c r="G195" t="n">
-        <v>664621.2538274302</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7202,18 +6625,15 @@
         <v>7017.4986</v>
       </c>
       <c r="G196" t="n">
-        <v>664621.2538274302</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7235,18 +6655,15 @@
         <v>65820.52499999999</v>
       </c>
       <c r="G197" t="n">
-        <v>730441.7788274302</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7268,18 +6685,15 @@
         <v>24.2</v>
       </c>
       <c r="G198" t="n">
-        <v>730417.5788274303</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7301,18 +6715,15 @@
         <v>55</v>
       </c>
       <c r="G199" t="n">
-        <v>730472.5788274303</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7334,18 +6745,15 @@
         <v>169.1374</v>
       </c>
       <c r="G200" t="n">
-        <v>730472.5788274303</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7367,18 +6775,15 @@
         <v>18000</v>
       </c>
       <c r="G201" t="n">
-        <v>712472.5788274303</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7400,18 +6805,15 @@
         <v>25</v>
       </c>
       <c r="G202" t="n">
-        <v>712497.5788274303</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7433,18 +6835,15 @@
         <v>438.1456</v>
       </c>
       <c r="G203" t="n">
-        <v>712497.5788274303</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7466,18 +6865,15 @@
         <v>20626.9599</v>
       </c>
       <c r="G204" t="n">
-        <v>691870.6189274302</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7499,18 +6895,15 @@
         <v>4787.8513</v>
       </c>
       <c r="G205" t="n">
-        <v>687082.7676274303</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7532,18 +6925,15 @@
         <v>35810.5711457</v>
       </c>
       <c r="G206" t="n">
-        <v>722893.3387731302</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7565,18 +6955,15 @@
         <v>1429.1758543</v>
       </c>
       <c r="G207" t="n">
-        <v>722893.3387731302</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7598,18 +6985,15 @@
         <v>160841.0598</v>
       </c>
       <c r="G208" t="n">
-        <v>883734.3985731301</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7631,18 +7015,15 @@
         <v>66302.9126</v>
       </c>
       <c r="G209" t="n">
-        <v>950037.3111731302</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7664,18 +7045,15 @@
         <v>32435.417</v>
       </c>
       <c r="G210" t="n">
-        <v>917601.8941731302</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7697,18 +7075,15 @@
         <v>12066.2488</v>
       </c>
       <c r="G211" t="n">
-        <v>917601.8941731302</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7730,18 +7105,15 @@
         <v>42834.2312</v>
       </c>
       <c r="G212" t="n">
-        <v>960436.1253731302</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7763,18 +7135,15 @@
         <v>94.66379999999999</v>
       </c>
       <c r="G213" t="n">
-        <v>960341.4615731302</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7796,18 +7165,15 @@
         <v>5919.3049</v>
       </c>
       <c r="G214" t="n">
-        <v>966260.7664731302</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7829,18 +7195,15 @@
         <v>9349.076499999999</v>
       </c>
       <c r="G215" t="n">
-        <v>975609.8429731302</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7862,18 +7225,15 @@
         <v>4207.0844</v>
       </c>
       <c r="G216" t="n">
-        <v>971402.7585731301</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7895,18 +7255,15 @@
         <v>1783.6863</v>
       </c>
       <c r="G217" t="n">
-        <v>971402.7585731301</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7928,18 +7285,15 @@
         <v>850.3185999999999</v>
       </c>
       <c r="G218" t="n">
-        <v>972253.0771731301</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7961,18 +7315,15 @@
         <v>19288.4188</v>
       </c>
       <c r="G219" t="n">
-        <v>952964.6583731301</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7994,18 +7345,15 @@
         <v>11345.951</v>
       </c>
       <c r="G220" t="n">
-        <v>941618.7073731301</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8027,18 +7375,15 @@
         <v>52043.3545</v>
       </c>
       <c r="G221" t="n">
-        <v>889575.3528731301</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8060,18 +7405,15 @@
         <v>16971.3845</v>
       </c>
       <c r="G222" t="n">
-        <v>906546.7373731302</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8093,18 +7435,15 @@
         <v>12200</v>
       </c>
       <c r="G223" t="n">
-        <v>918746.7373731302</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8126,18 +7465,15 @@
         <v>872.325</v>
       </c>
       <c r="G224" t="n">
-        <v>917874.4123731302</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8159,18 +7495,15 @@
         <v>768.5053</v>
       </c>
       <c r="G225" t="n">
-        <v>918642.9176731302</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8192,18 +7525,15 @@
         <v>36.7804</v>
       </c>
       <c r="G226" t="n">
-        <v>918642.9176731302</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8225,18 +7555,15 @@
         <v>5300</v>
       </c>
       <c r="G227" t="n">
-        <v>918642.9176731302</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8258,18 +7585,15 @@
         <v>18850.3722</v>
       </c>
       <c r="G228" t="n">
-        <v>899792.5454731302</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8291,18 +7615,15 @@
         <v>22012.3641</v>
       </c>
       <c r="G229" t="n">
-        <v>921804.9095731302</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8324,18 +7645,15 @@
         <v>33691.8101</v>
       </c>
       <c r="G230" t="n">
-        <v>888113.0994731302</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8357,18 +7675,15 @@
         <v>159809.0881</v>
       </c>
       <c r="G231" t="n">
-        <v>728304.0113731301</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8390,18 +7705,15 @@
         <v>25</v>
       </c>
       <c r="G232" t="n">
-        <v>728329.0113731301</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8423,18 +7735,15 @@
         <v>15726.3794</v>
       </c>
       <c r="G233" t="n">
-        <v>712602.6319731302</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8456,18 +7765,15 @@
         <v>229721.3423</v>
       </c>
       <c r="G234" t="n">
-        <v>482881.2896731301</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8489,18 +7795,15 @@
         <v>20450.96852559</v>
       </c>
       <c r="G235" t="n">
-        <v>503332.2581987202</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8522,18 +7825,15 @@
         <v>1675.0139</v>
       </c>
       <c r="G236" t="n">
-        <v>501657.2442987202</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8555,18 +7855,15 @@
         <v>15418.3541</v>
       </c>
       <c r="G237" t="n">
-        <v>486238.8901987202</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8588,18 +7885,15 @@
         <v>18325.359</v>
       </c>
       <c r="G238" t="n">
-        <v>486238.8901987202</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8621,18 +7915,15 @@
         <v>64403.5062</v>
       </c>
       <c r="G239" t="n">
-        <v>486238.8901987202</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8654,18 +7945,15 @@
         <v>20900</v>
       </c>
       <c r="G240" t="n">
-        <v>486238.8901987202</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8687,18 +7975,15 @@
         <v>96798.1875</v>
       </c>
       <c r="G241" t="n">
-        <v>389440.7026987202</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8720,18 +8005,15 @@
         <v>37893.7345</v>
       </c>
       <c r="G242" t="n">
-        <v>351546.9681987201</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8753,18 +8035,15 @@
         <v>5856.9374</v>
       </c>
       <c r="G243" t="n">
-        <v>357403.9055987201</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8786,18 +8065,15 @@
         <v>3622.9384</v>
       </c>
       <c r="G244" t="n">
-        <v>361026.8439987201</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8819,18 +8095,15 @@
         <v>12816.0623</v>
       </c>
       <c r="G245" t="n">
-        <v>348210.7816987201</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8852,18 +8125,15 @@
         <v>3697.4011</v>
       </c>
       <c r="G246" t="n">
-        <v>348210.7816987201</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8885,18 +8155,15 @@
         <v>111.243</v>
       </c>
       <c r="G247" t="n">
-        <v>348322.0246987201</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8918,18 +8185,15 @@
         <v>7009.0497</v>
       </c>
       <c r="G248" t="n">
-        <v>355331.0743987201</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8951,18 +8215,15 @@
         <v>29098.8898</v>
       </c>
       <c r="G249" t="n">
-        <v>384429.9641987201</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8984,18 +8245,15 @@
         <v>85276.64780000001</v>
       </c>
       <c r="G250" t="n">
-        <v>384429.9641987201</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9017,18 +8275,15 @@
         <v>7183.496</v>
       </c>
       <c r="G251" t="n">
-        <v>377246.4681987201</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9050,18 +8305,15 @@
         <v>20450.9686</v>
       </c>
       <c r="G252" t="n">
-        <v>377246.4681987201</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9083,18 +8335,15 @@
         <v>16971.3845</v>
       </c>
       <c r="G253" t="n">
-        <v>377246.4681987201</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9116,18 +8365,15 @@
         <v>15538.9101</v>
       </c>
       <c r="G254" t="n">
-        <v>377246.4681987201</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9149,18 +8395,15 @@
         <v>16428.7095</v>
       </c>
       <c r="G255" t="n">
-        <v>377246.4681987201</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9182,18 +8425,15 @@
         <v>179.0749</v>
       </c>
       <c r="G256" t="n">
-        <v>377246.4681987201</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9215,18 +8455,15 @@
         <v>170.1572</v>
       </c>
       <c r="G257" t="n">
-        <v>377416.6253987201</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9248,18 +8485,15 @@
         <v>8414.820400000001</v>
       </c>
       <c r="G258" t="n">
-        <v>385831.4457987202</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9281,18 +8515,15 @@
         <v>853.5205</v>
       </c>
       <c r="G259" t="n">
-        <v>386684.9662987202</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9314,18 +8545,15 @@
         <v>159.2587</v>
       </c>
       <c r="G260" t="n">
-        <v>386525.7075987202</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9347,18 +8575,15 @@
         <v>5200</v>
       </c>
       <c r="G261" t="n">
-        <v>391725.7075987202</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9380,18 +8605,15 @@
         <v>209660.2322</v>
       </c>
       <c r="G262" t="n">
-        <v>182065.4753987202</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9413,18 +8635,15 @@
         <v>175.77050734</v>
       </c>
       <c r="G263" t="n">
-        <v>182241.2459060602</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9446,18 +8665,15 @@
         <v>48788.2653</v>
       </c>
       <c r="G264" t="n">
-        <v>133452.9806060602</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9479,18 +8695,15 @@
         <v>6367.8528</v>
       </c>
       <c r="G265" t="n">
-        <v>133452.9806060602</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9512,18 +8725,15 @@
         <v>16000</v>
       </c>
       <c r="G266" t="n">
-        <v>149452.9806060602</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9545,18 +8755,15 @@
         <v>11618.9933</v>
       </c>
       <c r="G267" t="n">
-        <v>137833.9873060602</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9578,18 +8785,15 @@
         <v>50</v>
       </c>
       <c r="G268" t="n">
-        <v>137883.9873060602</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9611,18 +8815,15 @@
         <v>177.863</v>
       </c>
       <c r="G269" t="n">
-        <v>137883.9873060602</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9644,18 +8845,15 @@
         <v>84</v>
       </c>
       <c r="G270" t="n">
-        <v>137883.9873060602</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9677,18 +8875,15 @@
         <v>0.607</v>
       </c>
       <c r="G271" t="n">
-        <v>137883.9873060602</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9710,18 +8905,15 @@
         <v>72181.3845</v>
       </c>
       <c r="G272" t="n">
-        <v>137883.9873060602</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9743,18 +8935,15 @@
         <v>48002.9565</v>
       </c>
       <c r="G273" t="n">
-        <v>185886.9438060602</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9776,18 +8965,15 @@
         <v>691.0635</v>
       </c>
       <c r="G274" t="n">
-        <v>186578.0073060601</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9809,18 +8995,15 @@
         <v>25</v>
       </c>
       <c r="G275" t="n">
-        <v>186553.0073060601</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9842,18 +9025,15 @@
         <v>30</v>
       </c>
       <c r="G276" t="n">
-        <v>186583.0073060601</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9875,18 +9055,15 @@
         <v>29957.5664</v>
       </c>
       <c r="G277" t="n">
-        <v>156625.4409060601</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9908,18 +9085,15 @@
         <v>655.985</v>
       </c>
       <c r="G278" t="n">
-        <v>157281.4259060601</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9941,18 +9115,15 @@
         <v>623.3085</v>
       </c>
       <c r="G279" t="n">
-        <v>157904.7344060601</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9974,18 +9145,15 @@
         <v>24</v>
       </c>
       <c r="G280" t="n">
-        <v>157928.7344060601</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10007,18 +9175,15 @@
         <v>12000</v>
       </c>
       <c r="G281" t="n">
-        <v>145928.7344060601</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10040,18 +9205,15 @@
         <v>14718</v>
       </c>
       <c r="G282" t="n">
-        <v>160646.7344060601</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10073,18 +9235,15 @@
         <v>86.4511</v>
       </c>
       <c r="G283" t="n">
-        <v>160560.2833060601</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10106,18 +9265,15 @@
         <v>5863.9909</v>
       </c>
       <c r="G284" t="n">
-        <v>160560.2833060601</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10139,18 +9295,15 @@
         <v>293.1568</v>
       </c>
       <c r="G285" t="n">
-        <v>160560.2833060601</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10172,18 +9325,15 @@
         <v>36299.7145</v>
       </c>
       <c r="G286" t="n">
-        <v>196859.9978060601</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10205,18 +9355,15 @@
         <v>14.2031</v>
       </c>
       <c r="G287" t="n">
-        <v>196859.9978060601</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10238,18 +9385,15 @@
         <v>30</v>
       </c>
       <c r="G288" t="n">
-        <v>196889.9978060601</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10271,18 +9415,15 @@
         <v>278.499</v>
       </c>
       <c r="G289" t="n">
-        <v>196611.4988060601</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10304,18 +9445,15 @@
         <v>2647.8904</v>
       </c>
       <c r="G290" t="n">
-        <v>196611.4988060601</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10337,18 +9475,15 @@
         <v>4672.7628</v>
       </c>
       <c r="G291" t="n">
-        <v>191938.7360060601</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10370,18 +9505,15 @@
         <v>362101.7083</v>
       </c>
       <c r="G292" t="n">
-        <v>-170162.9722939399</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10403,18 +9535,15 @@
         <v>35799.7145</v>
       </c>
       <c r="G293" t="n">
-        <v>-170162.9722939399</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10436,18 +9565,15 @@
         <v>57310.6761</v>
       </c>
       <c r="G294" t="n">
-        <v>-170162.9722939399</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10469,18 +9595,15 @@
         <v>38517.6596</v>
       </c>
       <c r="G295" t="n">
-        <v>-131645.3126939399</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10502,18 +9625,15 @@
         <v>10675.4424</v>
       </c>
       <c r="G296" t="n">
-        <v>-142320.7550939399</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10535,18 +9655,15 @@
         <v>389.8603</v>
       </c>
       <c r="G297" t="n">
-        <v>-141930.8947939399</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10568,18 +9685,15 @@
         <v>200</v>
       </c>
       <c r="G298" t="n">
-        <v>-141730.8947939399</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10601,18 +9715,15 @@
         <v>174624.5684</v>
       </c>
       <c r="G299" t="n">
-        <v>-316355.4631939399</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10634,18 +9745,15 @@
         <v>47275.1765</v>
       </c>
       <c r="G300" t="n">
-        <v>-316355.4631939399</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10667,18 +9775,15 @@
         <v>178094.5434</v>
       </c>
       <c r="G301" t="n">
-        <v>-138260.9197939399</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10700,18 +9805,21 @@
         <v>19200</v>
       </c>
       <c r="G302" t="n">
-        <v>-119060.9197939399</v>
+        <v>1</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>20.59</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10733,18 +9841,19 @@
         <v>853.5205</v>
       </c>
       <c r="G303" t="n">
-        <v>-119914.4402939399</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10766,18 +9875,21 @@
         <v>40877.8942</v>
       </c>
       <c r="G304" t="n">
-        <v>-119914.4402939399</v>
+        <v>1</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10799,18 +9911,19 @@
         <v>6062.7212</v>
       </c>
       <c r="G305" t="n">
-        <v>-125977.1614939399</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10832,18 +9945,21 @@
         <v>8140.7246</v>
       </c>
       <c r="G306" t="n">
-        <v>-117836.4368939399</v>
+        <v>1</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>20.49</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10865,18 +9981,19 @@
         <v>20550.0693</v>
       </c>
       <c r="G307" t="n">
-        <v>-138386.5061939399</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10898,18 +10015,19 @@
         <v>5200</v>
       </c>
       <c r="G308" t="n">
-        <v>-133186.5061939399</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10931,18 +10049,21 @@
         <v>14200</v>
       </c>
       <c r="G309" t="n">
-        <v>-118986.5061939399</v>
+        <v>1</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>20.48</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10964,18 +10085,21 @@
         <v>7100</v>
       </c>
       <c r="G310" t="n">
-        <v>-126086.5061939399</v>
+        <v>1</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>20.59</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -10997,18 +10121,21 @@
         <v>105569.45453583</v>
       </c>
       <c r="G311" t="n">
-        <v>-20517.05165810989</v>
+        <v>1</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11030,18 +10157,21 @@
         <v>2000</v>
       </c>
       <c r="G312" t="n">
-        <v>-20517.05165810989</v>
+        <v>1</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>20.83</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11063,18 +10193,19 @@
         <v>8939.322899999999</v>
       </c>
       <c r="G313" t="n">
-        <v>-11577.72875810989</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11096,18 +10227,19 @@
         <v>10007.3705</v>
       </c>
       <c r="G314" t="n">
-        <v>-11577.72875810989</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11129,18 +10261,19 @@
         <v>22527.3572</v>
       </c>
       <c r="G315" t="n">
-        <v>10949.62844189011</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11162,18 +10295,19 @@
         <v>434.6309</v>
       </c>
       <c r="G316" t="n">
-        <v>11384.25934189011</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
